--- a/QuantStudio/Resource/JYDBInfo.xlsx
+++ b/QuantStudio/Resource/JYDBInfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\QuantStudio\QuantStudio\Resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0D726-4324-4916-9F1E-1B58CA26DA07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="5" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5075" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5075" uniqueCount="1823">
   <si>
     <t>TableName</t>
   </si>
@@ -5481,19 +5487,21 @@
   </si>
   <si>
     <t>BeginDate</t>
+  </si>
+  <si>
+    <t>MacroTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MappingTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5502,345 +5510,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -5848,253 +5541,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6103,62 +5554,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6445,19 +5853,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -6468,7 +5876,7 @@
     <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6494,7 +5902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -6502,7 +5910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6525,7 +5933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6548,7 +5956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -6571,15 +5979,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
+      <c r="C6" s="4" t="s">
+        <v>1822</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -6594,7 +6002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6617,7 +6025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -6640,7 +6048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -6663,7 +6071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -6686,7 +6094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -6709,7 +6117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -6732,7 +6140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -6755,7 +6163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -6778,7 +6186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -6801,7 +6209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -6824,7 +6232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -6847,7 +6255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -6870,7 +6278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -6893,7 +6301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -6916,93 +6324,92 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
+      <c r="C21" s="4" t="s">
+        <v>1821</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
+      <c r="C22" s="4" t="s">
+        <v>1821</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
+      <c r="C23" s="4" t="s">
+        <v>1821</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
+      <c r="C24" s="4" t="s">
+        <v>1821</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>65</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
+      <c r="C25" s="4" t="s">
+        <v>1821</v>
       </c>
       <c r="H25" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G988"/>
   <sheetViews>
-    <sheetView topLeftCell="A962" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C990" sqref="C990"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="37.125" customWidth="1"/>
@@ -7013,7 +6420,7 @@
     <col min="7" max="7" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7036,7 +6443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -7050,7 +6457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -7064,7 +6471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -7078,7 +6485,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -7092,7 +6499,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -7106,7 +6513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -7120,7 +6527,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -7134,7 +6541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -7148,7 +6555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7162,7 +6569,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -7176,7 +6583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -7190,7 +6597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -7204,7 +6611,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -7218,7 +6625,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -7232,7 +6639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -7246,7 +6653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7260,7 +6667,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -7274,7 +6681,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -7288,7 +6695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -7302,7 +6709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -7316,7 +6723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -7330,7 +6737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -7344,7 +6751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -7358,7 +6765,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -7372,7 +6779,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -7386,7 +6793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -7400,7 +6807,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -7414,7 +6821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -7428,7 +6835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -7442,7 +6849,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -7456,7 +6863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -7473,7 +6880,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -7490,7 +6897,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -7507,7 +6914,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -7524,7 +6931,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -7541,7 +6948,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -7558,7 +6965,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -7575,7 +6982,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -7592,7 +6999,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -7609,7 +7016,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -7626,7 +7033,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -7643,7 +7050,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -7660,7 +7067,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -7677,7 +7084,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -7694,7 +7101,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -7711,7 +7118,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -7728,7 +7135,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -7745,7 +7152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -7762,7 +7169,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -7779,7 +7186,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -7796,7 +7203,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -7813,7 +7220,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -7830,7 +7237,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -7847,7 +7254,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -7864,7 +7271,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -7881,7 +7288,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -7898,7 +7305,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -7915,7 +7322,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -7932,7 +7339,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -7949,7 +7356,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -7966,7 +7373,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -7983,7 +7390,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -8000,7 +7407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -8017,7 +7424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -8034,7 +7441,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -8051,7 +7458,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -8068,7 +7475,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -8085,7 +7492,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -8102,7 +7509,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -8119,7 +7526,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -8136,7 +7543,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -8153,7 +7560,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -8170,7 +7577,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -8187,7 +7594,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -8204,7 +7611,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -8221,7 +7628,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -8238,7 +7645,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -8255,7 +7662,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -8272,7 +7679,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -8289,7 +7696,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -8306,7 +7713,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -8323,7 +7730,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -8340,7 +7747,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -8357,7 +7764,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -8374,7 +7781,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -8391,7 +7798,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -8408,7 +7815,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -8425,7 +7832,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -8442,7 +7849,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -8459,7 +7866,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -8476,7 +7883,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -8493,7 +7900,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -8510,7 +7917,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -8527,7 +7934,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -8544,7 +7951,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -8561,7 +7968,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -8578,7 +7985,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -8595,7 +8002,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -8612,7 +8019,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -8629,7 +8036,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -8646,7 +8053,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -8663,7 +8070,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -8680,7 +8087,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -8697,7 +8104,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -8714,7 +8121,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -8731,7 +8138,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -8748,7 +8155,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -8765,7 +8172,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -8782,7 +8189,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -8799,7 +8206,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -8816,7 +8223,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -8833,7 +8240,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -8850,7 +8257,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -8867,7 +8274,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -8884,7 +8291,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -8901,7 +8308,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -8918,7 +8325,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -8935,7 +8342,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -8952,7 +8359,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -8969,7 +8376,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -8986,7 +8393,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -9003,7 +8410,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -9020,7 +8427,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -9037,7 +8444,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -9054,7 +8461,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -9071,7 +8478,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -9088,7 +8495,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -9105,7 +8512,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -9122,7 +8529,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -9139,7 +8546,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -9156,7 +8563,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -9173,7 +8580,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -9190,7 +8597,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -9207,7 +8614,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -9224,7 +8631,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -9241,7 +8648,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -9258,7 +8665,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -9275,7 +8682,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -9292,7 +8699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -9309,7 +8716,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -9326,7 +8733,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -9343,7 +8750,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -9360,7 +8767,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -9377,7 +8784,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -9394,7 +8801,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -9411,7 +8818,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -9428,7 +8835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -9445,7 +8852,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -9462,7 +8869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -9479,7 +8886,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -9496,7 +8903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -9513,7 +8920,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -9530,7 +8937,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -9547,7 +8954,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -9564,7 +8971,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>26</v>
       </c>
@@ -9581,7 +8988,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -9598,7 +9005,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -9615,7 +9022,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -9632,7 +9039,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>26</v>
       </c>
@@ -9649,7 +9056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>26</v>
       </c>
@@ -9666,7 +9073,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>26</v>
       </c>
@@ -9683,7 +9090,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -9700,7 +9107,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -9717,7 +9124,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -9734,7 +9141,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -9751,7 +9158,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -9768,7 +9175,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -9785,7 +9192,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -9802,7 +9209,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -9819,7 +9226,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -9836,7 +9243,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -9853,7 +9260,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -9870,7 +9277,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -9887,7 +9294,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -9904,7 +9311,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -9921,7 +9328,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>26</v>
       </c>
@@ -9938,7 +9345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -9955,7 +9362,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -9972,7 +9379,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>26</v>
       </c>
@@ -9989,7 +9396,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -10006,7 +9413,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -10023,7 +9430,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>26</v>
       </c>
@@ -10040,7 +9447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -10057,7 +9464,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -10074,7 +9481,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -10091,7 +9498,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>26</v>
       </c>
@@ -10108,7 +9515,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -10125,7 +9532,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>26</v>
       </c>
@@ -10142,7 +9549,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>26</v>
       </c>
@@ -10159,7 +9566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -10176,7 +9583,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -10193,7 +9600,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>26</v>
       </c>
@@ -10210,7 +9617,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -10227,7 +9634,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -10244,7 +9651,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>26</v>
       </c>
@@ -10261,7 +9668,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -10278,7 +9685,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -10295,7 +9702,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -10312,7 +9719,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -10329,7 +9736,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -10346,7 +9753,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -10363,7 +9770,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -10380,7 +9787,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -10397,7 +9804,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -10414,7 +9821,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -10431,7 +9838,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -10448,7 +9855,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -10465,7 +9872,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -10482,7 +9889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -10499,7 +9906,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -10516,7 +9923,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -10533,7 +9940,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -10550,7 +9957,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -10567,7 +9974,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -10584,7 +9991,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -10601,7 +10008,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -10618,7 +10025,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -10635,7 +10042,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -10652,7 +10059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -10669,7 +10076,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>26</v>
       </c>
@@ -10686,7 +10093,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -10703,7 +10110,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>26</v>
       </c>
@@ -10720,7 +10127,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>29</v>
       </c>
@@ -10737,7 +10144,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>29</v>
       </c>
@@ -10754,7 +10161,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>29</v>
       </c>
@@ -10771,7 +10178,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>29</v>
       </c>
@@ -10788,7 +10195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>29</v>
       </c>
@@ -10805,7 +10212,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>29</v>
       </c>
@@ -10822,7 +10229,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>29</v>
       </c>
@@ -10839,7 +10246,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>29</v>
       </c>
@@ -10856,7 +10263,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>29</v>
       </c>
@@ -10873,7 +10280,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -10890,7 +10297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>29</v>
       </c>
@@ -10907,7 +10314,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -10924,7 +10331,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>29</v>
       </c>
@@ -10941,7 +10348,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>29</v>
       </c>
@@ -10958,7 +10365,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>29</v>
       </c>
@@ -10975,7 +10382,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>29</v>
       </c>
@@ -10992,7 +10399,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>29</v>
       </c>
@@ -11009,7 +10416,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>29</v>
       </c>
@@ -11026,7 +10433,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>29</v>
       </c>
@@ -11043,7 +10450,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>29</v>
       </c>
@@ -11060,7 +10467,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>29</v>
       </c>
@@ -11077,7 +10484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>29</v>
       </c>
@@ -11094,7 +10501,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>29</v>
       </c>
@@ -11111,7 +10518,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>29</v>
       </c>
@@ -11128,7 +10535,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -11145,7 +10552,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>29</v>
       </c>
@@ -11162,7 +10569,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>29</v>
       </c>
@@ -11179,7 +10586,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>29</v>
       </c>
@@ -11196,7 +10603,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>29</v>
       </c>
@@ -11213,7 +10620,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>29</v>
       </c>
@@ -11230,7 +10637,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>29</v>
       </c>
@@ -11247,7 +10654,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>29</v>
       </c>
@@ -11264,7 +10671,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>29</v>
       </c>
@@ -11281,7 +10688,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>29</v>
       </c>
@@ -11298,7 +10705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>29</v>
       </c>
@@ -11315,7 +10722,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -11332,7 +10739,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>29</v>
       </c>
@@ -11349,7 +10756,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>29</v>
       </c>
@@ -11366,7 +10773,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>29</v>
       </c>
@@ -11383,7 +10790,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>29</v>
       </c>
@@ -11400,7 +10807,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>29</v>
       </c>
@@ -11417,7 +10824,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>29</v>
       </c>
@@ -11434,7 +10841,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>29</v>
       </c>
@@ -11451,7 +10858,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>29</v>
       </c>
@@ -11468,7 +10875,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>29</v>
       </c>
@@ -11485,7 +10892,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>29</v>
       </c>
@@ -11502,7 +10909,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -11519,7 +10926,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>29</v>
       </c>
@@ -11536,7 +10943,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>29</v>
       </c>
@@ -11553,7 +10960,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>29</v>
       </c>
@@ -11570,7 +10977,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>29</v>
       </c>
@@ -11587,7 +10994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>29</v>
       </c>
@@ -11604,7 +11011,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>29</v>
       </c>
@@ -11621,7 +11028,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>29</v>
       </c>
@@ -11638,7 +11045,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>29</v>
       </c>
@@ -11655,7 +11062,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -11672,7 +11079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>29</v>
       </c>
@@ -11689,7 +11096,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>29</v>
       </c>
@@ -11706,7 +11113,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>29</v>
       </c>
@@ -11723,7 +11130,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>29</v>
       </c>
@@ -11740,7 +11147,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -11757,7 +11164,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -11774,7 +11181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>29</v>
       </c>
@@ -11791,7 +11198,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>29</v>
       </c>
@@ -11808,7 +11215,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -11825,7 +11232,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -11842,7 +11249,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>29</v>
       </c>
@@ -11859,7 +11266,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>29</v>
       </c>
@@ -11876,7 +11283,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>29</v>
       </c>
@@ -11893,7 +11300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>29</v>
       </c>
@@ -11910,7 +11317,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>29</v>
       </c>
@@ -11927,7 +11334,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>29</v>
       </c>
@@ -11944,7 +11351,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>29</v>
       </c>
@@ -11961,7 +11368,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>29</v>
       </c>
@@ -11978,7 +11385,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>29</v>
       </c>
@@ -11995,7 +11402,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>29</v>
       </c>
@@ -12012,7 +11419,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>29</v>
       </c>
@@ -12029,7 +11436,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>29</v>
       </c>
@@ -12046,7 +11453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>29</v>
       </c>
@@ -12063,7 +11470,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>29</v>
       </c>
@@ -12080,7 +11487,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>29</v>
       </c>
@@ -12097,7 +11504,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>29</v>
       </c>
@@ -12114,7 +11521,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>29</v>
       </c>
@@ -12131,7 +11538,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>29</v>
       </c>
@@ -12148,7 +11555,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>29</v>
       </c>
@@ -12165,7 +11572,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>29</v>
       </c>
@@ -12182,7 +11589,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>29</v>
       </c>
@@ -12199,7 +11606,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>29</v>
       </c>
@@ -12216,7 +11623,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>29</v>
       </c>
@@ -12233,7 +11640,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>29</v>
       </c>
@@ -12250,7 +11657,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>29</v>
       </c>
@@ -12267,7 +11674,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>29</v>
       </c>
@@ -12284,7 +11691,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>29</v>
       </c>
@@ -12301,7 +11708,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>29</v>
       </c>
@@ -12318,7 +11725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>29</v>
       </c>
@@ -12335,7 +11742,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>29</v>
       </c>
@@ -12352,7 +11759,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>29</v>
       </c>
@@ -12369,7 +11776,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>29</v>
       </c>
@@ -12386,7 +11793,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>29</v>
       </c>
@@ -12403,7 +11810,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>29</v>
       </c>
@@ -12420,7 +11827,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>29</v>
       </c>
@@ -12437,7 +11844,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>29</v>
       </c>
@@ -12454,7 +11861,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>29</v>
       </c>
@@ -12471,7 +11878,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>29</v>
       </c>
@@ -12488,7 +11895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>29</v>
       </c>
@@ -12505,7 +11912,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>29</v>
       </c>
@@ -12522,7 +11929,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -12539,7 +11946,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -12556,7 +11963,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>29</v>
       </c>
@@ -12573,7 +11980,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>31</v>
       </c>
@@ -12590,7 +11997,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>31</v>
       </c>
@@ -12607,7 +12014,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>31</v>
       </c>
@@ -12624,7 +12031,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -12641,7 +12048,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>31</v>
       </c>
@@ -12658,7 +12065,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>31</v>
       </c>
@@ -12675,7 +12082,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -12692,7 +12099,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>31</v>
       </c>
@@ -12709,7 +12116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -12726,7 +12133,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>31</v>
       </c>
@@ -12743,7 +12150,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>31</v>
       </c>
@@ -12760,7 +12167,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -12777,7 +12184,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>31</v>
       </c>
@@ -12794,7 +12201,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>31</v>
       </c>
@@ -12811,7 +12218,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>31</v>
       </c>
@@ -12828,7 +12235,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>31</v>
       </c>
@@ -12845,7 +12252,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>31</v>
       </c>
@@ -12862,7 +12269,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>31</v>
       </c>
@@ -12879,7 +12286,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>31</v>
       </c>
@@ -12896,7 +12303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>31</v>
       </c>
@@ -12913,7 +12320,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>31</v>
       </c>
@@ -12930,7 +12337,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>31</v>
       </c>
@@ -12947,7 +12354,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>31</v>
       </c>
@@ -12964,7 +12371,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>31</v>
       </c>
@@ -12981,7 +12388,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>31</v>
       </c>
@@ -12998,7 +12405,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>31</v>
       </c>
@@ -13015,7 +12422,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>31</v>
       </c>
@@ -13032,7 +12439,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>31</v>
       </c>
@@ -13049,7 +12456,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>31</v>
       </c>
@@ -13066,7 +12473,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>31</v>
       </c>
@@ -13083,7 +12490,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>31</v>
       </c>
@@ -13100,7 +12507,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>31</v>
       </c>
@@ -13117,7 +12524,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>31</v>
       </c>
@@ -13134,7 +12541,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>31</v>
       </c>
@@ -13151,7 +12558,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>31</v>
       </c>
@@ -13168,7 +12575,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>31</v>
       </c>
@@ -13185,7 +12592,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>31</v>
       </c>
@@ -13202,7 +12609,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>31</v>
       </c>
@@ -13219,7 +12626,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>31</v>
       </c>
@@ -13236,7 +12643,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>31</v>
       </c>
@@ -13253,7 +12660,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>31</v>
       </c>
@@ -13270,7 +12677,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>31</v>
       </c>
@@ -13287,7 +12694,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>31</v>
       </c>
@@ -13304,7 +12711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>31</v>
       </c>
@@ -13321,7 +12728,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>31</v>
       </c>
@@ -13338,7 +12745,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>31</v>
       </c>
@@ -13355,7 +12762,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>31</v>
       </c>
@@ -13372,7 +12779,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>31</v>
       </c>
@@ -13389,7 +12796,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>31</v>
       </c>
@@ -13406,7 +12813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>31</v>
       </c>
@@ -13423,7 +12830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>31</v>
       </c>
@@ -13440,7 +12847,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>31</v>
       </c>
@@ -13457,7 +12864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>31</v>
       </c>
@@ -13474,7 +12881,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>31</v>
       </c>
@@ -13491,7 +12898,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>31</v>
       </c>
@@ -13508,7 +12915,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>31</v>
       </c>
@@ -13525,7 +12932,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>31</v>
       </c>
@@ -13542,7 +12949,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>31</v>
       </c>
@@ -13559,7 +12966,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>31</v>
       </c>
@@ -13576,7 +12983,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>31</v>
       </c>
@@ -13593,7 +13000,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>31</v>
       </c>
@@ -13610,7 +13017,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>31</v>
       </c>
@@ -13627,7 +13034,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>31</v>
       </c>
@@ -13644,7 +13051,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>31</v>
       </c>
@@ -13661,7 +13068,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>31</v>
       </c>
@@ -13678,7 +13085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>31</v>
       </c>
@@ -13695,7 +13102,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>31</v>
       </c>
@@ -13712,7 +13119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>31</v>
       </c>
@@ -13729,7 +13136,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>31</v>
       </c>
@@ -13746,7 +13153,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>31</v>
       </c>
@@ -13763,7 +13170,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>31</v>
       </c>
@@ -13780,7 +13187,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>31</v>
       </c>
@@ -13797,7 +13204,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -13814,7 +13221,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>31</v>
       </c>
@@ -13831,7 +13238,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>31</v>
       </c>
@@ -13848,7 +13255,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>31</v>
       </c>
@@ -13865,7 +13272,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>31</v>
       </c>
@@ -13882,7 +13289,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>31</v>
       </c>
@@ -13899,7 +13306,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>31</v>
       </c>
@@ -13916,7 +13323,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>31</v>
       </c>
@@ -13933,7 +13340,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>31</v>
       </c>
@@ -13950,7 +13357,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>31</v>
       </c>
@@ -13967,7 +13374,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>31</v>
       </c>
@@ -13984,7 +13391,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>31</v>
       </c>
@@ -14001,7 +13408,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>31</v>
       </c>
@@ -14018,7 +13425,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>31</v>
       </c>
@@ -14035,7 +13442,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>31</v>
       </c>
@@ -14052,7 +13459,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>31</v>
       </c>
@@ -14069,7 +13476,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>31</v>
       </c>
@@ -14086,7 +13493,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>31</v>
       </c>
@@ -14103,7 +13510,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>31</v>
       </c>
@@ -14120,7 +13527,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>31</v>
       </c>
@@ -14137,7 +13544,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>31</v>
       </c>
@@ -14154,7 +13561,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>31</v>
       </c>
@@ -14171,7 +13578,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>31</v>
       </c>
@@ -14188,7 +13595,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>31</v>
       </c>
@@ -14205,7 +13612,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>31</v>
       </c>
@@ -14222,7 +13629,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>31</v>
       </c>
@@ -14239,7 +13646,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>31</v>
       </c>
@@ -14256,7 +13663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>31</v>
       </c>
@@ -14273,7 +13680,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>31</v>
       </c>
@@ -14290,7 +13697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>31</v>
       </c>
@@ -14307,7 +13714,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>31</v>
       </c>
@@ -14324,7 +13731,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>31</v>
       </c>
@@ -14341,7 +13748,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>31</v>
       </c>
@@ -14358,7 +13765,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>31</v>
       </c>
@@ -14375,7 +13782,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>31</v>
       </c>
@@ -14392,7 +13799,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>31</v>
       </c>
@@ -14409,7 +13816,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>31</v>
       </c>
@@ -14426,7 +13833,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>31</v>
       </c>
@@ -14443,7 +13850,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>31</v>
       </c>
@@ -14460,7 +13867,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>31</v>
       </c>
@@ -14477,7 +13884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>31</v>
       </c>
@@ -14494,7 +13901,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>31</v>
       </c>
@@ -14511,7 +13918,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>31</v>
       </c>
@@ -14528,7 +13935,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>31</v>
       </c>
@@ -14545,7 +13952,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>31</v>
       </c>
@@ -14562,7 +13969,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>31</v>
       </c>
@@ -14579,7 +13986,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>31</v>
       </c>
@@ -14596,7 +14003,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>31</v>
       </c>
@@ -14613,7 +14020,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>37</v>
       </c>
@@ -14630,7 +14037,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>37</v>
       </c>
@@ -14647,7 +14054,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>37</v>
       </c>
@@ -14667,7 +14074,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>37</v>
       </c>
@@ -14684,7 +14091,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>37</v>
       </c>
@@ -14701,7 +14108,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>37</v>
       </c>
@@ -14718,7 +14125,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>37</v>
       </c>
@@ -14735,7 +14142,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>37</v>
       </c>
@@ -14752,7 +14159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>37</v>
       </c>
@@ -14769,7 +14176,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>37</v>
       </c>
@@ -14786,7 +14193,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>37</v>
       </c>
@@ -14803,7 +14210,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>37</v>
       </c>
@@ -14820,7 +14227,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>37</v>
       </c>
@@ -14837,7 +14244,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>37</v>
       </c>
@@ -14854,7 +14261,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>37</v>
       </c>
@@ -14871,7 +14278,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>37</v>
       </c>
@@ -14888,7 +14295,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>37</v>
       </c>
@@ -14905,7 +14312,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>37</v>
       </c>
@@ -14922,7 +14329,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>37</v>
       </c>
@@ -14939,7 +14346,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>37</v>
       </c>
@@ -14956,7 +14363,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>37</v>
       </c>
@@ -14973,7 +14380,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>37</v>
       </c>
@@ -14990,7 +14397,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>37</v>
       </c>
@@ -15007,7 +14414,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>37</v>
       </c>
@@ -15024,7 +14431,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>37</v>
       </c>
@@ -15041,7 +14448,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>37</v>
       </c>
@@ -15058,7 +14465,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>37</v>
       </c>
@@ -15075,7 +14482,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>37</v>
       </c>
@@ -15092,7 +14499,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>37</v>
       </c>
@@ -15109,7 +14516,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>37</v>
       </c>
@@ -15126,7 +14533,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>37</v>
       </c>
@@ -15143,7 +14550,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>37</v>
       </c>
@@ -15160,7 +14567,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>37</v>
       </c>
@@ -15177,7 +14584,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>37</v>
       </c>
@@ -15194,7 +14601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>37</v>
       </c>
@@ -15211,7 +14618,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>37</v>
       </c>
@@ -15228,7 +14635,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>37</v>
       </c>
@@ -15245,7 +14652,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>37</v>
       </c>
@@ -15262,7 +14669,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>37</v>
       </c>
@@ -15279,7 +14686,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>37</v>
       </c>
@@ -15296,7 +14703,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>37</v>
       </c>
@@ -15313,7 +14720,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>37</v>
       </c>
@@ -15330,7 +14737,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>37</v>
       </c>
@@ -15347,7 +14754,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>37</v>
       </c>
@@ -15364,7 +14771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>37</v>
       </c>
@@ -15381,7 +14788,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>37</v>
       </c>
@@ -15398,7 +14805,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>37</v>
       </c>
@@ -15415,7 +14822,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>37</v>
       </c>
@@ -15432,7 +14839,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>37</v>
       </c>
@@ -15449,7 +14856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>37</v>
       </c>
@@ -15466,7 +14873,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>37</v>
       </c>
@@ -15483,7 +14890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>37</v>
       </c>
@@ -15500,7 +14907,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>37</v>
       </c>
@@ -15517,7 +14924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>37</v>
       </c>
@@ -15534,7 +14941,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>37</v>
       </c>
@@ -15551,7 +14958,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>37</v>
       </c>
@@ -15568,7 +14975,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>37</v>
       </c>
@@ -15585,7 +14992,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>37</v>
       </c>
@@ -15602,7 +15009,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>37</v>
       </c>
@@ -15619,7 +15026,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>37</v>
       </c>
@@ -15636,7 +15043,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>37</v>
       </c>
@@ -15653,7 +15060,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>37</v>
       </c>
@@ -15670,7 +15077,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>37</v>
       </c>
@@ -15687,7 +15094,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>37</v>
       </c>
@@ -15704,7 +15111,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>37</v>
       </c>
@@ -15721,7 +15128,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>37</v>
       </c>
@@ -15738,7 +15145,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>37</v>
       </c>
@@ -15755,7 +15162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>37</v>
       </c>
@@ -15772,7 +15179,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>37</v>
       </c>
@@ -15789,7 +15196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>37</v>
       </c>
@@ -15806,7 +15213,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>37</v>
       </c>
@@ -15823,7 +15230,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>37</v>
       </c>
@@ -15840,7 +15247,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>37</v>
       </c>
@@ -15857,7 +15264,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>37</v>
       </c>
@@ -15874,7 +15281,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>37</v>
       </c>
@@ -15891,7 +15298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>37</v>
       </c>
@@ -15908,7 +15315,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>37</v>
       </c>
@@ -15925,7 +15332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>37</v>
       </c>
@@ -15942,7 +15349,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>37</v>
       </c>
@@ -15959,7 +15366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>37</v>
       </c>
@@ -15976,7 +15383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>37</v>
       </c>
@@ -15993,7 +15400,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>37</v>
       </c>
@@ -16010,7 +15417,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>37</v>
       </c>
@@ -16027,7 +15434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>37</v>
       </c>
@@ -16044,7 +15451,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>37</v>
       </c>
@@ -16061,7 +15468,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>37</v>
       </c>
@@ -16078,7 +15485,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>37</v>
       </c>
@@ -16095,7 +15502,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>37</v>
       </c>
@@ -16112,7 +15519,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>37</v>
       </c>
@@ -16129,7 +15536,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>37</v>
       </c>
@@ -16146,7 +15553,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>37</v>
       </c>
@@ -16163,7 +15570,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>37</v>
       </c>
@@ -16180,7 +15587,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>37</v>
       </c>
@@ -16197,7 +15604,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>37</v>
       </c>
@@ -16214,7 +15621,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>37</v>
       </c>
@@ -16231,7 +15638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>37</v>
       </c>
@@ -16248,7 +15655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>37</v>
       </c>
@@ -16265,7 +15672,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>37</v>
       </c>
@@ -16282,7 +15689,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>40</v>
       </c>
@@ -16299,7 +15706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>40</v>
       </c>
@@ -16316,7 +15723,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>40</v>
       </c>
@@ -16333,7 +15740,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>40</v>
       </c>
@@ -16350,7 +15757,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>40</v>
       </c>
@@ -16367,7 +15774,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>40</v>
       </c>
@@ -16384,7 +15791,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>40</v>
       </c>
@@ -16401,7 +15808,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>40</v>
       </c>
@@ -16418,7 +15825,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>40</v>
       </c>
@@ -16435,7 +15842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>40</v>
       </c>
@@ -16452,7 +15859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>40</v>
       </c>
@@ -16469,7 +15876,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>40</v>
       </c>
@@ -16486,7 +15893,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
         <v>40</v>
       </c>
@@ -16503,7 +15910,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
         <v>40</v>
       </c>
@@ -16520,7 +15927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
         <v>40</v>
       </c>
@@ -16537,7 +15944,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
         <v>40</v>
       </c>
@@ -16554,7 +15961,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
         <v>40</v>
       </c>
@@ -16571,7 +15978,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
         <v>40</v>
       </c>
@@ -16588,7 +15995,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
         <v>40</v>
       </c>
@@ -16605,7 +16012,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
         <v>40</v>
       </c>
@@ -16622,7 +16029,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
         <v>40</v>
       </c>
@@ -16639,7 +16046,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -16656,7 +16063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
         <v>40</v>
       </c>
@@ -16673,7 +16080,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
         <v>40</v>
       </c>
@@ -16690,7 +16097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
         <v>40</v>
       </c>
@@ -16707,7 +16114,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
         <v>40</v>
       </c>
@@ -16724,7 +16131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
         <v>40</v>
       </c>
@@ -16741,7 +16148,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
         <v>40</v>
       </c>
@@ -16758,7 +16165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
         <v>40</v>
       </c>
@@ -16775,7 +16182,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
         <v>40</v>
       </c>
@@ -16792,7 +16199,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
         <v>40</v>
       </c>
@@ -16809,7 +16216,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
         <v>40</v>
       </c>
@@ -16826,7 +16233,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
         <v>40</v>
       </c>
@@ -16843,7 +16250,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
         <v>40</v>
       </c>
@@ -16860,7 +16267,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
         <v>40</v>
       </c>
@@ -16877,7 +16284,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
         <v>40</v>
       </c>
@@ -16894,7 +16301,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
         <v>40</v>
       </c>
@@ -16911,7 +16318,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
         <v>43</v>
       </c>
@@ -16928,7 +16335,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
         <v>43</v>
       </c>
@@ -16945,7 +16352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
         <v>43</v>
       </c>
@@ -16965,7 +16372,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
         <v>43</v>
       </c>
@@ -16982,7 +16389,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
         <v>43</v>
       </c>
@@ -16999,7 +16406,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
         <v>43</v>
       </c>
@@ -17016,7 +16423,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
         <v>43</v>
       </c>
@@ -17033,7 +16440,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
         <v>43</v>
       </c>
@@ -17050,7 +16457,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
         <v>43</v>
       </c>
@@ -17067,7 +16474,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
         <v>43</v>
       </c>
@@ -17084,7 +16491,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
         <v>43</v>
       </c>
@@ -17101,7 +16508,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
         <v>43</v>
       </c>
@@ -17118,7 +16525,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
         <v>43</v>
       </c>
@@ -17135,7 +16542,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
         <v>43</v>
       </c>
@@ -17152,7 +16559,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
         <v>43</v>
       </c>
@@ -17169,7 +16576,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
         <v>43</v>
       </c>
@@ -17186,7 +16593,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
         <v>43</v>
       </c>
@@ -17203,7 +16610,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
         <v>43</v>
       </c>
@@ -17220,7 +16627,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
         <v>43</v>
       </c>
@@ -17237,7 +16644,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
         <v>43</v>
       </c>
@@ -17254,7 +16661,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
         <v>43</v>
       </c>
@@ -17271,7 +16678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>43</v>
       </c>
@@ -17288,7 +16695,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>43</v>
       </c>
@@ -17305,7 +16712,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>43</v>
       </c>
@@ -17322,7 +16729,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>43</v>
       </c>
@@ -17339,7 +16746,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>45</v>
       </c>
@@ -17356,7 +16763,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>45</v>
       </c>
@@ -17373,7 +16780,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>45</v>
       </c>
@@ -17393,7 +16800,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>45</v>
       </c>
@@ -17410,7 +16817,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>45</v>
       </c>
@@ -17427,7 +16834,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>45</v>
       </c>
@@ -17444,7 +16851,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>45</v>
       </c>
@@ -17461,7 +16868,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>45</v>
       </c>
@@ -17478,7 +16885,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>45</v>
       </c>
@@ -17495,7 +16902,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>45</v>
       </c>
@@ -17512,7 +16919,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>45</v>
       </c>
@@ -17529,7 +16936,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>45</v>
       </c>
@@ -17546,7 +16953,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>45</v>
       </c>
@@ -17563,7 +16970,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>45</v>
       </c>
@@ -17580,7 +16987,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>45</v>
       </c>
@@ -17597,7 +17004,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>45</v>
       </c>
@@ -17614,7 +17021,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>45</v>
       </c>
@@ -17631,7 +17038,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>45</v>
       </c>
@@ -17648,7 +17055,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>45</v>
       </c>
@@ -17665,7 +17072,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>45</v>
       </c>
@@ -17682,7 +17089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>45</v>
       </c>
@@ -17699,7 +17106,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>47</v>
       </c>
@@ -17716,7 +17123,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>47</v>
       </c>
@@ -17733,7 +17140,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>47</v>
       </c>
@@ -17750,7 +17157,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>47</v>
       </c>
@@ -17767,7 +17174,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>47</v>
       </c>
@@ -17784,7 +17191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>47</v>
       </c>
@@ -17801,7 +17208,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>47</v>
       </c>
@@ -17818,7 +17225,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>47</v>
       </c>
@@ -17835,7 +17242,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>47</v>
       </c>
@@ -17852,7 +17259,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>47</v>
       </c>
@@ -17869,7 +17276,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>47</v>
       </c>
@@ -17886,7 +17293,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>47</v>
       </c>
@@ -17903,7 +17310,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>47</v>
       </c>
@@ -17920,7 +17327,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>47</v>
       </c>
@@ -17937,7 +17344,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>47</v>
       </c>
@@ -17954,7 +17361,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>47</v>
       </c>
@@ -17971,7 +17378,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>47</v>
       </c>
@@ -17988,7 +17395,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>47</v>
       </c>
@@ -18005,7 +17412,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>47</v>
       </c>
@@ -18022,7 +17429,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>47</v>
       </c>
@@ -18039,7 +17446,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>47</v>
       </c>
@@ -18056,7 +17463,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>47</v>
       </c>
@@ -18073,7 +17480,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>47</v>
       </c>
@@ -18090,7 +17497,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>47</v>
       </c>
@@ -18107,7 +17514,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>47</v>
       </c>
@@ -18124,7 +17531,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>47</v>
       </c>
@@ -18141,7 +17548,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>47</v>
       </c>
@@ -18158,7 +17565,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>47</v>
       </c>
@@ -18175,7 +17582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>19</v>
       </c>
@@ -18192,7 +17599,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>19</v>
       </c>
@@ -18209,7 +17616,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>19</v>
       </c>
@@ -18226,7 +17633,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>19</v>
       </c>
@@ -18243,7 +17650,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>19</v>
       </c>
@@ -18260,7 +17667,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>19</v>
       </c>
@@ -18277,7 +17684,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>19</v>
       </c>
@@ -18294,7 +17701,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>19</v>
       </c>
@@ -18311,7 +17718,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
         <v>19</v>
       </c>
@@ -18328,7 +17735,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
         <v>19</v>
       </c>
@@ -18345,7 +17752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
         <v>19</v>
       </c>
@@ -18362,7 +17769,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
         <v>19</v>
       </c>
@@ -18379,7 +17786,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
         <v>19</v>
       </c>
@@ -18396,7 +17803,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>19</v>
       </c>
@@ -18413,7 +17820,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>19</v>
       </c>
@@ -18430,7 +17837,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>19</v>
       </c>
@@ -18447,7 +17854,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>19</v>
       </c>
@@ -18464,7 +17871,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>19</v>
       </c>
@@ -18481,7 +17888,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>19</v>
       </c>
@@ -18498,7 +17905,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>19</v>
       </c>
@@ -18515,7 +17922,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>19</v>
       </c>
@@ -18532,7 +17939,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>19</v>
       </c>
@@ -18549,7 +17956,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>19</v>
       </c>
@@ -18566,7 +17973,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
         <v>19</v>
       </c>
@@ -18583,7 +17990,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
         <v>19</v>
       </c>
@@ -18600,7 +18007,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
         <v>19</v>
       </c>
@@ -18617,7 +18024,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
         <v>19</v>
       </c>
@@ -18634,7 +18041,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
         <v>19</v>
       </c>
@@ -18651,7 +18058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>19</v>
       </c>
@@ -18668,7 +18075,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>19</v>
       </c>
@@ -18685,7 +18092,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>19</v>
       </c>
@@ -18702,7 +18109,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>19</v>
       </c>
@@ -18719,7 +18126,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>19</v>
       </c>
@@ -18736,7 +18143,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>19</v>
       </c>
@@ -18753,7 +18160,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>19</v>
       </c>
@@ -18770,7 +18177,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>19</v>
       </c>
@@ -18787,7 +18194,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>19</v>
       </c>
@@ -18804,7 +18211,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>19</v>
       </c>
@@ -18821,7 +18228,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>19</v>
       </c>
@@ -18838,7 +18245,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>19</v>
       </c>
@@ -18855,7 +18262,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
         <v>19</v>
       </c>
@@ -18872,7 +18279,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>19</v>
       </c>
@@ -18889,7 +18296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>19</v>
       </c>
@@ -18906,7 +18313,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
         <v>19</v>
       </c>
@@ -18923,7 +18330,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>19</v>
       </c>
@@ -18940,7 +18347,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>19</v>
       </c>
@@ -18957,7 +18364,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>19</v>
       </c>
@@ -18974,7 +18381,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>19</v>
       </c>
@@ -18991,7 +18398,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>19</v>
       </c>
@@ -19008,7 +18415,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>19</v>
       </c>
@@ -19025,7 +18432,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>19</v>
       </c>
@@ -19042,7 +18449,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>19</v>
       </c>
@@ -19059,7 +18466,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>19</v>
       </c>
@@ -19076,7 +18483,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>19</v>
       </c>
@@ -19093,7 +18500,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>19</v>
       </c>
@@ -19110,7 +18517,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
         <v>19</v>
       </c>
@@ -19127,7 +18534,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
         <v>19</v>
       </c>
@@ -19144,7 +18551,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
         <v>19</v>
       </c>
@@ -19161,7 +18568,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
         <v>19</v>
       </c>
@@ -19178,7 +18585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
         <v>19</v>
       </c>
@@ -19195,7 +18602,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
         <v>19</v>
       </c>
@@ -19212,7 +18619,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
         <v>19</v>
       </c>
@@ -19229,7 +18636,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
         <v>19</v>
       </c>
@@ -19246,7 +18653,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
         <v>19</v>
       </c>
@@ -19263,7 +18670,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
         <v>19</v>
       </c>
@@ -19280,7 +18687,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
         <v>19</v>
       </c>
@@ -19297,7 +18704,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
         <v>19</v>
       </c>
@@ -19314,7 +18721,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
         <v>19</v>
       </c>
@@ -19331,7 +18738,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
         <v>19</v>
       </c>
@@ -19348,7 +18755,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
         <v>19</v>
       </c>
@@ -19365,7 +18772,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
         <v>19</v>
       </c>
@@ -19382,7 +18789,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
         <v>19</v>
       </c>
@@ -19399,7 +18806,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
         <v>19</v>
       </c>
@@ -19416,7 +18823,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
         <v>19</v>
       </c>
@@ -19433,7 +18840,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
         <v>19</v>
       </c>
@@ -19450,7 +18857,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
         <v>19</v>
       </c>
@@ -19467,7 +18874,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
         <v>19</v>
       </c>
@@ -19484,7 +18891,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
         <v>19</v>
       </c>
@@ -19501,7 +18908,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
         <v>19</v>
       </c>
@@ -19518,7 +18925,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
         <v>19</v>
       </c>
@@ -19535,7 +18942,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
         <v>19</v>
       </c>
@@ -19552,7 +18959,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
         <v>19</v>
       </c>
@@ -19569,7 +18976,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
         <v>19</v>
       </c>
@@ -19586,7 +18993,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
         <v>19</v>
       </c>
@@ -19603,7 +19010,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
         <v>19</v>
       </c>
@@ -19620,7 +19027,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
         <v>19</v>
       </c>
@@ -19637,7 +19044,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
         <v>19</v>
       </c>
@@ -19654,7 +19061,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
         <v>19</v>
       </c>
@@ -19671,7 +19078,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
         <v>19</v>
       </c>
@@ -19688,7 +19095,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
         <v>19</v>
       </c>
@@ -19705,7 +19112,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
         <v>19</v>
       </c>
@@ -19722,7 +19129,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
         <v>19</v>
       </c>
@@ -19739,7 +19146,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
         <v>19</v>
       </c>
@@ -19756,7 +19163,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
         <v>19</v>
       </c>
@@ -19773,7 +19180,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
         <v>19</v>
       </c>
@@ -19790,7 +19197,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
         <v>19</v>
       </c>
@@ -19807,7 +19214,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
         <v>19</v>
       </c>
@@ -19824,7 +19231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
         <v>19</v>
       </c>
@@ -19841,7 +19248,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
         <v>19</v>
       </c>
@@ -19861,7 +19268,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
         <v>19</v>
       </c>
@@ -19881,7 +19288,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
         <v>19</v>
       </c>
@@ -19898,7 +19305,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
         <v>19</v>
       </c>
@@ -19915,7 +19322,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
         <v>19</v>
       </c>
@@ -19932,7 +19339,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
         <v>19</v>
       </c>
@@ -19952,7 +19359,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
         <v>19</v>
       </c>
@@ -19972,7 +19379,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
         <v>19</v>
       </c>
@@ -19989,7 +19396,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
         <v>19</v>
       </c>
@@ -20006,7 +19413,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
         <v>19</v>
       </c>
@@ -20023,7 +19430,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
         <v>19</v>
       </c>
@@ -20040,7 +19447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
         <v>19</v>
       </c>
@@ -20057,7 +19464,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
         <v>19</v>
       </c>
@@ -20074,7 +19481,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A773" s="1" t="s">
         <v>33</v>
       </c>
@@ -20091,7 +19498,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A774" s="1" t="s">
         <v>33</v>
       </c>
@@ -20108,7 +19515,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A775" s="1" t="s">
         <v>33</v>
       </c>
@@ -20125,7 +19532,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A776" s="1" t="s">
         <v>33</v>
       </c>
@@ -20142,7 +19549,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A777" s="1" t="s">
         <v>33</v>
       </c>
@@ -20159,7 +19566,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A778" s="1" t="s">
         <v>33</v>
       </c>
@@ -20176,7 +19583,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A779" s="1" t="s">
         <v>33</v>
       </c>
@@ -20193,7 +19600,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A780" s="1" t="s">
         <v>33</v>
       </c>
@@ -20210,7 +19617,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A781" s="1" t="s">
         <v>33</v>
       </c>
@@ -20227,7 +19634,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A782" s="1" t="s">
         <v>33</v>
       </c>
@@ -20244,7 +19651,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A783" s="1" t="s">
         <v>33</v>
       </c>
@@ -20261,7 +19668,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A784" s="1" t="s">
         <v>33</v>
       </c>
@@ -20278,7 +19685,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A785" s="1" t="s">
         <v>33</v>
       </c>
@@ -20295,7 +19702,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A786" s="1" t="s">
         <v>33</v>
       </c>
@@ -20312,7 +19719,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A787" s="1" t="s">
         <v>33</v>
       </c>
@@ -20329,7 +19736,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A788" s="1" t="s">
         <v>33</v>
       </c>
@@ -20346,7 +19753,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A789" s="1" t="s">
         <v>33</v>
       </c>
@@ -20363,7 +19770,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A790" s="1" t="s">
         <v>33</v>
       </c>
@@ -20380,7 +19787,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A791" s="1" t="s">
         <v>33</v>
       </c>
@@ -20397,7 +19804,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A792" s="1" t="s">
         <v>33</v>
       </c>
@@ -20414,7 +19821,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A793" s="1" t="s">
         <v>33</v>
       </c>
@@ -20431,7 +19838,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A794" s="1" t="s">
         <v>33</v>
       </c>
@@ -20448,7 +19855,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A795" s="1" t="s">
         <v>33</v>
       </c>
@@ -20465,7 +19872,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A796" s="1" t="s">
         <v>33</v>
       </c>
@@ -20482,7 +19889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A797" s="1" t="s">
         <v>33</v>
       </c>
@@ -20499,7 +19906,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
         <v>33</v>
       </c>
@@ -20516,7 +19923,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A799" s="1" t="s">
         <v>33</v>
       </c>
@@ -20533,7 +19940,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A800" s="1" t="s">
         <v>33</v>
       </c>
@@ -20550,7 +19957,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A801" s="1" t="s">
         <v>33</v>
       </c>
@@ -20567,7 +19974,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A802" s="1" t="s">
         <v>33</v>
       </c>
@@ -20584,7 +19991,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A803" s="1" t="s">
         <v>33</v>
       </c>
@@ -20601,7 +20008,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A804" s="1" t="s">
         <v>33</v>
       </c>
@@ -20618,7 +20025,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A805" s="1" t="s">
         <v>33</v>
       </c>
@@ -20635,7 +20042,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A806" s="1" t="s">
         <v>33</v>
       </c>
@@ -20652,7 +20059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A807" s="1" t="s">
         <v>33</v>
       </c>
@@ -20669,7 +20076,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A808" s="1" t="s">
         <v>33</v>
       </c>
@@ -20686,7 +20093,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A809" s="1" t="s">
         <v>33</v>
       </c>
@@ -20703,7 +20110,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A810" s="1" t="s">
         <v>33</v>
       </c>
@@ -20720,7 +20127,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A811" s="1" t="s">
         <v>33</v>
       </c>
@@ -20737,7 +20144,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A812" s="1" t="s">
         <v>33</v>
       </c>
@@ -20754,7 +20161,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A813" s="1" t="s">
         <v>33</v>
       </c>
@@ -20771,7 +20178,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A814" s="1" t="s">
         <v>33</v>
       </c>
@@ -20788,7 +20195,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A815" s="1" t="s">
         <v>33</v>
       </c>
@@ -20805,7 +20212,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A816" s="1" t="s">
         <v>33</v>
       </c>
@@ -20822,7 +20229,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A817" s="1" t="s">
         <v>33</v>
       </c>
@@ -20839,7 +20246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A818" s="1" t="s">
         <v>33</v>
       </c>
@@ -20856,7 +20263,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A819" s="1" t="s">
         <v>33</v>
       </c>
@@ -20873,7 +20280,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A820" s="1" t="s">
         <v>33</v>
       </c>
@@ -20890,7 +20297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A821" s="1" t="s">
         <v>33</v>
       </c>
@@ -20907,7 +20314,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
         <v>21</v>
       </c>
@@ -20924,7 +20331,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
         <v>21</v>
       </c>
@@ -20941,7 +20348,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
         <v>21</v>
       </c>
@@ -20958,7 +20365,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
         <v>21</v>
       </c>
@@ -20975,7 +20382,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
         <v>21</v>
       </c>
@@ -20992,7 +20399,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
         <v>21</v>
       </c>
@@ -21009,7 +20416,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
         <v>21</v>
       </c>
@@ -21026,7 +20433,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A829" t="s">
         <v>21</v>
       </c>
@@ -21043,7 +20450,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="830" spans="1:6">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A830" t="s">
         <v>21</v>
       </c>
@@ -21063,7 +20470,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
         <v>21</v>
       </c>
@@ -21080,7 +20487,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A832" t="s">
         <v>21</v>
       </c>
@@ -21097,7 +20504,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A833" t="s">
         <v>24</v>
       </c>
@@ -21114,7 +20521,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A834" t="s">
         <v>24</v>
       </c>
@@ -21131,7 +20538,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="835" spans="1:6">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A835" t="s">
         <v>24</v>
       </c>
@@ -21151,7 +20558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:6">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
         <v>24</v>
       </c>
@@ -21171,7 +20578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A837" t="s">
         <v>24</v>
       </c>
@@ -21188,7 +20595,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A838" t="s">
         <v>24</v>
       </c>
@@ -21205,7 +20612,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A839" t="s">
         <v>24</v>
       </c>
@@ -21222,7 +20629,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A840" t="s">
         <v>24</v>
       </c>
@@ -21239,7 +20646,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A841" s="1" t="s">
         <v>50</v>
       </c>
@@ -21256,7 +20663,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A842" s="1" t="s">
         <v>50</v>
       </c>
@@ -21273,7 +20680,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A843" s="1" t="s">
         <v>50</v>
       </c>
@@ -21290,7 +20697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="844" spans="1:6">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A844" s="1" t="s">
         <v>50</v>
       </c>
@@ -21310,7 +20717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A845" s="1" t="s">
         <v>50</v>
       </c>
@@ -21327,7 +20734,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A846" s="1" t="s">
         <v>50</v>
       </c>
@@ -21344,7 +20751,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="847" spans="1:6">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A847" s="1" t="s">
         <v>50</v>
       </c>
@@ -21364,7 +20771,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A848" s="1" t="s">
         <v>50</v>
       </c>
@@ -21381,7 +20788,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A849" s="1" t="s">
         <v>50</v>
       </c>
@@ -21398,7 +20805,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A850" s="1" t="s">
         <v>50</v>
       </c>
@@ -21415,7 +20822,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A851" s="1" t="s">
         <v>50</v>
       </c>
@@ -21432,7 +20839,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A852" s="1" t="s">
         <v>50</v>
       </c>
@@ -21449,7 +20856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A853" s="1" t="s">
         <v>50</v>
       </c>
@@ -21466,7 +20873,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A854" s="1" t="s">
         <v>50</v>
       </c>
@@ -21483,7 +20890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A855" s="1" t="s">
         <v>50</v>
       </c>
@@ -21500,7 +20907,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A856" t="s">
         <v>52</v>
       </c>
@@ -21517,7 +20924,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A857" t="s">
         <v>52</v>
       </c>
@@ -21534,7 +20941,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A858" t="s">
         <v>52</v>
       </c>
@@ -21551,7 +20958,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A859" t="s">
         <v>52</v>
       </c>
@@ -21568,7 +20975,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A860" t="s">
         <v>52</v>
       </c>
@@ -21585,7 +20992,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A861" t="s">
         <v>52</v>
       </c>
@@ -21602,7 +21009,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A862" t="s">
         <v>52</v>
       </c>
@@ -21619,7 +21026,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A863" t="s">
         <v>52</v>
       </c>
@@ -21636,7 +21043,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A864" t="s">
         <v>52</v>
       </c>
@@ -21653,7 +21060,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A865" t="s">
         <v>52</v>
       </c>
@@ -21670,7 +21077,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A866" t="s">
         <v>52</v>
       </c>
@@ -21687,7 +21094,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A867" t="s">
         <v>52</v>
       </c>
@@ -21704,7 +21111,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A868" t="s">
         <v>52</v>
       </c>
@@ -21721,7 +21128,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A869" t="s">
         <v>52</v>
       </c>
@@ -21738,7 +21145,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A870" t="s">
         <v>52</v>
       </c>
@@ -21755,7 +21162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A871" t="s">
         <v>52</v>
       </c>
@@ -21772,7 +21179,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A872" t="s">
         <v>54</v>
       </c>
@@ -21789,7 +21196,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A873" t="s">
         <v>54</v>
       </c>
@@ -21806,7 +21213,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="874" spans="1:5">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A874" t="s">
         <v>54</v>
       </c>
@@ -21823,7 +21230,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A875" t="s">
         <v>54</v>
       </c>
@@ -21840,7 +21247,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A876" t="s">
         <v>54</v>
       </c>
@@ -21857,7 +21264,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="877" spans="1:5">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A877" t="s">
         <v>54</v>
       </c>
@@ -21874,7 +21281,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A878" t="s">
         <v>54</v>
       </c>
@@ -21891,7 +21298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A879" t="s">
         <v>35</v>
       </c>
@@ -21908,7 +21315,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A880" t="s">
         <v>35</v>
       </c>
@@ -21925,7 +21332,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A881" t="s">
         <v>35</v>
       </c>
@@ -21942,7 +21349,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A882" t="s">
         <v>35</v>
       </c>
@@ -21959,7 +21366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A883" t="s">
         <v>35</v>
       </c>
@@ -21976,7 +21383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A884" t="s">
         <v>35</v>
       </c>
@@ -21993,7 +21400,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A885" t="s">
         <v>35</v>
       </c>
@@ -22010,7 +21417,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A886" t="s">
         <v>35</v>
       </c>
@@ -22027,7 +21434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A887" t="s">
         <v>35</v>
       </c>
@@ -22044,7 +21451,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A888" t="s">
         <v>35</v>
       </c>
@@ -22061,7 +21468,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A889" t="s">
         <v>35</v>
       </c>
@@ -22078,7 +21485,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A890" t="s">
         <v>35</v>
       </c>
@@ -22095,7 +21502,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A891" t="s">
         <v>35</v>
       </c>
@@ -22112,7 +21519,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A892" t="s">
         <v>35</v>
       </c>
@@ -22129,7 +21536,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="893" spans="1:5">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A893" t="s">
         <v>35</v>
       </c>
@@ -22146,7 +21553,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="894" spans="1:5">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A894" t="s">
         <v>35</v>
       </c>
@@ -22163,7 +21570,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="895" spans="1:5">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A895" t="s">
         <v>35</v>
       </c>
@@ -22180,7 +21587,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A896" t="s">
         <v>35</v>
       </c>
@@ -22197,7 +21604,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="897" spans="1:5">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A897" t="s">
         <v>35</v>
       </c>
@@ -22214,7 +21621,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="898" spans="1:5">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A898" t="s">
         <v>35</v>
       </c>
@@ -22231,7 +21638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A899" t="s">
         <v>35</v>
       </c>
@@ -22248,7 +21655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="900" spans="1:5">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A900" t="s">
         <v>35</v>
       </c>
@@ -22265,7 +21672,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="901" spans="1:5">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A901" t="s">
         <v>35</v>
       </c>
@@ -22282,7 +21689,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="902" spans="1:5">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A902" t="s">
         <v>35</v>
       </c>
@@ -22299,7 +21706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A903" t="s">
         <v>35</v>
       </c>
@@ -22316,7 +21723,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="904" spans="1:5">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A904" t="s">
         <v>35</v>
       </c>
@@ -22333,7 +21740,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="905" spans="1:5">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A905" t="s">
         <v>35</v>
       </c>
@@ -22350,7 +21757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="906" spans="1:5">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A906" t="s">
         <v>35</v>
       </c>
@@ -22367,7 +21774,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="907" spans="1:5">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A907" t="s">
         <v>35</v>
       </c>
@@ -22384,7 +21791,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="908" spans="1:5">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A908" t="s">
         <v>35</v>
       </c>
@@ -22401,7 +21808,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="909" spans="1:5">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A909" t="s">
         <v>35</v>
       </c>
@@ -22418,7 +21825,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="910" spans="1:5">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A910" t="s">
         <v>35</v>
       </c>
@@ -22435,7 +21842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="911" spans="1:5">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A911" t="s">
         <v>35</v>
       </c>
@@ -22452,7 +21859,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="912" spans="1:5">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A912" t="s">
         <v>35</v>
       </c>
@@ -22469,7 +21876,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="913" spans="1:5">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A913" t="s">
         <v>35</v>
       </c>
@@ -22486,7 +21893,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="914" spans="1:5">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A914" t="s">
         <v>35</v>
       </c>
@@ -22503,7 +21910,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A915" t="s">
         <v>35</v>
       </c>
@@ -22520,7 +21927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A916" t="s">
         <v>35</v>
       </c>
@@ -22537,7 +21944,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="917" spans="1:5">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A917" t="s">
         <v>35</v>
       </c>
@@ -22554,7 +21961,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="918" spans="1:5">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A918" t="s">
         <v>35</v>
       </c>
@@ -22571,7 +21978,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="919" spans="1:5">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A919" t="s">
         <v>35</v>
       </c>
@@ -22588,7 +21995,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="920" spans="1:5">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A920" t="s">
         <v>35</v>
       </c>
@@ -22605,7 +22012,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="921" spans="1:5">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A921" t="s">
         <v>35</v>
       </c>
@@ -22622,7 +22029,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="922" spans="1:5">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A922" t="s">
         <v>35</v>
       </c>
@@ -22639,7 +22046,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A923" t="s">
         <v>35</v>
       </c>
@@ -22656,7 +22063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="924" spans="1:5">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A924" t="s">
         <v>35</v>
       </c>
@@ -22673,7 +22080,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="925" spans="1:5">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A925" t="s">
         <v>35</v>
       </c>
@@ -22690,7 +22097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="926" spans="1:5">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A926" t="s">
         <v>35</v>
       </c>
@@ -22707,7 +22114,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="927" spans="1:5">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A927" t="s">
         <v>35</v>
       </c>
@@ -22724,7 +22131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="928" spans="1:5">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A928" t="s">
         <v>35</v>
       </c>
@@ -22741,7 +22148,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="929" spans="1:5">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A929" t="s">
         <v>35</v>
       </c>
@@ -22758,7 +22165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="930" spans="1:5">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A930" t="s">
         <v>35</v>
       </c>
@@ -22775,7 +22182,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="931" spans="1:5">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A931" t="s">
         <v>35</v>
       </c>
@@ -22792,7 +22199,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="932" spans="1:5">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A932" t="s">
         <v>35</v>
       </c>
@@ -22809,7 +22216,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="933" spans="1:5">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A933" t="s">
         <v>35</v>
       </c>
@@ -22826,7 +22233,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="934" spans="1:5">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A934" t="s">
         <v>35</v>
       </c>
@@ -22843,7 +22250,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="935" spans="1:5">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A935" t="s">
         <v>35</v>
       </c>
@@ -22860,7 +22267,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="936" spans="1:5">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A936" t="s">
         <v>35</v>
       </c>
@@ -22877,7 +22284,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="937" spans="1:5">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A937" t="s">
         <v>35</v>
       </c>
@@ -22894,7 +22301,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="938" spans="1:5">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A938" t="s">
         <v>35</v>
       </c>
@@ -22911,7 +22318,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="939" spans="1:5">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A939" t="s">
         <v>35</v>
       </c>
@@ -22928,7 +22335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="940" spans="1:5">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A940" t="s">
         <v>35</v>
       </c>
@@ -22945,7 +22352,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="941" spans="1:5">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A941" t="s">
         <v>35</v>
       </c>
@@ -22962,7 +22369,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="942" spans="1:5">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A942" t="s">
         <v>35</v>
       </c>
@@ -22979,7 +22386,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="943" spans="1:5">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A943" t="s">
         <v>35</v>
       </c>
@@ -22996,7 +22403,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="944" spans="1:5">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A944" t="s">
         <v>35</v>
       </c>
@@ -23013,7 +22420,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A945" t="s">
         <v>35</v>
       </c>
@@ -23030,7 +22437,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A946" t="s">
         <v>35</v>
       </c>
@@ -23047,7 +22454,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A947" t="s">
         <v>35</v>
       </c>
@@ -23064,7 +22471,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="948" spans="1:5">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A948" t="s">
         <v>35</v>
       </c>
@@ -23081,7 +22488,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="949" spans="1:5">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A949" t="s">
         <v>35</v>
       </c>
@@ -23098,7 +22505,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="950" spans="1:5">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A950" t="s">
         <v>35</v>
       </c>
@@ -23115,7 +22522,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="951" spans="1:5">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A951" t="s">
         <v>35</v>
       </c>
@@ -23132,7 +22539,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="952" spans="1:5">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A952" t="s">
         <v>35</v>
       </c>
@@ -23149,7 +22556,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A953" t="s">
         <v>35</v>
       </c>
@@ -23166,7 +22573,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A954" t="s">
         <v>35</v>
       </c>
@@ -23183,7 +22590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="955" spans="1:5">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A955" t="s">
         <v>35</v>
       </c>
@@ -23200,7 +22607,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A956" t="s">
         <v>35</v>
       </c>
@@ -23217,7 +22624,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="957" spans="1:5">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A957" t="s">
         <v>35</v>
       </c>
@@ -23234,7 +22641,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A958" t="s">
         <v>35</v>
       </c>
@@ -23251,7 +22658,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="959" spans="1:5">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A959" t="s">
         <v>35</v>
       </c>
@@ -23268,7 +22675,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="960" spans="1:5">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A960" t="s">
         <v>35</v>
       </c>
@@ -23285,7 +22692,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="961" spans="1:5">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A961" t="s">
         <v>35</v>
       </c>
@@ -23302,7 +22709,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="962" spans="1:5">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A962" t="s">
         <v>35</v>
       </c>
@@ -23319,7 +22726,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="963" spans="1:5">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A963" t="s">
         <v>56</v>
       </c>
@@ -23336,7 +22743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A964" t="s">
         <v>56</v>
       </c>
@@ -23353,7 +22760,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A965" t="s">
         <v>56</v>
       </c>
@@ -23370,7 +22777,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A966" t="s">
         <v>56</v>
       </c>
@@ -23387,7 +22794,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="967" spans="1:5">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A967" t="s">
         <v>56</v>
       </c>
@@ -23404,7 +22811,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="968" spans="1:5">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A968" t="s">
         <v>59</v>
       </c>
@@ -23421,7 +22828,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="969" spans="1:5">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A969" t="s">
         <v>59</v>
       </c>
@@ -23438,7 +22845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="970" spans="1:5">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A970" t="s">
         <v>59</v>
       </c>
@@ -23455,7 +22862,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="971" spans="1:5">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A971" t="s">
         <v>59</v>
       </c>
@@ -23472,7 +22879,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="972" spans="1:5">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A972" t="s">
         <v>59</v>
       </c>
@@ -23489,7 +22896,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="973" spans="1:5">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A973" t="s">
         <v>61</v>
       </c>
@@ -23506,7 +22913,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="974" spans="1:5">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A974" t="s">
         <v>61</v>
       </c>
@@ -23523,7 +22930,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="975" spans="1:5">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A975" t="s">
         <v>61</v>
       </c>
@@ -23540,7 +22947,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="976" spans="1:5">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A976" t="s">
         <v>61</v>
       </c>
@@ -23557,7 +22964,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="977" spans="1:5">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A977" t="s">
         <v>61</v>
       </c>
@@ -23574,7 +22981,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A978" t="s">
         <v>63</v>
       </c>
@@ -23591,7 +22998,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A979" t="s">
         <v>63</v>
       </c>
@@ -23608,7 +23015,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="980" spans="1:5">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A980" t="s">
         <v>63</v>
       </c>
@@ -23625,7 +23032,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A981" t="s">
         <v>63</v>
       </c>
@@ -23642,7 +23049,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A982" t="s">
         <v>63</v>
       </c>
@@ -23659,7 +23066,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="983" spans="1:5">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A983" t="s">
         <v>65</v>
       </c>
@@ -23676,7 +23083,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="984" spans="1:5">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A984" t="s">
         <v>65</v>
       </c>
@@ -23693,7 +23100,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A985" t="s">
         <v>65</v>
       </c>
@@ -23710,7 +23117,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="986" spans="1:5">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A986" t="s">
         <v>65</v>
       </c>
@@ -23727,7 +23134,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="987" spans="1:5">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A987" t="s">
         <v>65</v>
       </c>
@@ -23744,7 +23151,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="988" spans="1:5">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A988" t="s">
         <v>65</v>
       </c>
@@ -23762,11 +23169,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E988">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E988" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/QuantStudio/Resource/JYDBInfo.xlsx
+++ b/QuantStudio/Resource/JYDBInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8577" uniqueCount="2756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8577" uniqueCount="2755">
   <si>
     <t>TableName</t>
   </si>
@@ -8173,9 +8173,6 @@
   </si>
   <si>
     <t>InvestRatioDescription</t>
-  </si>
-  <si>
-    <t>AnnDate</t>
   </si>
   <si>
     <t>净资产值(元)</t>
@@ -8315,21 +8312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -8345,19 +8327,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8368,16 +8355,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8400,6 +8403,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -8407,16 +8418,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8429,24 +8433,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8458,6 +8455,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -8473,7 +8476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8485,7 +8506,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8497,43 +8590,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8551,97 +8626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8687,8 +8684,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8698,18 +8697,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8732,23 +8735,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8758,10 +8755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8770,133 +8767,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9263,7 +9260,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10466,8 +10463,8 @@
   <sheetPr/>
   <dimension ref="A1:G1643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1512" workbookViewId="0">
-      <selection activeCell="B1534" sqref="B1534"/>
+    <sheetView tabSelected="1" topLeftCell="A1566" workbookViewId="0">
+      <selection activeCell="C1526" sqref="C1526:C1533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -36291,7 +36288,7 @@
         <v>151</v>
       </c>
       <c r="E1517" t="s">
-        <v>2718</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
@@ -36333,10 +36330,10 @@
         <v>118</v>
       </c>
       <c r="B1520" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1520" t="s">
         <v>2719</v>
-      </c>
-      <c r="C1520" t="s">
-        <v>2720</v>
       </c>
       <c r="D1520" t="s">
         <v>1015</v>
@@ -36350,10 +36347,10 @@
         <v>118</v>
       </c>
       <c r="B1521" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C1521" t="s">
         <v>2721</v>
-      </c>
-      <c r="C1521" t="s">
-        <v>2722</v>
       </c>
       <c r="D1521" t="s">
         <v>1902</v>
@@ -36367,10 +36364,10 @@
         <v>118</v>
       </c>
       <c r="B1522" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C1522" t="s">
         <v>2723</v>
-      </c>
-      <c r="C1522" t="s">
-        <v>2724</v>
       </c>
       <c r="D1522" t="s">
         <v>1902</v>
@@ -36384,10 +36381,10 @@
         <v>118</v>
       </c>
       <c r="B1523" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C1523" t="s">
         <v>2725</v>
-      </c>
-      <c r="C1523" t="s">
-        <v>2726</v>
       </c>
       <c r="D1523" t="s">
         <v>1902</v>
@@ -36401,10 +36398,10 @@
         <v>118</v>
       </c>
       <c r="B1524" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C1524" t="s">
         <v>2727</v>
-      </c>
-      <c r="C1524" t="s">
-        <v>2728</v>
       </c>
       <c r="D1524" t="s">
         <v>1920</v>
@@ -36418,10 +36415,10 @@
         <v>118</v>
       </c>
       <c r="B1525" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1525" t="s">
         <v>2729</v>
-      </c>
-      <c r="C1525" t="s">
-        <v>2730</v>
       </c>
       <c r="D1525" t="s">
         <v>137</v>
@@ -36435,13 +36432,13 @@
         <v>118</v>
       </c>
       <c r="B1526" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C1526" t="s">
         <v>2731</v>
       </c>
-      <c r="C1526" t="s">
+      <c r="D1526" t="s">
         <v>2732</v>
-      </c>
-      <c r="D1526" t="s">
-        <v>2733</v>
       </c>
       <c r="E1526" t="s">
         <v>159</v>
@@ -36452,13 +36449,13 @@
         <v>118</v>
       </c>
       <c r="B1527" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C1527" t="s">
         <v>2734</v>
       </c>
-      <c r="C1527" t="s">
-        <v>2735</v>
-      </c>
       <c r="D1527" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="E1527" t="s">
         <v>159</v>
@@ -36469,13 +36466,13 @@
         <v>118</v>
       </c>
       <c r="B1528" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="C1528" t="s">
         <v>2456</v>
       </c>
       <c r="D1528" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="E1528" t="s">
         <v>159</v>
@@ -36512,7 +36509,7 @@
         <v>151</v>
       </c>
       <c r="E1530" t="s">
-        <v>2718</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -36554,10 +36551,10 @@
         <v>121</v>
       </c>
       <c r="B1533" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1533" t="s">
         <v>2719</v>
-      </c>
-      <c r="C1533" t="s">
-        <v>2720</v>
       </c>
       <c r="D1533" t="s">
         <v>1015</v>
@@ -36571,10 +36568,10 @@
         <v>121</v>
       </c>
       <c r="B1534" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C1534" t="s">
         <v>2721</v>
-      </c>
-      <c r="C1534" t="s">
-        <v>2722</v>
       </c>
       <c r="D1534" t="s">
         <v>1902</v>
@@ -36588,10 +36585,10 @@
         <v>121</v>
       </c>
       <c r="B1535" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C1535" t="s">
         <v>2723</v>
-      </c>
-      <c r="C1535" t="s">
-        <v>2724</v>
       </c>
       <c r="D1535" t="s">
         <v>1902</v>
@@ -36605,10 +36602,10 @@
         <v>121</v>
       </c>
       <c r="B1536" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C1536" t="s">
         <v>2725</v>
-      </c>
-      <c r="C1536" t="s">
-        <v>2726</v>
       </c>
       <c r="D1536" t="s">
         <v>1902</v>
@@ -36622,10 +36619,10 @@
         <v>121</v>
       </c>
       <c r="B1537" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="C1537" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D1537" t="s">
         <v>1902</v>
@@ -36639,13 +36636,13 @@
         <v>121</v>
       </c>
       <c r="B1538" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="C1538" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D1538" t="s">
         <v>2732</v>
-      </c>
-      <c r="D1538" t="s">
-        <v>2733</v>
       </c>
       <c r="E1538" t="s">
         <v>159</v>
@@ -36682,7 +36679,7 @@
         <v>151</v>
       </c>
       <c r="E1540" t="s">
-        <v>2718</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -36724,10 +36721,10 @@
         <v>123</v>
       </c>
       <c r="B1543" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1543" t="s">
         <v>2719</v>
-      </c>
-      <c r="C1543" t="s">
-        <v>2720</v>
       </c>
       <c r="D1543" t="s">
         <v>1015</v>
@@ -36741,10 +36738,10 @@
         <v>123</v>
       </c>
       <c r="B1544" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C1544" t="s">
         <v>2721</v>
-      </c>
-      <c r="C1544" t="s">
-        <v>2722</v>
       </c>
       <c r="D1544" t="s">
         <v>1902</v>
@@ -36758,10 +36755,10 @@
         <v>123</v>
       </c>
       <c r="B1545" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C1545" t="s">
         <v>2725</v>
-      </c>
-      <c r="C1545" t="s">
-        <v>2726</v>
       </c>
       <c r="D1545" t="s">
         <v>1902</v>
@@ -36775,10 +36772,10 @@
         <v>123</v>
       </c>
       <c r="B1546" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C1546" t="s">
         <v>2727</v>
-      </c>
-      <c r="C1546" t="s">
-        <v>2728</v>
       </c>
       <c r="D1546" t="s">
         <v>1920</v>
@@ -36792,10 +36789,10 @@
         <v>123</v>
       </c>
       <c r="B1547" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1547" t="s">
         <v>2729</v>
-      </c>
-      <c r="C1547" t="s">
-        <v>2730</v>
       </c>
       <c r="D1547" t="s">
         <v>137</v>
@@ -36843,10 +36840,10 @@
         <v>125</v>
       </c>
       <c r="B1550" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="C1550" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D1550" t="s">
         <v>1902</v>
@@ -36860,10 +36857,10 @@
         <v>125</v>
       </c>
       <c r="B1551" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1551" t="s">
         <v>2740</v>
-      </c>
-      <c r="C1551" t="s">
-        <v>2741</v>
       </c>
       <c r="D1551" t="s">
         <v>154</v>
@@ -36877,10 +36874,10 @@
         <v>125</v>
       </c>
       <c r="B1552" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C1552" t="s">
         <v>2742</v>
-      </c>
-      <c r="C1552" t="s">
-        <v>2743</v>
       </c>
       <c r="D1552" t="s">
         <v>1902</v>
@@ -36894,10 +36891,10 @@
         <v>125</v>
       </c>
       <c r="B1553" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="C1553" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D1553" t="s">
         <v>1902</v>
@@ -36911,10 +36908,10 @@
         <v>125</v>
       </c>
       <c r="B1554" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C1554" t="s">
         <v>2745</v>
-      </c>
-      <c r="C1554" t="s">
-        <v>2746</v>
       </c>
       <c r="D1554" t="s">
         <v>1902</v>
@@ -38356,10 +38353,10 @@
         <v>127</v>
       </c>
       <c r="B1639" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C1639" t="s">
         <v>2747</v>
-      </c>
-      <c r="C1639" t="s">
-        <v>2748</v>
       </c>
       <c r="D1639" t="s">
         <v>151</v>
@@ -38373,10 +38370,10 @@
         <v>127</v>
       </c>
       <c r="B1640" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C1640" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D1640" t="s">
         <v>154</v>
@@ -38390,10 +38387,10 @@
         <v>127</v>
       </c>
       <c r="B1641" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C1641" t="s">
         <v>2750</v>
-      </c>
-      <c r="C1641" t="s">
-        <v>2751</v>
       </c>
       <c r="D1641" t="s">
         <v>154</v>
@@ -38407,10 +38404,10 @@
         <v>127</v>
       </c>
       <c r="B1642" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C1642" t="s">
         <v>2752</v>
-      </c>
-      <c r="C1642" t="s">
-        <v>2753</v>
       </c>
       <c r="D1642" t="s">
         <v>151</v>
@@ -38424,10 +38421,10 @@
         <v>127</v>
       </c>
       <c r="B1643" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C1643" t="s">
         <v>2754</v>
-      </c>
-      <c r="C1643" t="s">
-        <v>2755</v>
       </c>
       <c r="D1643" t="s">
         <v>154</v>

--- a/QuantStudio/Resource/JYDBInfo.xlsx
+++ b/QuantStudio/Resource/JYDBInfo.xlsx
@@ -12,15 +12,15 @@
     <sheet name="ExchangeInfo" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$K$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$E$1933</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$K$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$E$2076</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11025" uniqueCount="3424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11027" uniqueCount="3425">
   <si>
     <t>TableName</t>
   </si>
@@ -8482,7 +8482,7 @@
     <t>ChargeRateType</t>
   </si>
   <si>
-    <t>10010</t>
+    <t>15000</t>
   </si>
   <si>
     <t>费率类别描述</t>
@@ -8515,6 +8515,9 @@
     <t>ShiftInTarget</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>费率最低值</t>
   </si>
   <si>
@@ -8560,7 +8563,7 @@
     <t>ChargeRateDiv</t>
   </si>
   <si>
-    <t>111000000</t>
+    <t>170000000</t>
   </si>
   <si>
     <t>费率划分标准Ⅰ</t>
@@ -10299,10 +10302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -10313,32 +10316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10346,6 +10333,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10360,14 +10354,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10396,15 +10413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10418,32 +10429,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10466,7 +10469,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10478,31 +10511,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10514,85 +10571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10610,13 +10589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10628,13 +10601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10646,7 +10625,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10660,17 +10663,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10699,6 +10716,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10710,35 +10742,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10763,10 +10766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10775,133 +10778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11268,8 +11271,8 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12482,6 +12485,9 @@
       <c r="B43" t="s">
         <v>128</v>
       </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
       <c r="E43" t="s">
         <v>20</v>
       </c>
@@ -13234,7 +13240,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K61">
+  <autoFilter ref="A1:K68">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13248,8 +13254,8 @@
   <sheetPr/>
   <dimension ref="A1:G2076"/>
   <sheetViews>
-    <sheetView topLeftCell="A2046" workbookViewId="0">
-      <selection activeCell="E2076" sqref="E2076"/>
+    <sheetView topLeftCell="A1627" workbookViewId="0">
+      <selection activeCell="F1650" sqref="F1650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -41324,7 +41330,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="1649" spans="1:5">
+    <row r="1649" spans="1:6">
       <c r="A1649" t="s">
         <v>127</v>
       </c>
@@ -41339,6 +41345,9 @@
       </c>
       <c r="E1649" t="s">
         <v>309</v>
+      </c>
+      <c r="F1649" s="1" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="1650" spans="1:6">
@@ -41449,7 +41458,7 @@
         <v>1324</v>
       </c>
       <c r="F1655" s="1" t="s">
-        <v>2755</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1656" spans="1:5">
@@ -41457,13 +41466,13 @@
         <v>127</v>
       </c>
       <c r="B1656" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="C1656" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="D1656" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="E1656" t="s">
         <v>224</v>
@@ -41474,13 +41483,13 @@
         <v>127</v>
       </c>
       <c r="B1657" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D1657" t="s">
         <v>2834</v>
-      </c>
-      <c r="C1657" t="s">
-        <v>2835</v>
-      </c>
-      <c r="D1657" t="s">
-        <v>2833</v>
       </c>
       <c r="E1657" t="s">
         <v>224</v>
@@ -41491,10 +41500,10 @@
         <v>127</v>
       </c>
       <c r="B1658" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="C1658" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="D1658" t="s">
         <v>1317</v>
@@ -41508,10 +41517,10 @@
         <v>127</v>
       </c>
       <c r="B1659" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="C1659" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="D1659" t="s">
         <v>200</v>
@@ -41525,10 +41534,10 @@
         <v>127</v>
       </c>
       <c r="B1660" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="C1660" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="D1660" t="s">
         <v>1317</v>
@@ -41542,10 +41551,10 @@
         <v>127</v>
       </c>
       <c r="B1661" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="C1661" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="D1661" t="s">
         <v>1317</v>
@@ -41559,10 +41568,10 @@
         <v>127</v>
       </c>
       <c r="B1662" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="C1662" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="D1662" t="s">
         <v>200</v>
@@ -41571,7 +41580,7 @@
         <v>1324</v>
       </c>
       <c r="F1662" s="1" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1663" spans="1:5">
@@ -41579,10 +41588,10 @@
         <v>127</v>
       </c>
       <c r="B1663" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="C1663" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="D1663" t="s">
         <v>200</v>
@@ -41596,10 +41605,10 @@
         <v>127</v>
       </c>
       <c r="B1664" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="C1664" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="D1664" t="s">
         <v>200</v>
@@ -41613,10 +41622,10 @@
         <v>127</v>
       </c>
       <c r="B1665" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="C1665" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="D1665" t="s">
         <v>285</v>
@@ -41630,10 +41639,10 @@
         <v>127</v>
       </c>
       <c r="B1666" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="C1666" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="D1666" t="s">
         <v>285</v>
@@ -41647,10 +41656,10 @@
         <v>127</v>
       </c>
       <c r="B1667" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="C1667" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="D1667" t="s">
         <v>200</v>
@@ -41664,10 +41673,10 @@
         <v>127</v>
       </c>
       <c r="B1668" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="C1668" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="D1668" t="s">
         <v>200</v>
@@ -41681,10 +41690,10 @@
         <v>127</v>
       </c>
       <c r="B1669" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="C1669" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="D1669" t="s">
         <v>200</v>
@@ -41698,10 +41707,10 @@
         <v>127</v>
       </c>
       <c r="B1670" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="C1670" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="D1670" t="s">
         <v>200</v>
@@ -41715,10 +41724,10 @@
         <v>127</v>
       </c>
       <c r="B1671" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="C1671" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="D1671" t="s">
         <v>285</v>
@@ -41732,10 +41741,10 @@
         <v>127</v>
       </c>
       <c r="B1672" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="C1672" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="D1672" t="s">
         <v>285</v>
@@ -41749,10 +41758,10 @@
         <v>127</v>
       </c>
       <c r="B1673" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="C1673" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="D1673" t="s">
         <v>200</v>
@@ -41766,10 +41775,10 @@
         <v>127</v>
       </c>
       <c r="B1674" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="C1674" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="D1674" t="s">
         <v>200</v>
@@ -41783,10 +41792,10 @@
         <v>127</v>
       </c>
       <c r="B1675" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="C1675" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="D1675" t="s">
         <v>200</v>
@@ -41800,10 +41809,10 @@
         <v>127</v>
       </c>
       <c r="B1676" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="C1676" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="D1676" t="s">
         <v>200</v>
@@ -41817,10 +41826,10 @@
         <v>127</v>
       </c>
       <c r="B1677" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="C1677" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="D1677" t="s">
         <v>285</v>
@@ -41834,10 +41843,10 @@
         <v>127</v>
       </c>
       <c r="B1678" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="C1678" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="D1678" t="s">
         <v>285</v>
@@ -41851,10 +41860,10 @@
         <v>127</v>
       </c>
       <c r="B1679" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="C1679" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="D1679" t="s">
         <v>200</v>
@@ -41868,10 +41877,10 @@
         <v>127</v>
       </c>
       <c r="B1680" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="C1680" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="D1680" t="s">
         <v>200</v>
@@ -41936,7 +41945,7 @@
         <v>146</v>
       </c>
       <c r="B1684" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="C1684" t="s">
         <v>2783</v>
@@ -41953,7 +41962,7 @@
         <v>146</v>
       </c>
       <c r="B1685" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="C1685" t="s">
         <v>2793</v>
@@ -41970,10 +41979,10 @@
         <v>146</v>
       </c>
       <c r="B1686" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C1686" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D1686" t="s">
         <v>1077</v>
@@ -41987,10 +41996,10 @@
         <v>146</v>
       </c>
       <c r="B1687" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="C1687" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="D1687" t="s">
         <v>1077</v>
@@ -42004,10 +42013,10 @@
         <v>146</v>
       </c>
       <c r="B1688" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="C1688" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="D1688" t="s">
         <v>1077</v>
@@ -42021,10 +42030,10 @@
         <v>146</v>
       </c>
       <c r="B1689" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="C1689" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="D1689" t="s">
         <v>1077</v>
@@ -42038,10 +42047,10 @@
         <v>146</v>
       </c>
       <c r="B1690" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="C1690" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="D1690" t="s">
         <v>1077</v>
@@ -42055,10 +42064,10 @@
         <v>146</v>
       </c>
       <c r="B1691" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="C1691" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="D1691" t="s">
         <v>1077</v>
@@ -42072,10 +42081,10 @@
         <v>146</v>
       </c>
       <c r="B1692" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C1692" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="D1692" t="s">
         <v>1077</v>
@@ -42089,10 +42098,10 @@
         <v>146</v>
       </c>
       <c r="B1693" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="C1693" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="D1693" t="s">
         <v>1077</v>
@@ -42106,10 +42115,10 @@
         <v>146</v>
       </c>
       <c r="B1694" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="C1694" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="D1694" t="s">
         <v>1077</v>
@@ -42123,10 +42132,10 @@
         <v>146</v>
       </c>
       <c r="B1695" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="C1695" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="D1695" t="s">
         <v>1077</v>
@@ -42140,10 +42149,10 @@
         <v>146</v>
       </c>
       <c r="B1696" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="C1696" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="D1696" t="s">
         <v>1077</v>
@@ -42157,10 +42166,10 @@
         <v>146</v>
       </c>
       <c r="B1697" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="C1697" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="D1697" t="s">
         <v>1077</v>
@@ -42174,10 +42183,10 @@
         <v>146</v>
       </c>
       <c r="B1698" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="C1698" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="D1698" t="s">
         <v>1077</v>
@@ -42191,10 +42200,10 @@
         <v>146</v>
       </c>
       <c r="B1699" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="C1699" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="D1699" t="s">
         <v>1077</v>
@@ -42208,10 +42217,10 @@
         <v>146</v>
       </c>
       <c r="B1700" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C1700" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="D1700" t="s">
         <v>1077</v>
@@ -42225,10 +42234,10 @@
         <v>146</v>
       </c>
       <c r="B1701" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C1701" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="D1701" t="s">
         <v>1077</v>
@@ -42242,10 +42251,10 @@
         <v>146</v>
       </c>
       <c r="B1702" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="C1702" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="D1702" t="s">
         <v>1077</v>
@@ -42259,10 +42268,10 @@
         <v>146</v>
       </c>
       <c r="B1703" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="C1703" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="D1703" t="s">
         <v>1077</v>
@@ -42310,7 +42319,7 @@
         <v>148</v>
       </c>
       <c r="B1706" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="C1706" t="s">
         <v>2783</v>
@@ -42327,7 +42336,7 @@
         <v>148</v>
       </c>
       <c r="B1707" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="C1707" t="s">
         <v>2793</v>
@@ -42344,10 +42353,10 @@
         <v>148</v>
       </c>
       <c r="B1708" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C1708" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D1708" t="s">
         <v>1077</v>
@@ -42361,10 +42370,10 @@
         <v>148</v>
       </c>
       <c r="B1709" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="C1709" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="D1709" t="s">
         <v>1077</v>
@@ -42378,10 +42387,10 @@
         <v>148</v>
       </c>
       <c r="B1710" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="C1710" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="D1710" t="s">
         <v>1077</v>
@@ -42395,10 +42404,10 @@
         <v>148</v>
       </c>
       <c r="B1711" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="C1711" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="D1711" t="s">
         <v>1077</v>
@@ -42412,10 +42421,10 @@
         <v>148</v>
       </c>
       <c r="B1712" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="C1712" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="D1712" t="s">
         <v>1077</v>
@@ -42429,10 +42438,10 @@
         <v>148</v>
       </c>
       <c r="B1713" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="C1713" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="D1713" t="s">
         <v>1077</v>
@@ -42446,10 +42455,10 @@
         <v>148</v>
       </c>
       <c r="B1714" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C1714" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="D1714" t="s">
         <v>1077</v>
@@ -42463,10 +42472,10 @@
         <v>148</v>
       </c>
       <c r="B1715" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="C1715" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="D1715" t="s">
         <v>1077</v>
@@ -42480,10 +42489,10 @@
         <v>148</v>
       </c>
       <c r="B1716" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="C1716" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="D1716" t="s">
         <v>1077</v>
@@ -42497,10 +42506,10 @@
         <v>148</v>
       </c>
       <c r="B1717" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="C1717" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="D1717" t="s">
         <v>1077</v>
@@ -42514,10 +42523,10 @@
         <v>148</v>
       </c>
       <c r="B1718" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="C1718" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="D1718" t="s">
         <v>1077</v>
@@ -42531,10 +42540,10 @@
         <v>148</v>
       </c>
       <c r="B1719" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="C1719" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="D1719" t="s">
         <v>1077</v>
@@ -42548,10 +42557,10 @@
         <v>148</v>
       </c>
       <c r="B1720" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="C1720" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="D1720" t="s">
         <v>1077</v>
@@ -42565,10 +42574,10 @@
         <v>148</v>
       </c>
       <c r="B1721" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="C1721" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="D1721" t="s">
         <v>1077</v>
@@ -42582,10 +42591,10 @@
         <v>148</v>
       </c>
       <c r="B1722" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C1722" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="D1722" t="s">
         <v>1077</v>
@@ -42599,10 +42608,10 @@
         <v>148</v>
       </c>
       <c r="B1723" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C1723" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="D1723" t="s">
         <v>1077</v>
@@ -42616,10 +42625,10 @@
         <v>148</v>
       </c>
       <c r="B1724" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="C1724" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="D1724" t="s">
         <v>1077</v>
@@ -42633,10 +42642,10 @@
         <v>148</v>
       </c>
       <c r="B1725" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="C1725" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="D1725" t="s">
         <v>1077</v>
@@ -42684,7 +42693,7 @@
         <v>150</v>
       </c>
       <c r="B1728" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="C1728" t="s">
         <v>2783</v>
@@ -42701,7 +42710,7 @@
         <v>150</v>
       </c>
       <c r="B1729" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="C1729" t="s">
         <v>2793</v>
@@ -42718,10 +42727,10 @@
         <v>150</v>
       </c>
       <c r="B1730" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C1730" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D1730" t="s">
         <v>1077</v>
@@ -42735,10 +42744,10 @@
         <v>150</v>
       </c>
       <c r="B1731" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="C1731" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="D1731" t="s">
         <v>1077</v>
@@ -42752,10 +42761,10 @@
         <v>150</v>
       </c>
       <c r="B1732" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="C1732" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="D1732" t="s">
         <v>1077</v>
@@ -42769,10 +42778,10 @@
         <v>150</v>
       </c>
       <c r="B1733" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="C1733" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="D1733" t="s">
         <v>1077</v>
@@ -42786,10 +42795,10 @@
         <v>150</v>
       </c>
       <c r="B1734" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="C1734" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="D1734" t="s">
         <v>1077</v>
@@ -42803,10 +42812,10 @@
         <v>150</v>
       </c>
       <c r="B1735" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="C1735" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="D1735" t="s">
         <v>1077</v>
@@ -42820,10 +42829,10 @@
         <v>150</v>
       </c>
       <c r="B1736" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C1736" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="D1736" t="s">
         <v>1077</v>
@@ -42837,10 +42846,10 @@
         <v>150</v>
       </c>
       <c r="B1737" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="C1737" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="D1737" t="s">
         <v>1077</v>
@@ -42854,10 +42863,10 @@
         <v>150</v>
       </c>
       <c r="B1738" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="C1738" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="D1738" t="s">
         <v>1077</v>
@@ -42871,10 +42880,10 @@
         <v>150</v>
       </c>
       <c r="B1739" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="C1739" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="D1739" t="s">
         <v>1077</v>
@@ -42888,10 +42897,10 @@
         <v>150</v>
       </c>
       <c r="B1740" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="C1740" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="D1740" t="s">
         <v>1077</v>
@@ -42905,10 +42914,10 @@
         <v>150</v>
       </c>
       <c r="B1741" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="C1741" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="D1741" t="s">
         <v>1077</v>
@@ -42922,10 +42931,10 @@
         <v>150</v>
       </c>
       <c r="B1742" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="C1742" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="D1742" t="s">
         <v>1077</v>
@@ -42939,10 +42948,10 @@
         <v>150</v>
       </c>
       <c r="B1743" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="C1743" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="D1743" t="s">
         <v>1077</v>
@@ -42956,10 +42965,10 @@
         <v>150</v>
       </c>
       <c r="B1744" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C1744" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="D1744" t="s">
         <v>1077</v>
@@ -42973,10 +42982,10 @@
         <v>150</v>
       </c>
       <c r="B1745" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C1745" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="D1745" t="s">
         <v>1077</v>
@@ -42990,10 +42999,10 @@
         <v>150</v>
       </c>
       <c r="B1746" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="C1746" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="D1746" t="s">
         <v>1077</v>
@@ -43007,10 +43016,10 @@
         <v>150</v>
       </c>
       <c r="B1747" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="C1747" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="D1747" t="s">
         <v>1077</v>
@@ -43075,7 +43084,7 @@
         <v>152</v>
       </c>
       <c r="B1751" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="C1751" t="s">
         <v>2783</v>
@@ -43092,7 +43101,7 @@
         <v>152</v>
       </c>
       <c r="B1752" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="C1752" t="s">
         <v>2793</v>
@@ -43109,10 +43118,10 @@
         <v>152</v>
       </c>
       <c r="B1753" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C1753" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D1753" t="s">
         <v>1077</v>
@@ -43126,10 +43135,10 @@
         <v>152</v>
       </c>
       <c r="B1754" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="C1754" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="D1754" t="s">
         <v>1077</v>
@@ -43143,10 +43152,10 @@
         <v>152</v>
       </c>
       <c r="B1755" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="C1755" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="D1755" t="s">
         <v>1077</v>
@@ -43160,10 +43169,10 @@
         <v>152</v>
       </c>
       <c r="B1756" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="C1756" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="D1756" t="s">
         <v>1077</v>
@@ -43177,10 +43186,10 @@
         <v>152</v>
       </c>
       <c r="B1757" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="C1757" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="D1757" t="s">
         <v>1077</v>
@@ -43194,10 +43203,10 @@
         <v>152</v>
       </c>
       <c r="B1758" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="C1758" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="D1758" t="s">
         <v>1077</v>
@@ -43211,10 +43220,10 @@
         <v>152</v>
       </c>
       <c r="B1759" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C1759" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="D1759" t="s">
         <v>1077</v>
@@ -43228,10 +43237,10 @@
         <v>152</v>
       </c>
       <c r="B1760" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="C1760" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="D1760" t="s">
         <v>1077</v>
@@ -43245,10 +43254,10 @@
         <v>152</v>
       </c>
       <c r="B1761" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="C1761" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="D1761" t="s">
         <v>1077</v>
@@ -43262,10 +43271,10 @@
         <v>152</v>
       </c>
       <c r="B1762" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="C1762" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="D1762" t="s">
         <v>1077</v>
@@ -43279,10 +43288,10 @@
         <v>152</v>
       </c>
       <c r="B1763" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="C1763" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="D1763" t="s">
         <v>1077</v>
@@ -43296,10 +43305,10 @@
         <v>152</v>
       </c>
       <c r="B1764" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="C1764" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="D1764" t="s">
         <v>1077</v>
@@ -43313,10 +43322,10 @@
         <v>152</v>
       </c>
       <c r="B1765" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="C1765" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="D1765" t="s">
         <v>1077</v>
@@ -43330,10 +43339,10 @@
         <v>152</v>
       </c>
       <c r="B1766" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="C1766" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="D1766" t="s">
         <v>1077</v>
@@ -43347,10 +43356,10 @@
         <v>152</v>
       </c>
       <c r="B1767" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C1767" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="D1767" t="s">
         <v>1077</v>
@@ -43364,10 +43373,10 @@
         <v>152</v>
       </c>
       <c r="B1768" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C1768" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="D1768" t="s">
         <v>1077</v>
@@ -43381,10 +43390,10 @@
         <v>152</v>
       </c>
       <c r="B1769" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="C1769" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="D1769" t="s">
         <v>1077</v>
@@ -43398,10 +43407,10 @@
         <v>152</v>
       </c>
       <c r="B1770" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="C1770" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="D1770" t="s">
         <v>1077</v>
@@ -43444,7 +43453,7 @@
         <v>1324</v>
       </c>
       <c r="F1772" s="1" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="1773" spans="1:5">
@@ -43486,7 +43495,7 @@
         <v>154</v>
       </c>
       <c r="B1775" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="C1775" t="s">
         <v>310</v>
@@ -43503,10 +43512,10 @@
         <v>154</v>
       </c>
       <c r="B1776" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="C1776" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="D1776" t="s">
         <v>200</v>
@@ -43520,10 +43529,10 @@
         <v>154</v>
       </c>
       <c r="B1777" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="C1777" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="D1777" t="s">
         <v>200</v>
@@ -43537,10 +43546,10 @@
         <v>154</v>
       </c>
       <c r="B1778" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="C1778" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="D1778" t="s">
         <v>1077</v>
@@ -43554,10 +43563,10 @@
         <v>154</v>
       </c>
       <c r="B1779" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="C1779" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="D1779" t="s">
         <v>285</v>
@@ -43571,10 +43580,10 @@
         <v>154</v>
       </c>
       <c r="B1780" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="C1780" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="D1780" t="s">
         <v>1964</v>
@@ -43588,10 +43597,10 @@
         <v>154</v>
       </c>
       <c r="B1781" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="C1781" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="D1781" t="s">
         <v>200</v>
@@ -43608,7 +43617,7 @@
         <v>161</v>
       </c>
       <c r="B1782" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C1782" t="s">
         <v>237</v>
@@ -43642,10 +43651,10 @@
         <v>161</v>
       </c>
       <c r="B1784" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="C1784" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="D1784" t="s">
         <v>200</v>
@@ -43659,10 +43668,10 @@
         <v>161</v>
       </c>
       <c r="B1785" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="C1785" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="D1785" t="s">
         <v>2058</v>
@@ -43676,10 +43685,10 @@
         <v>161</v>
       </c>
       <c r="B1786" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="C1786" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="D1786" t="s">
         <v>285</v>
@@ -43801,7 +43810,7 @@
         <v>1447</v>
       </c>
       <c r="D1793" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="E1793" t="s">
         <v>224</v>
@@ -43863,10 +43872,10 @@
         <v>161</v>
       </c>
       <c r="B1797" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="C1797" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="D1797" t="s">
         <v>285</v>
@@ -43880,10 +43889,10 @@
         <v>161</v>
       </c>
       <c r="B1798" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="C1798" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="D1798" t="s">
         <v>285</v>
@@ -43897,10 +43906,10 @@
         <v>161</v>
       </c>
       <c r="B1799" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="C1799" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="D1799" t="s">
         <v>216</v>
@@ -43914,10 +43923,10 @@
         <v>161</v>
       </c>
       <c r="B1800" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="C1800" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="D1800" t="s">
         <v>216</v>
@@ -43931,10 +43940,10 @@
         <v>161</v>
       </c>
       <c r="B1801" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="C1801" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="D1801" t="s">
         <v>216</v>
@@ -43948,10 +43957,10 @@
         <v>161</v>
       </c>
       <c r="B1802" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C1802" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="D1802" t="s">
         <v>2058</v>
@@ -43965,10 +43974,10 @@
         <v>161</v>
       </c>
       <c r="B1803" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="C1803" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="D1803" t="s">
         <v>216</v>
@@ -43982,10 +43991,10 @@
         <v>161</v>
       </c>
       <c r="B1804" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C1804" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="D1804" t="s">
         <v>216</v>
@@ -43999,10 +44008,10 @@
         <v>161</v>
       </c>
       <c r="B1805" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="C1805" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="D1805" t="s">
         <v>216</v>
@@ -44016,10 +44025,10 @@
         <v>161</v>
       </c>
       <c r="B1806" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="C1806" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="D1806" t="s">
         <v>216</v>
@@ -44033,10 +44042,10 @@
         <v>161</v>
       </c>
       <c r="B1807" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="C1807" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="D1807" t="s">
         <v>216</v>
@@ -44050,10 +44059,10 @@
         <v>161</v>
       </c>
       <c r="B1808" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="C1808" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D1808" t="s">
         <v>216</v>
@@ -44067,10 +44076,10 @@
         <v>161</v>
       </c>
       <c r="B1809" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="C1809" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="D1809" t="s">
         <v>216</v>
@@ -44084,10 +44093,10 @@
         <v>161</v>
       </c>
       <c r="B1810" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="C1810" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="D1810" t="s">
         <v>216</v>
@@ -44101,10 +44110,10 @@
         <v>161</v>
       </c>
       <c r="B1811" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="C1811" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="D1811" t="s">
         <v>216</v>
@@ -44118,10 +44127,10 @@
         <v>161</v>
       </c>
       <c r="B1812" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="C1812" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="D1812" t="s">
         <v>216</v>
@@ -44135,10 +44144,10 @@
         <v>161</v>
       </c>
       <c r="B1813" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="C1813" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="D1813" t="s">
         <v>216</v>
@@ -44152,10 +44161,10 @@
         <v>161</v>
       </c>
       <c r="B1814" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="C1814" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="D1814" t="s">
         <v>216</v>
@@ -44169,10 +44178,10 @@
         <v>161</v>
       </c>
       <c r="B1815" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="C1815" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D1815" t="s">
         <v>216</v>
@@ -44186,10 +44195,10 @@
         <v>161</v>
       </c>
       <c r="B1816" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="C1816" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="D1816" t="s">
         <v>216</v>
@@ -44203,10 +44212,10 @@
         <v>161</v>
       </c>
       <c r="B1817" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="C1817" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D1817" t="s">
         <v>216</v>
@@ -44220,10 +44229,10 @@
         <v>161</v>
       </c>
       <c r="B1818" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C1818" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="D1818" t="s">
         <v>216</v>
@@ -44237,10 +44246,10 @@
         <v>161</v>
       </c>
       <c r="B1819" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="C1819" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="D1819" t="s">
         <v>216</v>
@@ -44254,10 +44263,10 @@
         <v>161</v>
       </c>
       <c r="B1820" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="C1820" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="D1820" t="s">
         <v>216</v>
@@ -44271,10 +44280,10 @@
         <v>161</v>
       </c>
       <c r="B1821" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="C1821" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="D1821" t="s">
         <v>216</v>
@@ -44288,10 +44297,10 @@
         <v>161</v>
       </c>
       <c r="B1822" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="C1822" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="D1822" t="s">
         <v>216</v>
@@ -44305,7 +44314,7 @@
         <v>157</v>
       </c>
       <c r="B1823" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C1823" t="s">
         <v>237</v>
@@ -44322,7 +44331,7 @@
         <v>157</v>
       </c>
       <c r="B1824" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="C1824" t="s">
         <v>22</v>
@@ -44339,7 +44348,7 @@
         <v>157</v>
       </c>
       <c r="B1825" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="C1825" t="s">
         <v>253</v>
@@ -44356,10 +44365,10 @@
         <v>157</v>
       </c>
       <c r="B1826" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="C1826" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="D1826" t="s">
         <v>200</v>
@@ -44373,10 +44382,10 @@
         <v>157</v>
       </c>
       <c r="B1827" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C1827" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="D1827" t="s">
         <v>200</v>
@@ -44390,10 +44399,10 @@
         <v>157</v>
       </c>
       <c r="B1828" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="C1828" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D1828" t="s">
         <v>213</v>
@@ -44407,10 +44416,10 @@
         <v>157</v>
       </c>
       <c r="B1829" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C1829" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D1829" t="s">
         <v>1317</v>
@@ -44424,10 +44433,10 @@
         <v>157</v>
       </c>
       <c r="B1830" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="C1830" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="D1830" t="s">
         <v>1818</v>
@@ -44441,10 +44450,10 @@
         <v>157</v>
       </c>
       <c r="B1831" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="C1831" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="D1831" t="s">
         <v>1317</v>
@@ -44458,10 +44467,10 @@
         <v>157</v>
       </c>
       <c r="B1832" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C1832" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D1832" t="s">
         <v>203</v>
@@ -44475,10 +44484,10 @@
         <v>157</v>
       </c>
       <c r="B1833" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="C1833" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="D1833" t="s">
         <v>1818</v>
@@ -44492,10 +44501,10 @@
         <v>157</v>
       </c>
       <c r="B1834" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="C1834" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="D1834" t="s">
         <v>1317</v>
@@ -44509,13 +44518,13 @@
         <v>157</v>
       </c>
       <c r="B1835" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C1835" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="D1835" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="E1835" t="s">
         <v>224</v>
@@ -44526,7 +44535,7 @@
         <v>157</v>
       </c>
       <c r="B1836" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C1836" t="s">
         <v>1734</v>
@@ -44543,7 +44552,7 @@
         <v>157</v>
       </c>
       <c r="B1837" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="C1837" t="s">
         <v>309</v>
@@ -44560,10 +44569,10 @@
         <v>157</v>
       </c>
       <c r="B1838" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="C1838" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="D1838" t="s">
         <v>285</v>
@@ -44577,10 +44586,10 @@
         <v>157</v>
       </c>
       <c r="B1839" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="C1839" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="D1839" t="s">
         <v>2006</v>
@@ -44594,10 +44603,10 @@
         <v>157</v>
       </c>
       <c r="B1840" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="C1840" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="D1840" t="s">
         <v>285</v>
@@ -44611,10 +44620,10 @@
         <v>157</v>
       </c>
       <c r="B1841" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C1841" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="D1841" t="s">
         <v>200</v>
@@ -44628,10 +44637,10 @@
         <v>157</v>
       </c>
       <c r="B1842" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C1842" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D1842" t="s">
         <v>200</v>
@@ -44645,10 +44654,10 @@
         <v>157</v>
       </c>
       <c r="B1843" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="C1843" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="D1843" t="s">
         <v>200</v>
@@ -44662,10 +44671,10 @@
         <v>157</v>
       </c>
       <c r="B1844" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="C1844" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="D1844" t="s">
         <v>2058</v>
@@ -44679,10 +44688,10 @@
         <v>157</v>
       </c>
       <c r="B1845" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="C1845" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D1845" t="s">
         <v>285</v>
@@ -44696,10 +44705,10 @@
         <v>157</v>
       </c>
       <c r="B1846" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="C1846" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="D1846" t="s">
         <v>2035</v>
@@ -44713,10 +44722,10 @@
         <v>157</v>
       </c>
       <c r="B1847" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C1847" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="D1847" t="s">
         <v>1868</v>
@@ -44730,10 +44739,10 @@
         <v>157</v>
       </c>
       <c r="B1848" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="C1848" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="D1848" t="s">
         <v>200</v>
@@ -44747,10 +44756,10 @@
         <v>157</v>
       </c>
       <c r="B1849" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C1849" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="D1849" t="s">
         <v>2058</v>
@@ -44764,10 +44773,10 @@
         <v>157</v>
       </c>
       <c r="B1850" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C1850" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="D1850" t="s">
         <v>200</v>
@@ -44781,10 +44790,10 @@
         <v>157</v>
       </c>
       <c r="B1851" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C1851" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D1851" t="s">
         <v>200</v>
@@ -44798,10 +44807,10 @@
         <v>157</v>
       </c>
       <c r="B1852" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="C1852" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="D1852" t="s">
         <v>2058</v>
@@ -44815,10 +44824,10 @@
         <v>157</v>
       </c>
       <c r="B1853" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C1853" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D1853" t="s">
         <v>2058</v>
@@ -44832,10 +44841,10 @@
         <v>157</v>
       </c>
       <c r="B1854" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C1854" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="D1854" t="s">
         <v>200</v>
@@ -44849,7 +44858,7 @@
         <v>157</v>
       </c>
       <c r="B1855" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="C1855" t="s">
         <v>259</v>
@@ -44866,10 +44875,10 @@
         <v>157</v>
       </c>
       <c r="B1856" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="C1856" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="D1856" t="s">
         <v>213</v>
@@ -44883,10 +44892,10 @@
         <v>157</v>
       </c>
       <c r="B1857" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="C1857" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="D1857" t="s">
         <v>213</v>
@@ -44917,10 +44926,10 @@
         <v>157</v>
       </c>
       <c r="B1859" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="C1859" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="D1859" t="s">
         <v>213</v>
@@ -44934,10 +44943,10 @@
         <v>157</v>
       </c>
       <c r="B1860" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="C1860" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="D1860" t="s">
         <v>203</v>
@@ -44951,10 +44960,10 @@
         <v>157</v>
       </c>
       <c r="B1861" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="C1861" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="D1861" t="s">
         <v>241</v>
@@ -44968,10 +44977,10 @@
         <v>157</v>
       </c>
       <c r="B1862" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="C1862" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="D1862" t="s">
         <v>213</v>
@@ -44985,10 +44994,10 @@
         <v>157</v>
       </c>
       <c r="B1863" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="C1863" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="D1863" t="s">
         <v>213</v>
@@ -45002,10 +45011,10 @@
         <v>157</v>
       </c>
       <c r="B1864" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="C1864" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="D1864" t="s">
         <v>213</v>
@@ -45019,10 +45028,10 @@
         <v>157</v>
       </c>
       <c r="B1865" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="C1865" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="D1865" t="s">
         <v>2058</v>
@@ -45036,10 +45045,10 @@
         <v>157</v>
       </c>
       <c r="B1866" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="C1866" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="D1866" t="s">
         <v>1979</v>
@@ -45053,10 +45062,10 @@
         <v>157</v>
       </c>
       <c r="B1867" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="C1867" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="D1867" t="s">
         <v>285</v>
@@ -45070,7 +45079,7 @@
         <v>163</v>
       </c>
       <c r="B1868" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C1868" t="s">
         <v>237</v>
@@ -45104,10 +45113,10 @@
         <v>163</v>
       </c>
       <c r="B1870" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="C1870" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="D1870" t="s">
         <v>200</v>
@@ -45121,10 +45130,10 @@
         <v>163</v>
       </c>
       <c r="B1871" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="C1871" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="D1871" t="s">
         <v>2058</v>
@@ -45138,10 +45147,10 @@
         <v>163</v>
       </c>
       <c r="B1872" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="C1872" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="D1872" t="s">
         <v>285</v>
@@ -45155,10 +45164,10 @@
         <v>163</v>
       </c>
       <c r="B1873" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="C1873" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D1873" t="s">
         <v>216</v>
@@ -45172,10 +45181,10 @@
         <v>163</v>
       </c>
       <c r="B1874" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="C1874" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="D1874" t="s">
         <v>216</v>
@@ -45189,10 +45198,10 @@
         <v>163</v>
       </c>
       <c r="B1875" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="C1875" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D1875" t="s">
         <v>216</v>
@@ -45206,10 +45215,10 @@
         <v>163</v>
       </c>
       <c r="B1876" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C1876" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="D1876" t="s">
         <v>216</v>
@@ -45223,7 +45232,7 @@
         <v>165</v>
       </c>
       <c r="B1877" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C1877" t="s">
         <v>237</v>
@@ -45277,7 +45286,7 @@
         <v>1789</v>
       </c>
       <c r="C1880" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="D1880" t="s">
         <v>213</v>
@@ -45291,10 +45300,10 @@
         <v>165</v>
       </c>
       <c r="B1881" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="C1881" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="D1881" t="s">
         <v>285</v>
@@ -45308,7 +45317,7 @@
         <v>165</v>
       </c>
       <c r="B1882" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C1882" t="s">
         <v>2092</v>
@@ -45325,7 +45334,7 @@
         <v>85</v>
       </c>
       <c r="B1883" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="C1883" t="s">
         <v>1959</v>
@@ -45342,10 +45351,10 @@
         <v>85</v>
       </c>
       <c r="B1884" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C1884" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="D1884" t="s">
         <v>200</v>
@@ -45359,10 +45368,10 @@
         <v>85</v>
       </c>
       <c r="B1885" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="C1885" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="D1885" t="s">
         <v>200</v>
@@ -45376,10 +45385,10 @@
         <v>85</v>
       </c>
       <c r="B1886" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="C1886" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="D1886" t="s">
         <v>200</v>
@@ -45393,10 +45402,10 @@
         <v>85</v>
       </c>
       <c r="B1887" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C1887" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="D1887" t="s">
         <v>244</v>
@@ -45410,10 +45419,10 @@
         <v>85</v>
       </c>
       <c r="B1888" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="C1888" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D1888" t="s">
         <v>200</v>
@@ -45427,10 +45436,10 @@
         <v>85</v>
       </c>
       <c r="B1889" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="C1889" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="D1889" t="s">
         <v>244</v>
@@ -45444,10 +45453,10 @@
         <v>85</v>
       </c>
       <c r="B1890" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C1890" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="D1890" t="s">
         <v>213</v>
@@ -45461,10 +45470,10 @@
         <v>85</v>
       </c>
       <c r="B1891" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="C1891" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="D1891" t="s">
         <v>213</v>
@@ -45478,13 +45487,13 @@
         <v>85</v>
       </c>
       <c r="B1892" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="C1892" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="D1892" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="E1892" t="s">
         <v>224</v>
@@ -45495,10 +45504,10 @@
         <v>85</v>
       </c>
       <c r="B1893" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="C1893" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D1893" t="s">
         <v>200</v>
@@ -45512,10 +45521,10 @@
         <v>85</v>
       </c>
       <c r="B1894" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="C1894" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="D1894" t="s">
         <v>200</v>
@@ -45529,10 +45538,10 @@
         <v>85</v>
       </c>
       <c r="B1895" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C1895" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="D1895" t="s">
         <v>200</v>
@@ -45546,10 +45555,10 @@
         <v>85</v>
       </c>
       <c r="B1896" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="C1896" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="D1896" t="s">
         <v>200</v>
@@ -45563,10 +45572,10 @@
         <v>85</v>
       </c>
       <c r="B1897" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="C1897" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="D1897" t="s">
         <v>200</v>
@@ -45580,10 +45589,10 @@
         <v>85</v>
       </c>
       <c r="B1898" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="C1898" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="D1898" t="s">
         <v>200</v>
@@ -45597,10 +45606,10 @@
         <v>85</v>
       </c>
       <c r="B1899" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="C1899" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="D1899" t="s">
         <v>266</v>
@@ -45614,10 +45623,10 @@
         <v>85</v>
       </c>
       <c r="B1900" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C1900" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="D1900" t="s">
         <v>200</v>
@@ -45631,10 +45640,10 @@
         <v>85</v>
       </c>
       <c r="B1901" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="C1901" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D1901" t="s">
         <v>200</v>
@@ -45648,7 +45657,7 @@
         <v>85</v>
       </c>
       <c r="B1902" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="C1902" t="s">
         <v>226</v>
@@ -45665,10 +45674,10 @@
         <v>85</v>
       </c>
       <c r="B1903" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="C1903" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="D1903" t="s">
         <v>200</v>
@@ -45682,10 +45691,10 @@
         <v>85</v>
       </c>
       <c r="B1904" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C1904" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="D1904" t="s">
         <v>200</v>
@@ -45699,10 +45708,10 @@
         <v>85</v>
       </c>
       <c r="B1905" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C1905" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D1905" t="s">
         <v>200</v>
@@ -45716,10 +45725,10 @@
         <v>85</v>
       </c>
       <c r="B1906" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C1906" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="D1906" t="s">
         <v>1317</v>
@@ -45733,10 +45742,10 @@
         <v>85</v>
       </c>
       <c r="B1907" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="C1907" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="D1907" t="s">
         <v>1868</v>
@@ -45750,7 +45759,7 @@
         <v>85</v>
       </c>
       <c r="B1908" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C1908" t="s">
         <v>309</v>
@@ -45801,7 +45810,7 @@
         <v>93</v>
       </c>
       <c r="B1911" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="C1911" t="s">
         <v>1645</v>
@@ -45818,10 +45827,10 @@
         <v>93</v>
       </c>
       <c r="B1912" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="C1912" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="D1912" t="s">
         <v>285</v>
@@ -45835,10 +45844,10 @@
         <v>93</v>
       </c>
       <c r="B1913" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="C1913" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="D1913" t="s">
         <v>285</v>
@@ -45852,10 +45861,10 @@
         <v>93</v>
       </c>
       <c r="B1914" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C1914" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="D1914" t="s">
         <v>285</v>
@@ -45869,7 +45878,7 @@
         <v>93</v>
       </c>
       <c r="B1915" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="C1915" t="s">
         <v>1319</v>
@@ -45906,7 +45915,7 @@
         <v>1752</v>
       </c>
       <c r="C1917" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="D1917" t="s">
         <v>213</v>
@@ -45937,10 +45946,10 @@
         <v>167</v>
       </c>
       <c r="B1919" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C1919" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="D1919" t="s">
         <v>200</v>
@@ -45954,10 +45963,10 @@
         <v>167</v>
       </c>
       <c r="B1920" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C1920" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="D1920" t="s">
         <v>200</v>
@@ -45971,7 +45980,7 @@
         <v>167</v>
       </c>
       <c r="B1921" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C1921" t="s">
         <v>237</v>
@@ -45988,7 +45997,7 @@
         <v>167</v>
       </c>
       <c r="B1922" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="C1922" t="s">
         <v>273</v>
@@ -46005,7 +46014,7 @@
         <v>167</v>
       </c>
       <c r="B1923" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="C1923" t="s">
         <v>279</v>
@@ -46022,7 +46031,7 @@
         <v>167</v>
       </c>
       <c r="B1924" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="C1924" t="s">
         <v>275</v>
@@ -46039,7 +46048,7 @@
         <v>167</v>
       </c>
       <c r="B1925" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C1925" t="s">
         <v>277</v>
@@ -46056,10 +46065,10 @@
         <v>167</v>
       </c>
       <c r="B1926" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="C1926" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="D1926" t="s">
         <v>1077</v>
@@ -46090,10 +46099,10 @@
         <v>167</v>
       </c>
       <c r="B1928" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="C1928" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="D1928" t="s">
         <v>1077</v>
@@ -46107,10 +46116,10 @@
         <v>167</v>
       </c>
       <c r="B1929" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="C1929" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="D1929" t="s">
         <v>1077</v>
@@ -46127,7 +46136,7 @@
         <v>283</v>
       </c>
       <c r="C1930" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="D1930" t="s">
         <v>1077</v>
@@ -46158,10 +46167,10 @@
         <v>167</v>
       </c>
       <c r="B1932" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C1932" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="D1932" t="s">
         <v>1077</v>
@@ -46175,10 +46184,10 @@
         <v>167</v>
       </c>
       <c r="B1933" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="C1933" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="D1933" t="s">
         <v>266</v>
@@ -46192,7 +46201,7 @@
         <v>176</v>
       </c>
       <c r="B1934" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C1934" t="s">
         <v>237</v>
@@ -46209,7 +46218,7 @@
         <v>176</v>
       </c>
       <c r="B1935" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="C1935" t="s">
         <v>239</v>
@@ -46226,10 +46235,10 @@
         <v>176</v>
       </c>
       <c r="B1936" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C1936" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="D1936" t="s">
         <v>200</v>
@@ -46243,10 +46252,10 @@
         <v>176</v>
       </c>
       <c r="B1937" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="C1937" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="D1937" t="s">
         <v>203</v>
@@ -46260,10 +46269,10 @@
         <v>176</v>
       </c>
       <c r="B1938" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C1938" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="D1938" t="s">
         <v>200</v>
@@ -46277,10 +46286,10 @@
         <v>176</v>
       </c>
       <c r="B1939" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="C1939" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="D1939" t="s">
         <v>244</v>
@@ -46294,13 +46303,13 @@
         <v>176</v>
       </c>
       <c r="B1940" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C1940" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="D1940" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="E1940" t="s">
         <v>224</v>
@@ -46311,13 +46320,13 @@
         <v>176</v>
       </c>
       <c r="B1941" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D1941" t="s">
         <v>3173</v>
-      </c>
-      <c r="C1941" t="s">
-        <v>3174</v>
-      </c>
-      <c r="D1941" t="s">
-        <v>3172</v>
       </c>
       <c r="E1941" t="s">
         <v>224</v>
@@ -46328,13 +46337,13 @@
         <v>176</v>
       </c>
       <c r="B1942" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="C1942" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="D1942" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="E1942" t="s">
         <v>224</v>
@@ -46345,13 +46354,13 @@
         <v>176</v>
       </c>
       <c r="B1943" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="C1943" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="D1943" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="E1943" t="s">
         <v>224</v>
@@ -46362,10 +46371,10 @@
         <v>176</v>
       </c>
       <c r="B1944" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="C1944" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="D1944" t="s">
         <v>200</v>
@@ -46379,10 +46388,10 @@
         <v>176</v>
       </c>
       <c r="B1945" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C1945" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="D1945" t="s">
         <v>247</v>
@@ -46396,10 +46405,10 @@
         <v>176</v>
       </c>
       <c r="B1946" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="C1946" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="D1946" t="s">
         <v>200</v>
@@ -46413,10 +46422,10 @@
         <v>176</v>
       </c>
       <c r="B1947" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="C1947" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="D1947" t="s">
         <v>247</v>
@@ -46430,13 +46439,13 @@
         <v>176</v>
       </c>
       <c r="B1948" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C1948" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="D1948" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E1948" t="s">
         <v>224</v>
@@ -46447,13 +46456,13 @@
         <v>176</v>
       </c>
       <c r="B1949" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C1949" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="D1949" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="E1949" t="s">
         <v>224</v>
@@ -46464,10 +46473,10 @@
         <v>176</v>
       </c>
       <c r="B1950" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="C1950" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="D1950" t="s">
         <v>200</v>
@@ -46481,10 +46490,10 @@
         <v>176</v>
       </c>
       <c r="B1951" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="C1951" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="D1951" t="s">
         <v>203</v>
@@ -46498,10 +46507,10 @@
         <v>176</v>
       </c>
       <c r="B1952" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="C1952" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="D1952" t="s">
         <v>200</v>
@@ -46515,10 +46524,10 @@
         <v>176</v>
       </c>
       <c r="B1953" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="C1953" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="D1953" t="s">
         <v>203</v>
@@ -46532,10 +46541,10 @@
         <v>176</v>
       </c>
       <c r="B1954" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C1954" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D1954" t="s">
         <v>200</v>
@@ -46549,10 +46558,10 @@
         <v>176</v>
       </c>
       <c r="B1955" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="C1955" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="D1955" t="s">
         <v>210</v>
@@ -46566,10 +46575,10 @@
         <v>176</v>
       </c>
       <c r="B1956" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="C1956" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="D1956" t="s">
         <v>213</v>
@@ -46583,10 +46592,10 @@
         <v>176</v>
       </c>
       <c r="B1957" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C1957" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="D1957" t="s">
         <v>213</v>
@@ -46600,10 +46609,10 @@
         <v>176</v>
       </c>
       <c r="B1958" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="C1958" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D1958" t="s">
         <v>213</v>
@@ -46620,7 +46629,7 @@
         <v>2419</v>
       </c>
       <c r="C1959" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="D1959" t="s">
         <v>213</v>
@@ -46634,10 +46643,10 @@
         <v>176</v>
       </c>
       <c r="B1960" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="C1960" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="D1960" t="s">
         <v>203</v>
@@ -46651,10 +46660,10 @@
         <v>176</v>
       </c>
       <c r="B1961" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="C1961" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="D1961" t="s">
         <v>200</v>
@@ -46668,10 +46677,10 @@
         <v>176</v>
       </c>
       <c r="B1962" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="C1962" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="D1962" t="s">
         <v>200</v>
@@ -46685,10 +46694,10 @@
         <v>176</v>
       </c>
       <c r="B1963" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="C1963" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1963" t="s">
         <v>266</v>
@@ -46702,10 +46711,10 @@
         <v>176</v>
       </c>
       <c r="B1964" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="C1964" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="D1964" t="s">
         <v>2058</v>
@@ -46719,10 +46728,10 @@
         <v>176</v>
       </c>
       <c r="B1965" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="C1965" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="D1965" t="s">
         <v>2058</v>
@@ -46736,10 +46745,10 @@
         <v>176</v>
       </c>
       <c r="B1966" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="C1966" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="D1966" t="s">
         <v>2058</v>
@@ -46753,10 +46762,10 @@
         <v>176</v>
       </c>
       <c r="B1967" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="C1967" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="D1967" t="s">
         <v>2058</v>
@@ -46770,10 +46779,10 @@
         <v>176</v>
       </c>
       <c r="B1968" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C1968" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D1968" t="s">
         <v>200</v>
@@ -46787,10 +46796,10 @@
         <v>176</v>
       </c>
       <c r="B1969" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="C1969" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="D1969" t="s">
         <v>247</v>
@@ -46804,10 +46813,10 @@
         <v>176</v>
       </c>
       <c r="B1970" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="C1970" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="D1970" t="s">
         <v>200</v>
@@ -46821,10 +46830,10 @@
         <v>176</v>
       </c>
       <c r="B1971" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="C1971" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="D1971" t="s">
         <v>200</v>
@@ -46838,10 +46847,10 @@
         <v>176</v>
       </c>
       <c r="B1972" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C1972" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="D1972" t="s">
         <v>247</v>
@@ -46858,7 +46867,7 @@
         <v>2767</v>
       </c>
       <c r="C1973" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="D1973" t="s">
         <v>200</v>
@@ -46872,10 +46881,10 @@
         <v>176</v>
       </c>
       <c r="B1974" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C1974" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="D1974" t="s">
         <v>203</v>
@@ -46889,13 +46898,13 @@
         <v>176</v>
       </c>
       <c r="B1975" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C1975" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="D1975" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E1975" t="s">
         <v>224</v>
@@ -46906,10 +46915,10 @@
         <v>176</v>
       </c>
       <c r="B1976" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C1976" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="D1976" t="s">
         <v>200</v>
@@ -46923,10 +46932,10 @@
         <v>176</v>
       </c>
       <c r="B1977" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C1977" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="D1977" t="s">
         <v>203</v>
@@ -46940,13 +46949,13 @@
         <v>176</v>
       </c>
       <c r="B1978" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1978" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="D1978" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E1978" t="s">
         <v>224</v>
@@ -46957,13 +46966,13 @@
         <v>176</v>
       </c>
       <c r="B1979" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="C1979" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="D1979" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E1979" t="s">
         <v>224</v>
@@ -46974,10 +46983,10 @@
         <v>176</v>
       </c>
       <c r="B1980" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="C1980" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="D1980" t="s">
         <v>200</v>
@@ -46991,10 +47000,10 @@
         <v>176</v>
       </c>
       <c r="B1981" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="C1981" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="D1981" t="s">
         <v>200</v>
@@ -47011,7 +47020,7 @@
         <v>1315</v>
       </c>
       <c r="C1982" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="D1982" t="s">
         <v>1818</v>
@@ -47025,7 +47034,7 @@
         <v>180</v>
       </c>
       <c r="B1983" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C1983" t="s">
         <v>237</v>
@@ -47042,10 +47051,10 @@
         <v>180</v>
       </c>
       <c r="B1984" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="C1984" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="D1984" t="s">
         <v>1868</v>
@@ -47059,13 +47068,13 @@
         <v>180</v>
       </c>
       <c r="B1985" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="C1985" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="D1985" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="E1985" t="s">
         <v>224</v>
@@ -47076,10 +47085,10 @@
         <v>180</v>
       </c>
       <c r="B1986" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C1986" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="D1986" t="s">
         <v>1868</v>
@@ -47093,10 +47102,10 @@
         <v>180</v>
       </c>
       <c r="B1987" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="C1987" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="D1987" t="s">
         <v>1868</v>
@@ -47110,10 +47119,10 @@
         <v>180</v>
       </c>
       <c r="B1988" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="C1988" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="D1988" t="s">
         <v>1868</v>
@@ -47127,10 +47136,10 @@
         <v>180</v>
       </c>
       <c r="B1989" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="C1989" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="D1989" t="s">
         <v>1868</v>
@@ -47144,7 +47153,7 @@
         <v>182</v>
       </c>
       <c r="B1990" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C1990" t="s">
         <v>237</v>
@@ -47229,7 +47238,7 @@
         <v>182</v>
       </c>
       <c r="B1995" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="C1995" t="s">
         <v>2785</v>
@@ -47246,7 +47255,7 @@
         <v>182</v>
       </c>
       <c r="B1996" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="C1996" t="s">
         <v>2787</v>
@@ -47263,7 +47272,7 @@
         <v>182</v>
       </c>
       <c r="B1997" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="C1997" t="s">
         <v>2789</v>
@@ -47280,10 +47289,10 @@
         <v>182</v>
       </c>
       <c r="B1998" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="C1998" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="D1998" t="s">
         <v>2794</v>
@@ -47297,10 +47306,10 @@
         <v>182</v>
       </c>
       <c r="B1999" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="C1999" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="D1999" t="s">
         <v>2794</v>
@@ -47314,10 +47323,10 @@
         <v>182</v>
       </c>
       <c r="B2000" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="C2000" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="D2000" t="s">
         <v>2794</v>
@@ -47331,7 +47340,7 @@
         <v>172</v>
       </c>
       <c r="B2001" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="C2001" t="s">
         <v>237</v>
@@ -47348,7 +47357,7 @@
         <v>172</v>
       </c>
       <c r="B2002" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="C2002" t="s">
         <v>239</v>
@@ -47365,10 +47374,10 @@
         <v>172</v>
       </c>
       <c r="B2003" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="C2003" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="D2003" t="s">
         <v>203</v>
@@ -47382,7 +47391,7 @@
         <v>172</v>
       </c>
       <c r="B2004" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="C2004" t="s">
         <v>174</v>
@@ -47416,10 +47425,10 @@
         <v>172</v>
       </c>
       <c r="B2006" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="C2006" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="D2006" t="s">
         <v>247</v>
@@ -47433,7 +47442,7 @@
         <v>172</v>
       </c>
       <c r="B2007" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="C2007" t="s">
         <v>255</v>
@@ -47450,10 +47459,10 @@
         <v>172</v>
       </c>
       <c r="B2008" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="C2008" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="D2008" t="s">
         <v>200</v>
@@ -47467,10 +47476,10 @@
         <v>172</v>
       </c>
       <c r="B2009" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="C2009" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="D2009" t="s">
         <v>200</v>
@@ -47484,13 +47493,13 @@
         <v>172</v>
       </c>
       <c r="B2010" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="C2010" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="D2010" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E2010" t="s">
         <v>224</v>
@@ -47501,7 +47510,7 @@
         <v>184</v>
       </c>
       <c r="B2011" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C2011" t="s">
         <v>237</v>
@@ -47518,7 +47527,7 @@
         <v>184</v>
       </c>
       <c r="B2012" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="C2012" t="s">
         <v>239</v>
@@ -47535,10 +47544,10 @@
         <v>184</v>
       </c>
       <c r="B2013" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="C2013" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="D2013" t="s">
         <v>200</v>
@@ -47552,10 +47561,10 @@
         <v>184</v>
       </c>
       <c r="B2014" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="C2014" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="D2014" t="s">
         <v>203</v>
@@ -47569,13 +47578,13 @@
         <v>184</v>
       </c>
       <c r="B2015" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C2015" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="D2015" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E2015" t="s">
         <v>224</v>
@@ -47586,10 +47595,10 @@
         <v>184</v>
       </c>
       <c r="B2016" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="C2016" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="D2016" t="s">
         <v>203</v>
@@ -47603,10 +47612,10 @@
         <v>184</v>
       </c>
       <c r="B2017" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="C2017" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="D2017" t="s">
         <v>210</v>
@@ -47620,10 +47629,10 @@
         <v>184</v>
       </c>
       <c r="B2018" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="C2018" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="D2018" t="s">
         <v>200</v>
@@ -47632,7 +47641,7 @@
         <v>224</v>
       </c>
       <c r="F2018" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="2019" spans="1:5">
@@ -47640,10 +47649,10 @@
         <v>184</v>
       </c>
       <c r="B2019" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="C2019" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="D2019" t="s">
         <v>244</v>
@@ -47657,10 +47666,10 @@
         <v>184</v>
       </c>
       <c r="B2020" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="C2020" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="D2020" t="s">
         <v>200</v>
@@ -47669,7 +47678,7 @@
         <v>224</v>
       </c>
       <c r="F2020" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -47677,10 +47686,10 @@
         <v>184</v>
       </c>
       <c r="B2021" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="C2021" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="D2021" t="s">
         <v>247</v>
@@ -47694,10 +47703,10 @@
         <v>184</v>
       </c>
       <c r="B2022" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="C2022" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="D2022" t="s">
         <v>210</v>
@@ -47711,10 +47720,10 @@
         <v>184</v>
       </c>
       <c r="B2023" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="C2023" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="D2023" t="s">
         <v>200</v>
@@ -47723,7 +47732,7 @@
         <v>224</v>
       </c>
       <c r="F2023" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="2024" spans="1:5">
@@ -47731,10 +47740,10 @@
         <v>184</v>
       </c>
       <c r="B2024" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="C2024" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="D2024" t="s">
         <v>247</v>
@@ -47748,10 +47757,10 @@
         <v>184</v>
       </c>
       <c r="B2025" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="C2025" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="D2025" t="s">
         <v>200</v>
@@ -47760,7 +47769,7 @@
         <v>224</v>
       </c>
       <c r="F2025" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="2026" spans="1:5">
@@ -47768,10 +47777,10 @@
         <v>184</v>
       </c>
       <c r="B2026" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="C2026" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="D2026" t="s">
         <v>247</v>
@@ -47785,10 +47794,10 @@
         <v>184</v>
       </c>
       <c r="B2027" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="C2027" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="D2027" t="s">
         <v>200</v>
@@ -47797,7 +47806,7 @@
         <v>224</v>
       </c>
       <c r="F2027" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="2028" spans="1:5">
@@ -47805,10 +47814,10 @@
         <v>184</v>
       </c>
       <c r="B2028" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="C2028" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="D2028" t="s">
         <v>247</v>
@@ -47822,13 +47831,13 @@
         <v>184</v>
       </c>
       <c r="B2029" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C2029" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="D2029" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E2029" t="s">
         <v>224</v>
@@ -47839,10 +47848,10 @@
         <v>184</v>
       </c>
       <c r="B2030" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="C2030" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="D2030" t="s">
         <v>200</v>
@@ -47856,10 +47865,10 @@
         <v>184</v>
       </c>
       <c r="B2031" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="C2031" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="D2031" t="s">
         <v>200</v>
@@ -47873,10 +47882,10 @@
         <v>184</v>
       </c>
       <c r="B2032" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="C2032" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="D2032" t="s">
         <v>1868</v>
@@ -47890,10 +47899,10 @@
         <v>184</v>
       </c>
       <c r="B2033" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="C2033" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="D2033" t="s">
         <v>1868</v>
@@ -47907,10 +47916,10 @@
         <v>184</v>
       </c>
       <c r="B2034" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="C2034" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="D2034" t="s">
         <v>1868</v>
@@ -47924,10 +47933,10 @@
         <v>184</v>
       </c>
       <c r="B2035" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="C2035" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="D2035" t="s">
         <v>1868</v>
@@ -47941,10 +47950,10 @@
         <v>184</v>
       </c>
       <c r="B2036" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="C2036" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="D2036" t="s">
         <v>1868</v>
@@ -47958,10 +47967,10 @@
         <v>184</v>
       </c>
       <c r="B2037" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="C2037" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="D2037" t="s">
         <v>1868</v>
@@ -47975,10 +47984,10 @@
         <v>184</v>
       </c>
       <c r="B2038" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="C2038" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="D2038" t="s">
         <v>1868</v>
@@ -47992,10 +48001,10 @@
         <v>184</v>
       </c>
       <c r="B2039" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="C2039" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="D2039" t="s">
         <v>1868</v>
@@ -48009,10 +48018,10 @@
         <v>184</v>
       </c>
       <c r="B2040" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="C2040" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="D2040" t="s">
         <v>1868</v>
@@ -48026,10 +48035,10 @@
         <v>184</v>
       </c>
       <c r="B2041" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="C2041" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="D2041" t="s">
         <v>1868</v>
@@ -48043,7 +48052,7 @@
         <v>190</v>
       </c>
       <c r="B2042" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C2042" t="s">
         <v>237</v>
@@ -48094,7 +48103,7 @@
         <v>190</v>
       </c>
       <c r="B2045" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="C2045" t="s">
         <v>309</v>
@@ -48111,13 +48120,13 @@
         <v>190</v>
       </c>
       <c r="B2046" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="C2046" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="D2046" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="E2046" t="s">
         <v>224</v>
@@ -48128,13 +48137,13 @@
         <v>190</v>
       </c>
       <c r="B2047" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D2047" t="s">
         <v>3347</v>
-      </c>
-      <c r="C2047" t="s">
-        <v>3348</v>
-      </c>
-      <c r="D2047" t="s">
-        <v>3346</v>
       </c>
       <c r="E2047" t="s">
         <v>224</v>
@@ -48145,13 +48154,13 @@
         <v>190</v>
       </c>
       <c r="B2048" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="C2048" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="D2048" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="E2048" t="s">
         <v>224</v>
@@ -48162,7 +48171,7 @@
         <v>188</v>
       </c>
       <c r="B2049" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="C2049" t="s">
         <v>237</v>
@@ -48182,7 +48191,7 @@
         <v>2666</v>
       </c>
       <c r="C2050" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="D2050" t="s">
         <v>213</v>
@@ -48196,10 +48205,10 @@
         <v>188</v>
       </c>
       <c r="B2051" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="C2051" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="D2051" t="s">
         <v>213</v>
@@ -48213,10 +48222,10 @@
         <v>188</v>
       </c>
       <c r="B2052" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="C2052" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="D2052" t="s">
         <v>200</v>
@@ -48230,10 +48239,10 @@
         <v>188</v>
       </c>
       <c r="B2053" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="C2053" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="D2053" t="s">
         <v>203</v>
@@ -48247,7 +48256,7 @@
         <v>188</v>
       </c>
       <c r="B2054" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="C2054" t="s">
         <v>239</v>
@@ -48264,10 +48273,10 @@
         <v>188</v>
       </c>
       <c r="B2055" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="C2055" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="D2055" t="s">
         <v>247</v>
@@ -48281,7 +48290,7 @@
         <v>188</v>
       </c>
       <c r="B2056" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="C2056" t="s">
         <v>2700</v>
@@ -48315,10 +48324,10 @@
         <v>188</v>
       </c>
       <c r="B2058" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="C2058" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="D2058" t="s">
         <v>200</v>
@@ -48332,10 +48341,10 @@
         <v>188</v>
       </c>
       <c r="B2059" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="C2059" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="D2059" t="s">
         <v>200</v>
@@ -48349,7 +48358,7 @@
         <v>188</v>
       </c>
       <c r="B2060" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="C2060" t="s">
         <v>2702</v>
@@ -48361,7 +48370,7 @@
         <v>224</v>
       </c>
       <c r="F2060" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="2061" spans="1:6">
@@ -48369,10 +48378,10 @@
         <v>188</v>
       </c>
       <c r="B2061" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C2061" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="D2061" t="s">
         <v>200</v>
@@ -48381,7 +48390,7 @@
         <v>224</v>
       </c>
       <c r="F2061" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="2062" spans="1:5">
@@ -48389,10 +48398,10 @@
         <v>188</v>
       </c>
       <c r="B2062" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="C2062" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="D2062" t="s">
         <v>200</v>
@@ -48406,10 +48415,10 @@
         <v>188</v>
       </c>
       <c r="B2063" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="C2063" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="D2063" t="s">
         <v>203</v>
@@ -48423,7 +48432,7 @@
         <v>188</v>
       </c>
       <c r="B2064" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="C2064" t="s">
         <v>2637</v>
@@ -48440,10 +48449,10 @@
         <v>188</v>
       </c>
       <c r="B2065" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C2065" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="D2065" t="s">
         <v>203</v>
@@ -48457,7 +48466,7 @@
         <v>188</v>
       </c>
       <c r="B2066" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="C2066" t="s">
         <v>2649</v>
@@ -48474,10 +48483,10 @@
         <v>188</v>
       </c>
       <c r="B2067" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="C2067" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="D2067" t="s">
         <v>1868</v>
@@ -48491,10 +48500,10 @@
         <v>188</v>
       </c>
       <c r="B2068" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="C2068" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="D2068" t="s">
         <v>1868</v>
@@ -48508,7 +48517,7 @@
         <v>188</v>
       </c>
       <c r="B2069" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="C2069" t="s">
         <v>2647</v>
@@ -48525,10 +48534,10 @@
         <v>188</v>
       </c>
       <c r="B2070" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="C2070" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D2070" t="s">
         <v>1317</v>
@@ -48545,7 +48554,7 @@
         <v>2650</v>
       </c>
       <c r="C2071" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="D2071" t="s">
         <v>1317</v>
@@ -48559,10 +48568,10 @@
         <v>188</v>
       </c>
       <c r="B2072" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="C2072" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="D2072" t="s">
         <v>1868</v>
@@ -48576,10 +48585,10 @@
         <v>188</v>
       </c>
       <c r="B2073" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="C2073" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="D2073" t="s">
         <v>1317</v>
@@ -48593,7 +48602,7 @@
         <v>188</v>
       </c>
       <c r="B2074" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="C2074" t="s">
         <v>2655</v>
@@ -48610,10 +48619,10 @@
         <v>188</v>
       </c>
       <c r="B2075" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="C2075" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="D2075" t="s">
         <v>1317</v>
@@ -48627,10 +48636,10 @@
         <v>188</v>
       </c>
       <c r="B2076" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="C2076" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="D2076" t="s">
         <v>1868</v>
@@ -48640,7 +48649,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1933">
+  <autoFilter ref="A1:E2076">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48669,30 +48678,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -48700,13 +48709,13 @@
         <v>2768</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -48714,83 +48723,83 @@
         <v>2745</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
     </row>
   </sheetData>

--- a/QuantStudio/Resource/JYDBInfo.xlsx
+++ b/QuantStudio/Resource/JYDBInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\QuantStudio\QuantStudio\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9452E2E3-DCAF-4A22-A1BD-4E5EACBB5356}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF0233-5F01-40DB-92F4-07ED5282EBEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="5" r:id="rId1"/>
@@ -14325,7 +14325,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{MainTable}.SecuCategory IN (7,9,11,14,17,18,23,28,29,31,33) AND {MainTable}.SecuMarket IN (71,73,83,84,89,90,310)</t>
+    <t>{MainTable}.SecuCategory IN (6,7,9,11,14,17,18,23,28,29,31,33) AND {MainTable}.SecuMarket IN (71,73,83,84,89,90,310)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14709,8 +14709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="H73" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17816,7 +17816,7 @@
   <dimension ref="A1:H3137"/>
   <sheetViews>
     <sheetView topLeftCell="A3116" workbookViewId="0">
-      <selection activeCell="C3150" sqref="C3150"/>
+      <selection activeCell="A3142" sqref="A3142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/QuantStudio/Resource/JYDBInfo.xlsx
+++ b/QuantStudio/Resource/JYDBInfo.xlsx
@@ -10,17 +10,18 @@
     <sheet name="TableInfo" sheetId="5" r:id="rId1"/>
     <sheet name="FactorInfo" sheetId="4" r:id="rId2"/>
     <sheet name="ExchangeInfo" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$K$167</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$H$4481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$H$4494</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24527" uniqueCount="6495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24647" uniqueCount="6515">
   <si>
     <t>TableName</t>
   </si>
@@ -17989,6 +17990,51 @@
     <t>PurposeDesc</t>
   </si>
   <si>
+    <t>股份回购ID</t>
+  </si>
+  <si>
+    <t>BuybackID</t>
+  </si>
+  <si>
+    <t>从表:LC_BuybackAttach.BuybackID</t>
+  </si>
+  <si>
+    <t>截止日期-实施日期</t>
+  </si>
+  <si>
+    <t>本次回购数量(股)</t>
+  </si>
+  <si>
+    <t>累计回购数量(股)</t>
+  </si>
+  <si>
+    <t>CumulativeSum</t>
+  </si>
+  <si>
+    <t>累计回购数量占总股本的比例</t>
+  </si>
+  <si>
+    <t>CumulativeSumToTS</t>
+  </si>
+  <si>
+    <t>本次购买最高价(元-股)</t>
+  </si>
+  <si>
+    <t>本次购买最低价(元-股)</t>
+  </si>
+  <si>
+    <t>本次回购资金(元)</t>
+  </si>
+  <si>
+    <t>BuybackFunds</t>
+  </si>
+  <si>
+    <t>累计回购资金总额(元)</t>
+  </si>
+  <si>
+    <t>CumulativeValueSum</t>
+  </si>
+  <si>
     <t>A股内部编码</t>
   </si>
   <si>
@@ -19505,6 +19551,21 @@
   </si>
   <si>
     <t>香港联交所</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>注1</t>
+  </si>
+  <si>
+    <t>注2</t>
+  </si>
+  <si>
+    <t>本次购买最高价(元/股)</t>
+  </si>
+  <si>
+    <t>本次购买最低价(元/股)</t>
   </si>
 </sst>
 </file>
@@ -19512,10 +19573,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -19541,6 +19602,52 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -19555,8 +19662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19577,63 +19685,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19656,15 +19709,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19679,7 +19740,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19697,19 +19860,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19721,19 +19902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19745,121 +19920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19870,6 +19931,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -19897,21 +20012,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -19919,21 +20019,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -19946,40 +20031,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19988,7 +20049,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19997,124 +20058,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25433,10 +25494,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4481"/>
+  <dimension ref="A1:H4494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4106" workbookViewId="0">
-      <selection activeCell="C4121" sqref="C4121"/>
+    <sheetView tabSelected="1" topLeftCell="A4130" workbookViewId="0">
+      <selection activeCell="A4146" sqref="A4146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -97559,103 +97620,118 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4149" spans="1:5">
+    <row r="4149" spans="1:6">
       <c r="A4149" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4149" t="s">
-        <v>456</v>
+        <v>5989</v>
       </c>
       <c r="C4149" t="s">
-        <v>457</v>
+        <v>5990</v>
       </c>
       <c r="D4149" t="s">
-        <v>412</v>
+        <v>1499</v>
       </c>
       <c r="E4149" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4150" spans="1:5">
+        <v>436</v>
+      </c>
+      <c r="F4149" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:6">
       <c r="A4150" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4150" t="s">
-        <v>5989</v>
+        <v>526</v>
       </c>
       <c r="C4150" t="s">
-        <v>455</v>
+        <v>527</v>
       </c>
       <c r="D4150" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4150" t="s">
         <v>436</v>
+      </c>
+      <c r="F4150" s="1" t="s">
+        <v>5991</v>
       </c>
     </row>
     <row r="4151" spans="1:6">
       <c r="A4151" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4151" t="s">
-        <v>3383</v>
+        <v>5992</v>
       </c>
       <c r="C4151" t="s">
-        <v>3384</v>
+        <v>3106</v>
       </c>
       <c r="D4151" t="s">
         <v>425</v>
       </c>
       <c r="E4151" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F4151" s="1" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="4152" spans="1:5">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:6">
       <c r="A4152" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4152" t="s">
-        <v>526</v>
+        <v>1514</v>
       </c>
       <c r="C4152" t="s">
-        <v>527</v>
+        <v>1515</v>
       </c>
       <c r="D4152" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4152" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4153" spans="1:5">
+        <v>436</v>
+      </c>
+      <c r="F4152" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:8">
       <c r="A4153" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4153" t="s">
-        <v>5990</v>
+        <v>1516</v>
       </c>
       <c r="C4153" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D4153" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4153" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4153" s="1" t="s">
         <v>5991</v>
       </c>
-      <c r="D4153" t="s">
-        <v>425</v>
-      </c>
-      <c r="E4153" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4154" spans="1:5">
+      <c r="H4153" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:6">
       <c r="A4154" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4154" t="s">
-        <v>5992</v>
+        <v>5993</v>
       </c>
       <c r="C4154" t="s">
-        <v>5993</v>
+        <v>5948</v>
       </c>
       <c r="D4154" t="s">
         <v>1318</v>
@@ -97663,33 +97739,39 @@
       <c r="E4154" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4155" spans="1:5">
+      <c r="F4154" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:6">
       <c r="A4155" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4155" t="s">
+        <v>5949</v>
+      </c>
+      <c r="C4155" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D4155" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E4155" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4155" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:6">
+      <c r="A4156" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4156" t="s">
         <v>5994</v>
       </c>
-      <c r="C4155" t="s">
+      <c r="C4156" t="s">
         <v>5995</v>
-      </c>
-      <c r="D4155" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E4155" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4156" spans="1:5">
-      <c r="A4156" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4156" t="s">
-        <v>5996</v>
-      </c>
-      <c r="C4156" t="s">
-        <v>5997</v>
       </c>
       <c r="D4156" t="s">
         <v>1318</v>
@@ -97697,33 +97779,39 @@
       <c r="E4156" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4157" spans="1:5">
+      <c r="F4156" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:6">
       <c r="A4157" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4157" t="s">
+        <v>5996</v>
+      </c>
+      <c r="C4157" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D4157" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E4157" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4157" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:6">
+      <c r="A4158" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4158" t="s">
         <v>5998</v>
       </c>
-      <c r="C4157" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D4157" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E4157" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4158" spans="1:5">
-      <c r="A4158" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4158" t="s">
-        <v>6000</v>
-      </c>
       <c r="C4158" t="s">
-        <v>6001</v>
+        <v>501</v>
       </c>
       <c r="D4158" t="s">
         <v>1318</v>
@@ -97731,16 +97819,19 @@
       <c r="E4158" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4159" spans="1:5">
+      <c r="F4158" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:6">
       <c r="A4159" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4159" t="s">
-        <v>6002</v>
+        <v>5999</v>
       </c>
       <c r="C4159" t="s">
-        <v>6003</v>
+        <v>503</v>
       </c>
       <c r="D4159" t="s">
         <v>1318</v>
@@ -97748,39 +97839,48 @@
       <c r="E4159" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4160" spans="1:5">
+      <c r="F4159" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:6">
       <c r="A4160" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4160" t="s">
-        <v>6004</v>
+        <v>6000</v>
       </c>
       <c r="C4160" t="s">
-        <v>2193</v>
+        <v>6001</v>
       </c>
       <c r="D4160" t="s">
-        <v>1318</v>
+        <v>511</v>
       </c>
       <c r="E4160" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4161" spans="1:5">
+      <c r="F4160" s="1" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:6">
       <c r="A4161" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4161" t="s">
-        <v>6005</v>
+        <v>6002</v>
       </c>
       <c r="C4161" t="s">
-        <v>6006</v>
+        <v>6003</v>
       </c>
       <c r="D4161" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="E4161" t="s">
         <v>436</v>
+      </c>
+      <c r="F4161" s="1" t="s">
+        <v>5991</v>
       </c>
     </row>
     <row r="4162" spans="1:5">
@@ -97788,81 +97888,81 @@
         <v>117</v>
       </c>
       <c r="B4162" t="s">
-        <v>6007</v>
+        <v>456</v>
       </c>
       <c r="C4162" t="s">
-        <v>6008</v>
+        <v>457</v>
       </c>
       <c r="D4162" t="s">
         <v>412</v>
       </c>
       <c r="E4162" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4163" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:5">
       <c r="A4163" t="s">
         <v>117</v>
       </c>
       <c r="B4163" t="s">
-        <v>6009</v>
+        <v>6004</v>
       </c>
       <c r="C4163" t="s">
-        <v>6008</v>
+        <v>455</v>
       </c>
       <c r="D4163" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E4163" t="s">
         <v>436</v>
       </c>
-      <c r="H4163" t="s">
-        <v>5237</v>
-      </c>
-    </row>
-    <row r="4164" spans="1:5">
+    </row>
+    <row r="4164" spans="1:6">
       <c r="A4164" t="s">
         <v>117</v>
       </c>
       <c r="B4164" t="s">
-        <v>6010</v>
+        <v>3383</v>
       </c>
       <c r="C4164" t="s">
-        <v>2388</v>
+        <v>3384</v>
       </c>
       <c r="D4164" t="s">
-        <v>2320</v>
+        <v>425</v>
       </c>
       <c r="E4164" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="F4164" s="1" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="4165" spans="1:5">
       <c r="A4165" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4165" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="C4165" t="s">
-        <v>455</v>
+        <v>527</v>
       </c>
       <c r="D4165" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4165" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4166" spans="1:6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:5">
       <c r="A4166" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4166" t="s">
-        <v>3383</v>
+        <v>6005</v>
       </c>
       <c r="C4166" t="s">
-        <v>3384</v>
+        <v>6006</v>
       </c>
       <c r="D4166" t="s">
         <v>425</v>
@@ -97870,133 +97970,121 @@
       <c r="E4166" t="s">
         <v>433</v>
       </c>
-      <c r="F4166" s="1" t="s">
-        <v>2278</v>
-      </c>
     </row>
     <row r="4167" spans="1:5">
       <c r="A4167" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4167" t="s">
-        <v>2241</v>
+        <v>6007</v>
       </c>
       <c r="C4167" t="s">
-        <v>5060</v>
+        <v>6008</v>
       </c>
       <c r="D4167" t="s">
-        <v>412</v>
+        <v>1318</v>
       </c>
       <c r="E4167" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4168" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:5">
       <c r="A4168" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4168" t="s">
-        <v>2244</v>
+        <v>6009</v>
       </c>
       <c r="C4168" t="s">
-        <v>5060</v>
+        <v>6010</v>
       </c>
       <c r="D4168" t="s">
-        <v>417</v>
+        <v>1318</v>
       </c>
       <c r="E4168" t="s">
         <v>436</v>
-      </c>
-      <c r="H4168" t="s">
-        <v>6011</v>
       </c>
     </row>
     <row r="4169" spans="1:5">
       <c r="A4169" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4169" t="s">
+        <v>6011</v>
+      </c>
+      <c r="C4169" t="s">
         <v>6012</v>
       </c>
-      <c r="C4169" t="s">
+      <c r="D4169" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E4169" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:5">
+      <c r="A4170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4170" t="s">
         <v>6013</v>
       </c>
-      <c r="D4169" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4169" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4170" spans="1:8">
-      <c r="A4170" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4170" t="s">
+      <c r="C4170" t="s">
         <v>6014</v>
       </c>
-      <c r="C4170" t="s">
-        <v>6013</v>
-      </c>
       <c r="D4170" t="s">
-        <v>417</v>
+        <v>1318</v>
       </c>
       <c r="E4170" t="s">
         <v>436</v>
-      </c>
-      <c r="H4170" t="s">
-        <v>6015</v>
       </c>
     </row>
     <row r="4171" spans="1:5">
       <c r="A4171" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4171" t="s">
-        <v>3109</v>
+        <v>6015</v>
       </c>
       <c r="C4171" t="s">
-        <v>3110</v>
+        <v>6016</v>
       </c>
       <c r="D4171" t="s">
-        <v>412</v>
+        <v>1318</v>
       </c>
       <c r="E4171" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4172" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:5">
       <c r="A4172" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4172" t="s">
-        <v>3111</v>
+        <v>6017</v>
       </c>
       <c r="C4172" t="s">
-        <v>3110</v>
+        <v>6018</v>
       </c>
       <c r="D4172" t="s">
-        <v>417</v>
+        <v>1318</v>
       </c>
       <c r="E4172" t="s">
         <v>436</v>
-      </c>
-      <c r="H4172" t="s">
-        <v>4172</v>
       </c>
     </row>
     <row r="4173" spans="1:5">
       <c r="A4173" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4173" t="s">
-        <v>6016</v>
+        <v>6019</v>
       </c>
       <c r="C4173" t="s">
-        <v>6017</v>
+        <v>2193</v>
       </c>
       <c r="D4173" t="s">
-        <v>462</v>
+        <v>1318</v>
       </c>
       <c r="E4173" t="s">
         <v>436</v>
@@ -98004,16 +98092,16 @@
     </row>
     <row r="4174" spans="1:5">
       <c r="A4174" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4174" t="s">
-        <v>6018</v>
+        <v>6020</v>
       </c>
       <c r="C4174" t="s">
-        <v>6019</v>
+        <v>6021</v>
       </c>
       <c r="D4174" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E4174" t="s">
         <v>436</v>
@@ -98021,53 +98109,56 @@
     </row>
     <row r="4175" spans="1:5">
       <c r="A4175" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4175" t="s">
-        <v>6020</v>
+        <v>6022</v>
       </c>
       <c r="C4175" t="s">
-        <v>2253</v>
+        <v>6023</v>
       </c>
       <c r="D4175" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4175" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4176" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:8">
       <c r="A4176" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4176" t="s">
-        <v>5366</v>
+        <v>6024</v>
       </c>
       <c r="C4176" t="s">
-        <v>2255</v>
+        <v>6023</v>
       </c>
       <c r="D4176" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E4176" t="s">
-        <v>433</v>
+        <v>436</v>
+      </c>
+      <c r="H4176" t="s">
+        <v>5237</v>
       </c>
     </row>
     <row r="4177" spans="1:5">
       <c r="A4177" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4177" t="s">
-        <v>6021</v>
+        <v>6025</v>
       </c>
       <c r="C4177" t="s">
-        <v>6022</v>
+        <v>2388</v>
       </c>
       <c r="D4177" t="s">
-        <v>425</v>
+        <v>2320</v>
       </c>
       <c r="E4177" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4178" spans="1:5">
@@ -98075,33 +98166,36 @@
         <v>121</v>
       </c>
       <c r="B4178" t="s">
-        <v>6023</v>
+        <v>454</v>
       </c>
       <c r="C4178" t="s">
-        <v>6024</v>
+        <v>455</v>
       </c>
       <c r="D4178" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4178" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4179" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:6">
       <c r="A4179" t="s">
         <v>121</v>
       </c>
       <c r="B4179" t="s">
-        <v>6025</v>
+        <v>3383</v>
       </c>
       <c r="C4179" t="s">
-        <v>6026</v>
+        <v>3384</v>
       </c>
       <c r="D4179" t="s">
         <v>425</v>
       </c>
       <c r="E4179" t="s">
         <v>433</v>
+      </c>
+      <c r="F4179" s="1" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="4180" spans="1:5">
@@ -98109,33 +98203,36 @@
         <v>121</v>
       </c>
       <c r="B4180" t="s">
-        <v>6027</v>
+        <v>2241</v>
       </c>
       <c r="C4180" t="s">
-        <v>6028</v>
+        <v>5060</v>
       </c>
       <c r="D4180" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4180" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4181" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:8">
       <c r="A4181" t="s">
         <v>121</v>
       </c>
       <c r="B4181" t="s">
-        <v>6029</v>
+        <v>2244</v>
       </c>
       <c r="C4181" t="s">
-        <v>6030</v>
+        <v>5060</v>
       </c>
       <c r="D4181" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E4181" t="s">
-        <v>433</v>
+        <v>436</v>
+      </c>
+      <c r="H4181" t="s">
+        <v>6026</v>
       </c>
     </row>
     <row r="4182" spans="1:5">
@@ -98143,199 +98240,175 @@
         <v>121</v>
       </c>
       <c r="B4182" t="s">
-        <v>6031</v>
+        <v>6027</v>
       </c>
       <c r="C4182" t="s">
-        <v>6032</v>
+        <v>6028</v>
       </c>
       <c r="D4182" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4182" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4183" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:8">
       <c r="A4183" t="s">
         <v>121</v>
       </c>
       <c r="B4183" t="s">
-        <v>6033</v>
+        <v>6029</v>
       </c>
       <c r="C4183" t="s">
-        <v>5877</v>
+        <v>6028</v>
       </c>
       <c r="D4183" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E4183" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4184" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="H4183" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:5">
       <c r="A4184" t="s">
         <v>121</v>
       </c>
       <c r="B4184" t="s">
-        <v>6034</v>
+        <v>3109</v>
       </c>
       <c r="C4184" t="s">
-        <v>5877</v>
+        <v>3110</v>
       </c>
       <c r="D4184" t="s">
         <v>412</v>
       </c>
       <c r="E4184" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4184" t="s">
-        <v>6035</v>
-      </c>
-    </row>
-    <row r="4185" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:8">
       <c r="A4185" t="s">
         <v>121</v>
       </c>
       <c r="B4185" t="s">
-        <v>6036</v>
+        <v>3111</v>
       </c>
       <c r="C4185" t="s">
-        <v>6037</v>
+        <v>3110</v>
       </c>
       <c r="D4185" t="s">
-        <v>2320</v>
+        <v>417</v>
       </c>
       <c r="E4185" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4186" spans="1:6">
+      <c r="H4185" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:5">
       <c r="A4186" t="s">
         <v>121</v>
       </c>
       <c r="B4186" t="s">
-        <v>6038</v>
+        <v>6031</v>
       </c>
       <c r="C4186" t="s">
-        <v>6039</v>
+        <v>6032</v>
       </c>
       <c r="D4186" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="E4186" t="s">
         <v>436</v>
       </c>
-      <c r="F4186" s="1" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="4187" spans="1:8">
+    </row>
+    <row r="4187" spans="1:5">
       <c r="A4187" t="s">
         <v>121</v>
       </c>
       <c r="B4187" t="s">
-        <v>6040</v>
+        <v>6033</v>
       </c>
       <c r="C4187" t="s">
-        <v>6039</v>
+        <v>6034</v>
       </c>
       <c r="D4187" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="E4187" t="s">
         <v>436</v>
       </c>
-      <c r="F4187" s="1" t="s">
-        <v>2323</v>
-      </c>
-      <c r="H4187" t="s">
-        <v>6041</v>
-      </c>
-    </row>
-    <row r="4188" spans="1:6">
+    </row>
+    <row r="4188" spans="1:5">
       <c r="A4188" t="s">
         <v>121</v>
       </c>
       <c r="B4188" t="s">
-        <v>6042</v>
+        <v>6035</v>
       </c>
       <c r="C4188" t="s">
-        <v>6043</v>
+        <v>2253</v>
       </c>
       <c r="D4188" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4188" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4188" s="1" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="4189" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:5">
       <c r="A4189" t="s">
         <v>121</v>
       </c>
       <c r="B4189" t="s">
-        <v>6044</v>
+        <v>5366</v>
       </c>
       <c r="C4189" t="s">
-        <v>6043</v>
+        <v>2255</v>
       </c>
       <c r="D4189" t="s">
-        <v>5429</v>
+        <v>425</v>
       </c>
       <c r="E4189" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4189" s="1" t="s">
-        <v>2323</v>
-      </c>
-      <c r="H4189" t="s">
-        <v>6045</v>
-      </c>
-    </row>
-    <row r="4190" spans="1:6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:5">
       <c r="A4190" t="s">
         <v>121</v>
       </c>
       <c r="B4190" t="s">
-        <v>6046</v>
+        <v>6036</v>
       </c>
       <c r="C4190" t="s">
-        <v>6047</v>
+        <v>6037</v>
       </c>
       <c r="D4190" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4190" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4190" s="1" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="4191" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:5">
       <c r="A4191" t="s">
         <v>121</v>
       </c>
       <c r="B4191" t="s">
-        <v>6048</v>
+        <v>6038</v>
       </c>
       <c r="C4191" t="s">
-        <v>6047</v>
+        <v>6039</v>
       </c>
       <c r="D4191" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E4191" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4191" s="1" t="s">
-        <v>2323</v>
-      </c>
-      <c r="H4191" t="s">
-        <v>6049</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4192" spans="1:5">
@@ -98343,59 +98416,50 @@
         <v>121</v>
       </c>
       <c r="B4192" t="s">
-        <v>6050</v>
+        <v>6040</v>
       </c>
       <c r="C4192" t="s">
-        <v>6051</v>
+        <v>6041</v>
       </c>
       <c r="D4192" t="s">
-        <v>2320</v>
+        <v>425</v>
       </c>
       <c r="E4192" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4193" spans="1:6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:5">
       <c r="A4193" t="s">
         <v>121</v>
       </c>
       <c r="B4193" t="s">
-        <v>6052</v>
+        <v>6042</v>
       </c>
       <c r="C4193" t="s">
-        <v>6053</v>
+        <v>6043</v>
       </c>
       <c r="D4193" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4193" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4193" s="1" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="4194" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:5">
       <c r="A4194" t="s">
         <v>121</v>
       </c>
       <c r="B4194" t="s">
-        <v>6054</v>
+        <v>6044</v>
       </c>
       <c r="C4194" t="s">
-        <v>6053</v>
+        <v>6045</v>
       </c>
       <c r="D4194" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E4194" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4194" s="1" t="s">
-        <v>2323</v>
-      </c>
-      <c r="H4194" t="s">
-        <v>6055</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4195" spans="1:5">
@@ -98403,16 +98467,16 @@
         <v>121</v>
       </c>
       <c r="B4195" t="s">
-        <v>3579</v>
+        <v>6046</v>
       </c>
       <c r="C4195" t="s">
-        <v>3580</v>
+        <v>6047</v>
       </c>
       <c r="D4195" t="s">
-        <v>2320</v>
+        <v>425</v>
       </c>
       <c r="E4195" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4196" spans="1:5">
@@ -98420,33 +98484,36 @@
         <v>121</v>
       </c>
       <c r="B4196" t="s">
-        <v>6056</v>
+        <v>6048</v>
       </c>
       <c r="C4196" t="s">
-        <v>6057</v>
+        <v>5877</v>
       </c>
       <c r="D4196" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4196" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4197" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:8">
       <c r="A4197" t="s">
         <v>121</v>
       </c>
       <c r="B4197" t="s">
-        <v>6058</v>
+        <v>6049</v>
       </c>
       <c r="C4197" t="s">
-        <v>6059</v>
+        <v>5877</v>
       </c>
       <c r="D4197" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4197" t="s">
         <v>436</v>
+      </c>
+      <c r="H4197" t="s">
+        <v>6050</v>
       </c>
     </row>
     <row r="4198" spans="1:5">
@@ -98454,118 +98521,145 @@
         <v>121</v>
       </c>
       <c r="B4198" t="s">
-        <v>6060</v>
+        <v>6051</v>
       </c>
       <c r="C4198" t="s">
-        <v>6061</v>
+        <v>6052</v>
       </c>
       <c r="D4198" t="s">
-        <v>425</v>
+        <v>2320</v>
       </c>
       <c r="E4198" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4199" spans="1:5">
+    <row r="4199" spans="1:6">
       <c r="A4199" t="s">
         <v>121</v>
       </c>
       <c r="B4199" t="s">
-        <v>6062</v>
+        <v>6053</v>
       </c>
       <c r="C4199" t="s">
-        <v>6063</v>
+        <v>6054</v>
       </c>
       <c r="D4199" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="E4199" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4200" spans="1:5">
+      <c r="F4199" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:8">
       <c r="A4200" t="s">
         <v>121</v>
       </c>
       <c r="B4200" t="s">
-        <v>6064</v>
+        <v>6055</v>
       </c>
       <c r="C4200" t="s">
-        <v>6065</v>
+        <v>6054</v>
       </c>
       <c r="D4200" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="E4200" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4201" spans="1:5">
+      <c r="F4200" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="H4200" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:6">
       <c r="A4201" t="s">
         <v>121</v>
       </c>
       <c r="B4201" t="s">
-        <v>6066</v>
+        <v>6057</v>
       </c>
       <c r="C4201" t="s">
-        <v>6067</v>
+        <v>6058</v>
       </c>
       <c r="D4201" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4201" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4202" spans="1:5">
+      <c r="F4201" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:8">
       <c r="A4202" t="s">
         <v>121</v>
       </c>
       <c r="B4202" t="s">
-        <v>6068</v>
+        <v>6059</v>
       </c>
       <c r="C4202" t="s">
-        <v>6069</v>
+        <v>6058</v>
       </c>
       <c r="D4202" t="s">
-        <v>511</v>
+        <v>5429</v>
       </c>
       <c r="E4202" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4203" spans="1:5">
+      <c r="F4202" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="H4202" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:6">
       <c r="A4203" t="s">
         <v>121</v>
       </c>
       <c r="B4203" t="s">
-        <v>6070</v>
+        <v>6061</v>
       </c>
       <c r="C4203" t="s">
-        <v>6071</v>
+        <v>6062</v>
       </c>
       <c r="D4203" t="s">
-        <v>2287</v>
+        <v>412</v>
       </c>
       <c r="E4203" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4204" spans="1:5">
+      <c r="F4203" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:8">
       <c r="A4204" t="s">
         <v>121</v>
       </c>
       <c r="B4204" t="s">
-        <v>6072</v>
+        <v>6063</v>
       </c>
       <c r="C4204" t="s">
-        <v>6073</v>
+        <v>6062</v>
       </c>
       <c r="D4204" t="s">
-        <v>2287</v>
+        <v>417</v>
       </c>
       <c r="E4204" t="s">
         <v>436</v>
+      </c>
+      <c r="F4204" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="H4204" t="s">
+        <v>6064</v>
       </c>
     </row>
     <row r="4205" spans="1:5">
@@ -98573,50 +98667,59 @@
         <v>121</v>
       </c>
       <c r="B4205" t="s">
-        <v>6074</v>
+        <v>6065</v>
       </c>
       <c r="C4205" t="s">
-        <v>6075</v>
+        <v>6066</v>
       </c>
       <c r="D4205" t="s">
-        <v>2287</v>
+        <v>2320</v>
       </c>
       <c r="E4205" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4206" spans="1:5">
+    <row r="4206" spans="1:6">
       <c r="A4206" t="s">
         <v>121</v>
       </c>
       <c r="B4206" t="s">
-        <v>6076</v>
+        <v>6067</v>
       </c>
       <c r="C4206" t="s">
-        <v>6077</v>
+        <v>6068</v>
       </c>
       <c r="D4206" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4206" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4207" spans="1:5">
+      <c r="F4206" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:8">
       <c r="A4207" t="s">
         <v>121</v>
       </c>
       <c r="B4207" t="s">
-        <v>6078</v>
+        <v>6069</v>
       </c>
       <c r="C4207" t="s">
-        <v>6079</v>
+        <v>6068</v>
       </c>
       <c r="D4207" t="s">
-        <v>2287</v>
+        <v>417</v>
       </c>
       <c r="E4207" t="s">
         <v>436</v>
+      </c>
+      <c r="F4207" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="H4207" t="s">
+        <v>6070</v>
       </c>
     </row>
     <row r="4208" spans="1:5">
@@ -98624,13 +98727,13 @@
         <v>121</v>
       </c>
       <c r="B4208" t="s">
-        <v>6080</v>
+        <v>3579</v>
       </c>
       <c r="C4208" t="s">
-        <v>6081</v>
+        <v>3580</v>
       </c>
       <c r="D4208" t="s">
-        <v>425</v>
+        <v>2320</v>
       </c>
       <c r="E4208" t="s">
         <v>436</v>
@@ -98641,13 +98744,13 @@
         <v>121</v>
       </c>
       <c r="B4209" t="s">
-        <v>6082</v>
+        <v>6071</v>
       </c>
       <c r="C4209" t="s">
-        <v>6083</v>
+        <v>6072</v>
       </c>
       <c r="D4209" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="E4209" t="s">
         <v>436</v>
@@ -98658,13 +98761,13 @@
         <v>121</v>
       </c>
       <c r="B4210" t="s">
-        <v>6084</v>
+        <v>6073</v>
       </c>
       <c r="C4210" t="s">
-        <v>6085</v>
+        <v>6074</v>
       </c>
       <c r="D4210" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="E4210" t="s">
         <v>436</v>
@@ -98675,10 +98778,10 @@
         <v>121</v>
       </c>
       <c r="B4211" t="s">
-        <v>6086</v>
+        <v>6075</v>
       </c>
       <c r="C4211" t="s">
-        <v>6087</v>
+        <v>6076</v>
       </c>
       <c r="D4211" t="s">
         <v>425</v>
@@ -98692,36 +98795,33 @@
         <v>121</v>
       </c>
       <c r="B4212" t="s">
-        <v>6088</v>
+        <v>6077</v>
       </c>
       <c r="C4212" t="s">
-        <v>6089</v>
+        <v>6078</v>
       </c>
       <c r="D4212" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="E4212" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4213" spans="1:8">
+    <row r="4213" spans="1:5">
       <c r="A4213" t="s">
         <v>121</v>
       </c>
       <c r="B4213" t="s">
-        <v>6090</v>
+        <v>6079</v>
       </c>
       <c r="C4213" t="s">
-        <v>6089</v>
+        <v>6080</v>
       </c>
       <c r="D4213" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
       <c r="E4213" t="s">
         <v>436</v>
-      </c>
-      <c r="H4213" t="s">
-        <v>3223</v>
       </c>
     </row>
     <row r="4214" spans="1:5">
@@ -98729,10 +98829,10 @@
         <v>121</v>
       </c>
       <c r="B4214" t="s">
-        <v>2276</v>
+        <v>6081</v>
       </c>
       <c r="C4214" t="s">
-        <v>2277</v>
+        <v>6082</v>
       </c>
       <c r="D4214" t="s">
         <v>425</v>
@@ -98746,13 +98846,13 @@
         <v>121</v>
       </c>
       <c r="B4215" t="s">
-        <v>6091</v>
+        <v>6083</v>
       </c>
       <c r="C4215" t="s">
-        <v>5029</v>
+        <v>6084</v>
       </c>
       <c r="D4215" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="E4215" t="s">
         <v>436</v>
@@ -98763,13 +98863,13 @@
         <v>121</v>
       </c>
       <c r="B4216" t="s">
-        <v>6092</v>
+        <v>6085</v>
       </c>
       <c r="C4216" t="s">
-        <v>6093</v>
+        <v>6086</v>
       </c>
       <c r="D4216" t="s">
-        <v>425</v>
+        <v>2287</v>
       </c>
       <c r="E4216" t="s">
         <v>436</v>
@@ -98780,13 +98880,13 @@
         <v>121</v>
       </c>
       <c r="B4217" t="s">
-        <v>6094</v>
+        <v>6087</v>
       </c>
       <c r="C4217" t="s">
-        <v>6095</v>
+        <v>6088</v>
       </c>
       <c r="D4217" t="s">
-        <v>425</v>
+        <v>2287</v>
       </c>
       <c r="E4217" t="s">
         <v>436</v>
@@ -98797,13 +98897,13 @@
         <v>121</v>
       </c>
       <c r="B4218" t="s">
-        <v>6096</v>
+        <v>6089</v>
       </c>
       <c r="C4218" t="s">
-        <v>6097</v>
+        <v>6090</v>
       </c>
       <c r="D4218" t="s">
-        <v>425</v>
+        <v>2287</v>
       </c>
       <c r="E4218" t="s">
         <v>436</v>
@@ -98814,13 +98914,13 @@
         <v>121</v>
       </c>
       <c r="B4219" t="s">
-        <v>6098</v>
+        <v>6091</v>
       </c>
       <c r="C4219" t="s">
-        <v>6099</v>
+        <v>6092</v>
       </c>
       <c r="D4219" t="s">
-        <v>2259</v>
+        <v>425</v>
       </c>
       <c r="E4219" t="s">
         <v>436</v>
@@ -98831,13 +98931,13 @@
         <v>121</v>
       </c>
       <c r="B4220" t="s">
-        <v>6100</v>
+        <v>6093</v>
       </c>
       <c r="C4220" t="s">
-        <v>6101</v>
+        <v>6094</v>
       </c>
       <c r="D4220" t="s">
-        <v>459</v>
+        <v>2287</v>
       </c>
       <c r="E4220" t="s">
         <v>436</v>
@@ -98848,13 +98948,13 @@
         <v>121</v>
       </c>
       <c r="B4221" t="s">
-        <v>6102</v>
+        <v>6095</v>
       </c>
       <c r="C4221" t="s">
-        <v>6103</v>
+        <v>6096</v>
       </c>
       <c r="D4221" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="E4221" t="s">
         <v>436</v>
@@ -98865,10 +98965,10 @@
         <v>121</v>
       </c>
       <c r="B4222" t="s">
-        <v>6104</v>
+        <v>6097</v>
       </c>
       <c r="C4222" t="s">
-        <v>6105</v>
+        <v>6098</v>
       </c>
       <c r="D4222" t="s">
         <v>425</v>
@@ -98882,13 +98982,13 @@
         <v>121</v>
       </c>
       <c r="B4223" t="s">
-        <v>6106</v>
+        <v>6099</v>
       </c>
       <c r="C4223" t="s">
-        <v>6107</v>
+        <v>6100</v>
       </c>
       <c r="D4223" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="E4223" t="s">
         <v>436</v>
@@ -98899,13 +98999,13 @@
         <v>121</v>
       </c>
       <c r="B4224" t="s">
-        <v>6108</v>
+        <v>6101</v>
       </c>
       <c r="C4224" t="s">
-        <v>6109</v>
+        <v>6102</v>
       </c>
       <c r="D4224" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="E4224" t="s">
         <v>436</v>
@@ -98916,10 +99016,10 @@
         <v>121</v>
       </c>
       <c r="B4225" t="s">
-        <v>6110</v>
+        <v>6103</v>
       </c>
       <c r="C4225" t="s">
-        <v>6111</v>
+        <v>6104</v>
       </c>
       <c r="D4225" t="s">
         <v>412</v>
@@ -98928,21 +99028,24 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4226" spans="1:5">
+    <row r="4226" spans="1:8">
       <c r="A4226" t="s">
         <v>121</v>
       </c>
       <c r="B4226" t="s">
-        <v>6112</v>
+        <v>6105</v>
       </c>
       <c r="C4226" t="s">
-        <v>6113</v>
+        <v>6104</v>
       </c>
       <c r="D4226" t="s">
-        <v>2287</v>
+        <v>417</v>
       </c>
       <c r="E4226" t="s">
         <v>436</v>
+      </c>
+      <c r="H4226" t="s">
+        <v>3223</v>
       </c>
     </row>
     <row r="4227" spans="1:5">
@@ -98950,10 +99053,10 @@
         <v>121</v>
       </c>
       <c r="B4227" t="s">
-        <v>6114</v>
+        <v>2276</v>
       </c>
       <c r="C4227" t="s">
-        <v>6115</v>
+        <v>2277</v>
       </c>
       <c r="D4227" t="s">
         <v>425</v>
@@ -98967,10 +99070,10 @@
         <v>121</v>
       </c>
       <c r="B4228" t="s">
-        <v>6116</v>
+        <v>6106</v>
       </c>
       <c r="C4228" t="s">
-        <v>6117</v>
+        <v>5029</v>
       </c>
       <c r="D4228" t="s">
         <v>425</v>
@@ -98984,10 +99087,10 @@
         <v>121</v>
       </c>
       <c r="B4229" t="s">
-        <v>6118</v>
+        <v>6107</v>
       </c>
       <c r="C4229" t="s">
-        <v>6119</v>
+        <v>6108</v>
       </c>
       <c r="D4229" t="s">
         <v>425</v>
@@ -99001,10 +99104,10 @@
         <v>121</v>
       </c>
       <c r="B4230" t="s">
-        <v>6120</v>
+        <v>6109</v>
       </c>
       <c r="C4230" t="s">
-        <v>6121</v>
+        <v>6110</v>
       </c>
       <c r="D4230" t="s">
         <v>425</v>
@@ -99018,13 +99121,13 @@
         <v>121</v>
       </c>
       <c r="B4231" t="s">
-        <v>6122</v>
+        <v>6111</v>
       </c>
       <c r="C4231" t="s">
-        <v>6123</v>
+        <v>6112</v>
       </c>
       <c r="D4231" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4231" t="s">
         <v>436</v>
@@ -99035,13 +99138,13 @@
         <v>121</v>
       </c>
       <c r="B4232" t="s">
-        <v>6124</v>
+        <v>6113</v>
       </c>
       <c r="C4232" t="s">
-        <v>6125</v>
+        <v>6114</v>
       </c>
       <c r="D4232" t="s">
-        <v>412</v>
+        <v>2259</v>
       </c>
       <c r="E4232" t="s">
         <v>436</v>
@@ -99052,13 +99155,13 @@
         <v>121</v>
       </c>
       <c r="B4233" t="s">
-        <v>6126</v>
+        <v>6115</v>
       </c>
       <c r="C4233" t="s">
-        <v>6127</v>
+        <v>6116</v>
       </c>
       <c r="D4233" t="s">
-        <v>2287</v>
+        <v>459</v>
       </c>
       <c r="E4233" t="s">
         <v>436</v>
@@ -99069,36 +99172,33 @@
         <v>121</v>
       </c>
       <c r="B4234" t="s">
-        <v>6128</v>
+        <v>6117</v>
       </c>
       <c r="C4234" t="s">
-        <v>6129</v>
+        <v>6118</v>
       </c>
       <c r="D4234" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
       <c r="E4234" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4235" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:5">
       <c r="A4235" t="s">
         <v>121</v>
       </c>
       <c r="B4235" t="s">
-        <v>6130</v>
+        <v>6119</v>
       </c>
       <c r="C4235" t="s">
-        <v>6129</v>
+        <v>6120</v>
       </c>
       <c r="D4235" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E4235" t="s">
         <v>436</v>
-      </c>
-      <c r="H4235" t="s">
-        <v>6131</v>
       </c>
     </row>
     <row r="4236" spans="1:5">
@@ -99106,13 +99206,13 @@
         <v>121</v>
       </c>
       <c r="B4236" t="s">
-        <v>6132</v>
+        <v>6121</v>
       </c>
       <c r="C4236" t="s">
-        <v>6133</v>
+        <v>6122</v>
       </c>
       <c r="D4236" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E4236" t="s">
         <v>436</v>
@@ -99123,13 +99223,13 @@
         <v>121</v>
       </c>
       <c r="B4237" t="s">
-        <v>6134</v>
+        <v>6123</v>
       </c>
       <c r="C4237" t="s">
-        <v>6135</v>
+        <v>6124</v>
       </c>
       <c r="D4237" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="E4237" t="s">
         <v>436</v>
@@ -99140,13 +99240,13 @@
         <v>121</v>
       </c>
       <c r="B4238" t="s">
-        <v>6136</v>
+        <v>6125</v>
       </c>
       <c r="C4238" t="s">
-        <v>6137</v>
+        <v>6126</v>
       </c>
       <c r="D4238" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4238" t="s">
         <v>436</v>
@@ -99157,13 +99257,13 @@
         <v>121</v>
       </c>
       <c r="B4239" t="s">
-        <v>6138</v>
+        <v>6127</v>
       </c>
       <c r="C4239" t="s">
-        <v>6139</v>
+        <v>6128</v>
       </c>
       <c r="D4239" t="s">
-        <v>425</v>
+        <v>2287</v>
       </c>
       <c r="E4239" t="s">
         <v>436</v>
@@ -99174,13 +99274,13 @@
         <v>121</v>
       </c>
       <c r="B4240" t="s">
-        <v>6140</v>
+        <v>6129</v>
       </c>
       <c r="C4240" t="s">
-        <v>6141</v>
+        <v>6130</v>
       </c>
       <c r="D4240" t="s">
-        <v>2287</v>
+        <v>425</v>
       </c>
       <c r="E4240" t="s">
         <v>436</v>
@@ -99191,13 +99291,13 @@
         <v>121</v>
       </c>
       <c r="B4241" t="s">
-        <v>6142</v>
+        <v>6131</v>
       </c>
       <c r="C4241" t="s">
-        <v>6143</v>
+        <v>6132</v>
       </c>
       <c r="D4241" t="s">
-        <v>2287</v>
+        <v>425</v>
       </c>
       <c r="E4241" t="s">
         <v>436</v>
@@ -99208,10 +99308,10 @@
         <v>121</v>
       </c>
       <c r="B4242" t="s">
-        <v>6144</v>
+        <v>6133</v>
       </c>
       <c r="C4242" t="s">
-        <v>6145</v>
+        <v>6134</v>
       </c>
       <c r="D4242" t="s">
         <v>425</v>
@@ -99225,10 +99325,10 @@
         <v>121</v>
       </c>
       <c r="B4243" t="s">
-        <v>6146</v>
+        <v>6135</v>
       </c>
       <c r="C4243" t="s">
-        <v>6147</v>
+        <v>6136</v>
       </c>
       <c r="D4243" t="s">
         <v>425</v>
@@ -99242,13 +99342,13 @@
         <v>121</v>
       </c>
       <c r="B4244" t="s">
-        <v>6148</v>
+        <v>6137</v>
       </c>
       <c r="C4244" t="s">
-        <v>6149</v>
+        <v>6138</v>
       </c>
       <c r="D4244" t="s">
-        <v>2259</v>
+        <v>412</v>
       </c>
       <c r="E4244" t="s">
         <v>436</v>
@@ -99259,13 +99359,13 @@
         <v>121</v>
       </c>
       <c r="B4245" t="s">
-        <v>6150</v>
+        <v>6139</v>
       </c>
       <c r="C4245" t="s">
-        <v>6151</v>
+        <v>6140</v>
       </c>
       <c r="D4245" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4245" t="s">
         <v>436</v>
@@ -99276,13 +99376,13 @@
         <v>121</v>
       </c>
       <c r="B4246" t="s">
-        <v>6152</v>
+        <v>6141</v>
       </c>
       <c r="C4246" t="s">
-        <v>6153</v>
+        <v>6142</v>
       </c>
       <c r="D4246" t="s">
-        <v>511</v>
+        <v>2287</v>
       </c>
       <c r="E4246" t="s">
         <v>436</v>
@@ -99293,33 +99393,36 @@
         <v>121</v>
       </c>
       <c r="B4247" t="s">
-        <v>6154</v>
+        <v>6143</v>
       </c>
       <c r="C4247" t="s">
-        <v>6155</v>
+        <v>6144</v>
       </c>
       <c r="D4247" t="s">
-        <v>2320</v>
+        <v>412</v>
       </c>
       <c r="E4247" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4248" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:8">
       <c r="A4248" t="s">
         <v>121</v>
       </c>
       <c r="B4248" t="s">
-        <v>5119</v>
+        <v>6145</v>
       </c>
       <c r="C4248" t="s">
-        <v>3402</v>
+        <v>6144</v>
       </c>
       <c r="D4248" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="E4248" t="s">
         <v>436</v>
+      </c>
+      <c r="H4248" t="s">
+        <v>6146</v>
       </c>
     </row>
     <row r="4249" spans="1:5">
@@ -99327,13 +99430,13 @@
         <v>121</v>
       </c>
       <c r="B4249" t="s">
-        <v>6156</v>
+        <v>6147</v>
       </c>
       <c r="C4249" t="s">
-        <v>6157</v>
+        <v>6148</v>
       </c>
       <c r="D4249" t="s">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="E4249" t="s">
         <v>436</v>
@@ -99344,13 +99447,13 @@
         <v>121</v>
       </c>
       <c r="B4250" t="s">
-        <v>6158</v>
+        <v>6149</v>
       </c>
       <c r="C4250" t="s">
-        <v>6159</v>
+        <v>6150</v>
       </c>
       <c r="D4250" t="s">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="E4250" t="s">
         <v>436</v>
@@ -99361,13 +99464,13 @@
         <v>121</v>
       </c>
       <c r="B4251" t="s">
-        <v>6160</v>
+        <v>6151</v>
       </c>
       <c r="C4251" t="s">
-        <v>6161</v>
+        <v>6152</v>
       </c>
       <c r="D4251" t="s">
-        <v>6162</v>
+        <v>425</v>
       </c>
       <c r="E4251" t="s">
         <v>436</v>
@@ -99378,13 +99481,13 @@
         <v>121</v>
       </c>
       <c r="B4252" t="s">
-        <v>6163</v>
+        <v>6153</v>
       </c>
       <c r="C4252" t="s">
-        <v>6164</v>
+        <v>6154</v>
       </c>
       <c r="D4252" t="s">
-        <v>6162</v>
+        <v>425</v>
       </c>
       <c r="E4252" t="s">
         <v>436</v>
@@ -99395,13 +99498,13 @@
         <v>121</v>
       </c>
       <c r="B4253" t="s">
-        <v>6165</v>
+        <v>6155</v>
       </c>
       <c r="C4253" t="s">
-        <v>6166</v>
+        <v>6156</v>
       </c>
       <c r="D4253" t="s">
-        <v>6162</v>
+        <v>2287</v>
       </c>
       <c r="E4253" t="s">
         <v>436</v>
@@ -99412,13 +99515,13 @@
         <v>121</v>
       </c>
       <c r="B4254" t="s">
-        <v>6167</v>
+        <v>6157</v>
       </c>
       <c r="C4254" t="s">
-        <v>6168</v>
+        <v>6158</v>
       </c>
       <c r="D4254" t="s">
-        <v>6162</v>
+        <v>2287</v>
       </c>
       <c r="E4254" t="s">
         <v>436</v>
@@ -99429,13 +99532,13 @@
         <v>121</v>
       </c>
       <c r="B4255" t="s">
-        <v>6169</v>
+        <v>6159</v>
       </c>
       <c r="C4255" t="s">
-        <v>6170</v>
+        <v>6160</v>
       </c>
       <c r="D4255" t="s">
-        <v>2287</v>
+        <v>425</v>
       </c>
       <c r="E4255" t="s">
         <v>436</v>
@@ -99446,13 +99549,13 @@
         <v>121</v>
       </c>
       <c r="B4256" t="s">
-        <v>6171</v>
+        <v>6161</v>
       </c>
       <c r="C4256" t="s">
-        <v>6172</v>
+        <v>6162</v>
       </c>
       <c r="D4256" t="s">
-        <v>2287</v>
+        <v>425</v>
       </c>
       <c r="E4256" t="s">
         <v>436</v>
@@ -99463,13 +99566,13 @@
         <v>121</v>
       </c>
       <c r="B4257" t="s">
-        <v>6173</v>
+        <v>6163</v>
       </c>
       <c r="C4257" t="s">
-        <v>6174</v>
+        <v>6164</v>
       </c>
       <c r="D4257" t="s">
-        <v>511</v>
+        <v>2259</v>
       </c>
       <c r="E4257" t="s">
         <v>436</v>
@@ -99480,10 +99583,10 @@
         <v>121</v>
       </c>
       <c r="B4258" t="s">
-        <v>6175</v>
+        <v>6165</v>
       </c>
       <c r="C4258" t="s">
-        <v>6176</v>
+        <v>6166</v>
       </c>
       <c r="D4258" t="s">
         <v>511</v>
@@ -99497,10 +99600,10 @@
         <v>121</v>
       </c>
       <c r="B4259" t="s">
-        <v>6177</v>
+        <v>6167</v>
       </c>
       <c r="C4259" t="s">
-        <v>6178</v>
+        <v>6168</v>
       </c>
       <c r="D4259" t="s">
         <v>511</v>
@@ -99514,13 +99617,13 @@
         <v>121</v>
       </c>
       <c r="B4260" t="s">
-        <v>6179</v>
+        <v>6169</v>
       </c>
       <c r="C4260" t="s">
-        <v>6180</v>
+        <v>6170</v>
       </c>
       <c r="D4260" t="s">
-        <v>511</v>
+        <v>2320</v>
       </c>
       <c r="E4260" t="s">
         <v>436</v>
@@ -99531,10 +99634,10 @@
         <v>121</v>
       </c>
       <c r="B4261" t="s">
-        <v>6181</v>
+        <v>5119</v>
       </c>
       <c r="C4261" t="s">
-        <v>6182</v>
+        <v>3402</v>
       </c>
       <c r="D4261" t="s">
         <v>511</v>
@@ -99548,10 +99651,10 @@
         <v>121</v>
       </c>
       <c r="B4262" t="s">
-        <v>6183</v>
+        <v>6171</v>
       </c>
       <c r="C4262" t="s">
-        <v>6184</v>
+        <v>6172</v>
       </c>
       <c r="D4262" t="s">
         <v>511</v>
@@ -99565,10 +99668,10 @@
         <v>121</v>
       </c>
       <c r="B4263" t="s">
-        <v>6185</v>
+        <v>6173</v>
       </c>
       <c r="C4263" t="s">
-        <v>6186</v>
+        <v>6174</v>
       </c>
       <c r="D4263" t="s">
         <v>511</v>
@@ -99582,13 +99685,13 @@
         <v>121</v>
       </c>
       <c r="B4264" t="s">
-        <v>6187</v>
+        <v>6175</v>
       </c>
       <c r="C4264" t="s">
-        <v>6188</v>
+        <v>6176</v>
       </c>
       <c r="D4264" t="s">
-        <v>511</v>
+        <v>6177</v>
       </c>
       <c r="E4264" t="s">
         <v>436</v>
@@ -99599,13 +99702,13 @@
         <v>121</v>
       </c>
       <c r="B4265" t="s">
-        <v>6189</v>
+        <v>6178</v>
       </c>
       <c r="C4265" t="s">
-        <v>6190</v>
+        <v>6179</v>
       </c>
       <c r="D4265" t="s">
-        <v>511</v>
+        <v>6177</v>
       </c>
       <c r="E4265" t="s">
         <v>436</v>
@@ -99616,13 +99719,13 @@
         <v>121</v>
       </c>
       <c r="B4266" t="s">
-        <v>6191</v>
+        <v>6180</v>
       </c>
       <c r="C4266" t="s">
-        <v>6192</v>
+        <v>6181</v>
       </c>
       <c r="D4266" t="s">
-        <v>511</v>
+        <v>6177</v>
       </c>
       <c r="E4266" t="s">
         <v>436</v>
@@ -99633,13 +99736,13 @@
         <v>121</v>
       </c>
       <c r="B4267" t="s">
-        <v>6193</v>
+        <v>6182</v>
       </c>
       <c r="C4267" t="s">
-        <v>6194</v>
+        <v>6183</v>
       </c>
       <c r="D4267" t="s">
-        <v>511</v>
+        <v>6177</v>
       </c>
       <c r="E4267" t="s">
         <v>436</v>
@@ -99650,13 +99753,13 @@
         <v>121</v>
       </c>
       <c r="B4268" t="s">
-        <v>6195</v>
+        <v>6184</v>
       </c>
       <c r="C4268" t="s">
-        <v>6196</v>
+        <v>6185</v>
       </c>
       <c r="D4268" t="s">
-        <v>511</v>
+        <v>2287</v>
       </c>
       <c r="E4268" t="s">
         <v>436</v>
@@ -99667,13 +99770,13 @@
         <v>121</v>
       </c>
       <c r="B4269" t="s">
-        <v>6197</v>
+        <v>6186</v>
       </c>
       <c r="C4269" t="s">
-        <v>6198</v>
+        <v>6187</v>
       </c>
       <c r="D4269" t="s">
-        <v>511</v>
+        <v>2287</v>
       </c>
       <c r="E4269" t="s">
         <v>436</v>
@@ -99684,10 +99787,10 @@
         <v>121</v>
       </c>
       <c r="B4270" t="s">
-        <v>6199</v>
+        <v>6188</v>
       </c>
       <c r="C4270" t="s">
-        <v>6200</v>
+        <v>6189</v>
       </c>
       <c r="D4270" t="s">
         <v>511</v>
@@ -99701,10 +99804,10 @@
         <v>121</v>
       </c>
       <c r="B4271" t="s">
-        <v>6201</v>
+        <v>6190</v>
       </c>
       <c r="C4271" t="s">
-        <v>6202</v>
+        <v>6191</v>
       </c>
       <c r="D4271" t="s">
         <v>511</v>
@@ -99718,10 +99821,10 @@
         <v>121</v>
       </c>
       <c r="B4272" t="s">
-        <v>6203</v>
+        <v>6192</v>
       </c>
       <c r="C4272" t="s">
-        <v>6204</v>
+        <v>6193</v>
       </c>
       <c r="D4272" t="s">
         <v>511</v>
@@ -99735,10 +99838,10 @@
         <v>121</v>
       </c>
       <c r="B4273" t="s">
-        <v>6205</v>
+        <v>6194</v>
       </c>
       <c r="C4273" t="s">
-        <v>6206</v>
+        <v>6195</v>
       </c>
       <c r="D4273" t="s">
         <v>511</v>
@@ -99752,10 +99855,10 @@
         <v>121</v>
       </c>
       <c r="B4274" t="s">
-        <v>6207</v>
+        <v>6196</v>
       </c>
       <c r="C4274" t="s">
-        <v>6208</v>
+        <v>6197</v>
       </c>
       <c r="D4274" t="s">
         <v>511</v>
@@ -99769,10 +99872,10 @@
         <v>121</v>
       </c>
       <c r="B4275" t="s">
-        <v>6209</v>
+        <v>6198</v>
       </c>
       <c r="C4275" t="s">
-        <v>6210</v>
+        <v>6199</v>
       </c>
       <c r="D4275" t="s">
         <v>511</v>
@@ -99786,13 +99889,13 @@
         <v>121</v>
       </c>
       <c r="B4276" t="s">
-        <v>6211</v>
+        <v>6200</v>
       </c>
       <c r="C4276" t="s">
-        <v>6212</v>
+        <v>6201</v>
       </c>
       <c r="D4276" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="E4276" t="s">
         <v>436</v>
@@ -99803,13 +99906,13 @@
         <v>121</v>
       </c>
       <c r="B4277" t="s">
-        <v>6213</v>
+        <v>6202</v>
       </c>
       <c r="C4277" t="s">
-        <v>6214</v>
+        <v>6203</v>
       </c>
       <c r="D4277" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="E4277" t="s">
         <v>436</v>
@@ -99820,13 +99923,13 @@
         <v>121</v>
       </c>
       <c r="B4278" t="s">
-        <v>6215</v>
+        <v>6204</v>
       </c>
       <c r="C4278" t="s">
-        <v>6216</v>
+        <v>6205</v>
       </c>
       <c r="D4278" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="E4278" t="s">
         <v>436</v>
@@ -99837,13 +99940,13 @@
         <v>121</v>
       </c>
       <c r="B4279" t="s">
-        <v>6217</v>
+        <v>6206</v>
       </c>
       <c r="C4279" t="s">
-        <v>6218</v>
+        <v>6207</v>
       </c>
       <c r="D4279" t="s">
-        <v>2287</v>
+        <v>511</v>
       </c>
       <c r="E4279" t="s">
         <v>436</v>
@@ -99854,13 +99957,13 @@
         <v>121</v>
       </c>
       <c r="B4280" t="s">
-        <v>6219</v>
+        <v>6208</v>
       </c>
       <c r="C4280" t="s">
-        <v>6220</v>
+        <v>6209</v>
       </c>
       <c r="D4280" t="s">
-        <v>2287</v>
+        <v>511</v>
       </c>
       <c r="E4280" t="s">
         <v>436</v>
@@ -99871,13 +99974,13 @@
         <v>121</v>
       </c>
       <c r="B4281" t="s">
-        <v>6221</v>
+        <v>6210</v>
       </c>
       <c r="C4281" t="s">
-        <v>6222</v>
+        <v>6211</v>
       </c>
       <c r="D4281" t="s">
-        <v>2287</v>
+        <v>511</v>
       </c>
       <c r="E4281" t="s">
         <v>436</v>
@@ -99888,13 +99991,13 @@
         <v>121</v>
       </c>
       <c r="B4282" t="s">
-        <v>6223</v>
+        <v>6212</v>
       </c>
       <c r="C4282" t="s">
-        <v>6224</v>
+        <v>6213</v>
       </c>
       <c r="D4282" t="s">
-        <v>2287</v>
+        <v>511</v>
       </c>
       <c r="E4282" t="s">
         <v>436</v>
@@ -99905,13 +100008,13 @@
         <v>121</v>
       </c>
       <c r="B4283" t="s">
-        <v>6225</v>
+        <v>6214</v>
       </c>
       <c r="C4283" t="s">
-        <v>6226</v>
+        <v>6215</v>
       </c>
       <c r="D4283" t="s">
-        <v>2287</v>
+        <v>511</v>
       </c>
       <c r="E4283" t="s">
         <v>436</v>
@@ -99922,13 +100025,13 @@
         <v>121</v>
       </c>
       <c r="B4284" t="s">
-        <v>6227</v>
+        <v>6216</v>
       </c>
       <c r="C4284" t="s">
-        <v>6228</v>
+        <v>6217</v>
       </c>
       <c r="D4284" t="s">
-        <v>2287</v>
+        <v>511</v>
       </c>
       <c r="E4284" t="s">
         <v>436</v>
@@ -99939,13 +100042,13 @@
         <v>121</v>
       </c>
       <c r="B4285" t="s">
-        <v>6229</v>
+        <v>6218</v>
       </c>
       <c r="C4285" t="s">
-        <v>6230</v>
+        <v>6219</v>
       </c>
       <c r="D4285" t="s">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="E4285" t="s">
         <v>436</v>
@@ -99956,13 +100059,13 @@
         <v>121</v>
       </c>
       <c r="B4286" t="s">
-        <v>6231</v>
+        <v>6220</v>
       </c>
       <c r="C4286" t="s">
-        <v>6232</v>
+        <v>6221</v>
       </c>
       <c r="D4286" t="s">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="E4286" t="s">
         <v>436</v>
@@ -99973,13 +100076,13 @@
         <v>121</v>
       </c>
       <c r="B4287" t="s">
-        <v>6233</v>
+        <v>6222</v>
       </c>
       <c r="C4287" t="s">
-        <v>6234</v>
+        <v>6223</v>
       </c>
       <c r="D4287" t="s">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="E4287" t="s">
         <v>436</v>
@@ -99990,13 +100093,13 @@
         <v>121</v>
       </c>
       <c r="B4288" t="s">
-        <v>6235</v>
+        <v>6224</v>
       </c>
       <c r="C4288" t="s">
-        <v>6236</v>
+        <v>6225</v>
       </c>
       <c r="D4288" t="s">
-        <v>2287</v>
+        <v>511</v>
       </c>
       <c r="E4288" t="s">
         <v>436</v>
@@ -100007,13 +100110,13 @@
         <v>121</v>
       </c>
       <c r="B4289" t="s">
-        <v>6237</v>
+        <v>6226</v>
       </c>
       <c r="C4289" t="s">
-        <v>6238</v>
+        <v>6227</v>
       </c>
       <c r="D4289" t="s">
-        <v>2287</v>
+        <v>425</v>
       </c>
       <c r="E4289" t="s">
         <v>436</v>
@@ -100024,13 +100127,13 @@
         <v>121</v>
       </c>
       <c r="B4290" t="s">
-        <v>6239</v>
+        <v>6228</v>
       </c>
       <c r="C4290" t="s">
-        <v>6240</v>
+        <v>6229</v>
       </c>
       <c r="D4290" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4290" t="s">
         <v>436</v>
@@ -100041,13 +100144,13 @@
         <v>121</v>
       </c>
       <c r="B4291" t="s">
-        <v>6241</v>
+        <v>6230</v>
       </c>
       <c r="C4291" t="s">
-        <v>6242</v>
+        <v>6231</v>
       </c>
       <c r="D4291" t="s">
-        <v>2259</v>
+        <v>425</v>
       </c>
       <c r="E4291" t="s">
         <v>436</v>
@@ -100058,13 +100161,13 @@
         <v>121</v>
       </c>
       <c r="B4292" t="s">
-        <v>6243</v>
+        <v>6232</v>
       </c>
       <c r="C4292" t="s">
-        <v>6244</v>
+        <v>6233</v>
       </c>
       <c r="D4292" t="s">
-        <v>6245</v>
+        <v>2287</v>
       </c>
       <c r="E4292" t="s">
         <v>436</v>
@@ -100075,10 +100178,10 @@
         <v>121</v>
       </c>
       <c r="B4293" t="s">
-        <v>6246</v>
+        <v>6234</v>
       </c>
       <c r="C4293" t="s">
-        <v>6247</v>
+        <v>6235</v>
       </c>
       <c r="D4293" t="s">
         <v>2287</v>
@@ -100092,10 +100195,10 @@
         <v>121</v>
       </c>
       <c r="B4294" t="s">
-        <v>6248</v>
+        <v>6236</v>
       </c>
       <c r="C4294" t="s">
-        <v>6249</v>
+        <v>6237</v>
       </c>
       <c r="D4294" t="s">
         <v>2287</v>
@@ -100109,13 +100212,13 @@
         <v>121</v>
       </c>
       <c r="B4295" t="s">
-        <v>6250</v>
+        <v>6238</v>
       </c>
       <c r="C4295" t="s">
-        <v>6251</v>
+        <v>6239</v>
       </c>
       <c r="D4295" t="s">
-        <v>412</v>
+        <v>2287</v>
       </c>
       <c r="E4295" t="s">
         <v>436</v>
@@ -100126,13 +100229,13 @@
         <v>121</v>
       </c>
       <c r="B4296" t="s">
-        <v>6252</v>
+        <v>6240</v>
       </c>
       <c r="C4296" t="s">
-        <v>6253</v>
+        <v>6241</v>
       </c>
       <c r="D4296" t="s">
-        <v>2259</v>
+        <v>2287</v>
       </c>
       <c r="E4296" t="s">
         <v>436</v>
@@ -100143,13 +100246,13 @@
         <v>121</v>
       </c>
       <c r="B4297" t="s">
-        <v>6254</v>
+        <v>6242</v>
       </c>
       <c r="C4297" t="s">
-        <v>6255</v>
+        <v>6243</v>
       </c>
       <c r="D4297" t="s">
-        <v>6245</v>
+        <v>2287</v>
       </c>
       <c r="E4297" t="s">
         <v>436</v>
@@ -100160,13 +100263,13 @@
         <v>121</v>
       </c>
       <c r="B4298" t="s">
-        <v>6256</v>
+        <v>6244</v>
       </c>
       <c r="C4298" t="s">
-        <v>6257</v>
+        <v>6245</v>
       </c>
       <c r="D4298" t="s">
-        <v>2287</v>
+        <v>412</v>
       </c>
       <c r="E4298" t="s">
         <v>436</v>
@@ -100177,13 +100280,13 @@
         <v>121</v>
       </c>
       <c r="B4299" t="s">
-        <v>6258</v>
+        <v>6246</v>
       </c>
       <c r="C4299" t="s">
-        <v>6259</v>
+        <v>6247</v>
       </c>
       <c r="D4299" t="s">
-        <v>2287</v>
+        <v>412</v>
       </c>
       <c r="E4299" t="s">
         <v>436</v>
@@ -100194,10 +100297,10 @@
         <v>121</v>
       </c>
       <c r="B4300" t="s">
-        <v>6260</v>
+        <v>6248</v>
       </c>
       <c r="C4300" t="s">
-        <v>6261</v>
+        <v>6249</v>
       </c>
       <c r="D4300" t="s">
         <v>412</v>
@@ -100211,13 +100314,13 @@
         <v>121</v>
       </c>
       <c r="B4301" t="s">
-        <v>6262</v>
+        <v>6250</v>
       </c>
       <c r="C4301" t="s">
-        <v>6263</v>
+        <v>6251</v>
       </c>
       <c r="D4301" t="s">
-        <v>6245</v>
+        <v>2287</v>
       </c>
       <c r="E4301" t="s">
         <v>436</v>
@@ -100228,10 +100331,10 @@
         <v>121</v>
       </c>
       <c r="B4302" t="s">
-        <v>6264</v>
+        <v>6252</v>
       </c>
       <c r="C4302" t="s">
-        <v>6265</v>
+        <v>6253</v>
       </c>
       <c r="D4302" t="s">
         <v>2287</v>
@@ -100245,13 +100348,13 @@
         <v>121</v>
       </c>
       <c r="B4303" t="s">
-        <v>6266</v>
+        <v>6254</v>
       </c>
       <c r="C4303" t="s">
-        <v>6267</v>
+        <v>6255</v>
       </c>
       <c r="D4303" t="s">
-        <v>2287</v>
+        <v>412</v>
       </c>
       <c r="E4303" t="s">
         <v>436</v>
@@ -100262,13 +100365,13 @@
         <v>121</v>
       </c>
       <c r="B4304" t="s">
-        <v>6268</v>
+        <v>6256</v>
       </c>
       <c r="C4304" t="s">
-        <v>6269</v>
+        <v>6257</v>
       </c>
       <c r="D4304" t="s">
-        <v>2287</v>
+        <v>2259</v>
       </c>
       <c r="E4304" t="s">
         <v>436</v>
@@ -100279,13 +100382,13 @@
         <v>121</v>
       </c>
       <c r="B4305" t="s">
-        <v>6270</v>
+        <v>6258</v>
       </c>
       <c r="C4305" t="s">
-        <v>6271</v>
+        <v>6259</v>
       </c>
       <c r="D4305" t="s">
-        <v>6245</v>
+        <v>6260</v>
       </c>
       <c r="E4305" t="s">
         <v>436</v>
@@ -100296,10 +100399,10 @@
         <v>121</v>
       </c>
       <c r="B4306" t="s">
-        <v>6272</v>
+        <v>6261</v>
       </c>
       <c r="C4306" t="s">
-        <v>6273</v>
+        <v>6262</v>
       </c>
       <c r="D4306" t="s">
         <v>2287</v>
@@ -100313,10 +100416,10 @@
         <v>121</v>
       </c>
       <c r="B4307" t="s">
-        <v>6274</v>
+        <v>6263</v>
       </c>
       <c r="C4307" t="s">
-        <v>6275</v>
+        <v>6264</v>
       </c>
       <c r="D4307" t="s">
         <v>2287</v>
@@ -100330,10 +100433,10 @@
         <v>121</v>
       </c>
       <c r="B4308" t="s">
-        <v>6276</v>
+        <v>6265</v>
       </c>
       <c r="C4308" t="s">
-        <v>6277</v>
+        <v>6266</v>
       </c>
       <c r="D4308" t="s">
         <v>412</v>
@@ -100347,13 +100450,13 @@
         <v>121</v>
       </c>
       <c r="B4309" t="s">
-        <v>6278</v>
+        <v>6267</v>
       </c>
       <c r="C4309" t="s">
-        <v>6279</v>
+        <v>6268</v>
       </c>
       <c r="D4309" t="s">
-        <v>6245</v>
+        <v>2259</v>
       </c>
       <c r="E4309" t="s">
         <v>436</v>
@@ -100364,13 +100467,13 @@
         <v>121</v>
       </c>
       <c r="B4310" t="s">
-        <v>6280</v>
+        <v>6269</v>
       </c>
       <c r="C4310" t="s">
-        <v>6281</v>
+        <v>6270</v>
       </c>
       <c r="D4310" t="s">
-        <v>2287</v>
+        <v>6260</v>
       </c>
       <c r="E4310" t="s">
         <v>436</v>
@@ -100381,10 +100484,10 @@
         <v>121</v>
       </c>
       <c r="B4311" t="s">
-        <v>6282</v>
+        <v>6271</v>
       </c>
       <c r="C4311" t="s">
-        <v>6283</v>
+        <v>6272</v>
       </c>
       <c r="D4311" t="s">
         <v>2287</v>
@@ -100398,10 +100501,10 @@
         <v>121</v>
       </c>
       <c r="B4312" t="s">
-        <v>6284</v>
+        <v>6273</v>
       </c>
       <c r="C4312" t="s">
-        <v>6285</v>
+        <v>6274</v>
       </c>
       <c r="D4312" t="s">
         <v>2287</v>
@@ -100415,13 +100518,13 @@
         <v>121</v>
       </c>
       <c r="B4313" t="s">
-        <v>6286</v>
+        <v>6275</v>
       </c>
       <c r="C4313" t="s">
-        <v>6287</v>
+        <v>6276</v>
       </c>
       <c r="D4313" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E4313" t="s">
         <v>436</v>
@@ -100432,13 +100535,13 @@
         <v>121</v>
       </c>
       <c r="B4314" t="s">
-        <v>6288</v>
+        <v>6277</v>
       </c>
       <c r="C4314" t="s">
-        <v>6289</v>
+        <v>6278</v>
       </c>
       <c r="D4314" t="s">
-        <v>511</v>
+        <v>6260</v>
       </c>
       <c r="E4314" t="s">
         <v>436</v>
@@ -100449,13 +100552,13 @@
         <v>121</v>
       </c>
       <c r="B4315" t="s">
-        <v>6290</v>
+        <v>6279</v>
       </c>
       <c r="C4315" t="s">
-        <v>6291</v>
+        <v>6280</v>
       </c>
       <c r="D4315" t="s">
-        <v>511</v>
+        <v>2287</v>
       </c>
       <c r="E4315" t="s">
         <v>436</v>
@@ -100466,13 +100569,13 @@
         <v>121</v>
       </c>
       <c r="B4316" t="s">
-        <v>6292</v>
+        <v>6281</v>
       </c>
       <c r="C4316" t="s">
-        <v>6293</v>
+        <v>6282</v>
       </c>
       <c r="D4316" t="s">
-        <v>511</v>
+        <v>2287</v>
       </c>
       <c r="E4316" t="s">
         <v>436</v>
@@ -100483,36 +100586,33 @@
         <v>121</v>
       </c>
       <c r="B4317" t="s">
-        <v>6294</v>
+        <v>6283</v>
       </c>
       <c r="C4317" t="s">
-        <v>6295</v>
+        <v>6284</v>
       </c>
       <c r="D4317" t="s">
-        <v>412</v>
+        <v>2287</v>
       </c>
       <c r="E4317" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4318" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:5">
       <c r="A4318" t="s">
         <v>121</v>
       </c>
       <c r="B4318" t="s">
-        <v>6296</v>
+        <v>6285</v>
       </c>
       <c r="C4318" t="s">
-        <v>6295</v>
+        <v>6286</v>
       </c>
       <c r="D4318" t="s">
-        <v>417</v>
+        <v>6260</v>
       </c>
       <c r="E4318" t="s">
         <v>436</v>
-      </c>
-      <c r="H4318" t="s">
-        <v>6297</v>
       </c>
     </row>
     <row r="4319" spans="1:5">
@@ -100520,10 +100620,10 @@
         <v>121</v>
       </c>
       <c r="B4319" t="s">
-        <v>6298</v>
+        <v>6287</v>
       </c>
       <c r="C4319" t="s">
-        <v>6299</v>
+        <v>6288</v>
       </c>
       <c r="D4319" t="s">
         <v>2287</v>
@@ -100537,13 +100637,13 @@
         <v>121</v>
       </c>
       <c r="B4320" t="s">
-        <v>6300</v>
+        <v>6289</v>
       </c>
       <c r="C4320" t="s">
-        <v>6301</v>
+        <v>6290</v>
       </c>
       <c r="D4320" t="s">
-        <v>425</v>
+        <v>2287</v>
       </c>
       <c r="E4320" t="s">
         <v>436</v>
@@ -100554,13 +100654,13 @@
         <v>121</v>
       </c>
       <c r="B4321" t="s">
-        <v>5756</v>
+        <v>6291</v>
       </c>
       <c r="C4321" t="s">
-        <v>2319</v>
+        <v>6292</v>
       </c>
       <c r="D4321" t="s">
-        <v>1561</v>
+        <v>412</v>
       </c>
       <c r="E4321" t="s">
         <v>436</v>
@@ -100571,246 +100671,234 @@
         <v>121</v>
       </c>
       <c r="B4322" t="s">
-        <v>5757</v>
+        <v>6293</v>
       </c>
       <c r="C4322" t="s">
-        <v>2322</v>
+        <v>6294</v>
       </c>
       <c r="D4322" t="s">
-        <v>412</v>
+        <v>6260</v>
       </c>
       <c r="E4322" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4323" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:5">
       <c r="A4323" t="s">
         <v>121</v>
       </c>
       <c r="B4323" t="s">
-        <v>5758</v>
+        <v>6295</v>
       </c>
       <c r="C4323" t="s">
-        <v>2322</v>
+        <v>6296</v>
       </c>
       <c r="D4323" t="s">
-        <v>417</v>
+        <v>2287</v>
       </c>
       <c r="E4323" t="s">
         <v>436</v>
-      </c>
-      <c r="H4323" t="s">
-        <v>5759</v>
       </c>
     </row>
     <row r="4324" spans="1:5">
       <c r="A4324" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4324" t="s">
-        <v>1987</v>
+        <v>6297</v>
       </c>
       <c r="C4324" t="s">
-        <v>455</v>
+        <v>6298</v>
       </c>
       <c r="D4324" t="s">
-        <v>412</v>
+        <v>2287</v>
       </c>
       <c r="E4324" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4325" spans="1:5">
       <c r="A4325" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4325" t="s">
-        <v>536</v>
+        <v>6299</v>
       </c>
       <c r="C4325" t="s">
-        <v>537</v>
+        <v>6300</v>
       </c>
       <c r="D4325" t="s">
-        <v>425</v>
+        <v>2287</v>
       </c>
       <c r="E4325" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4326" spans="1:5">
       <c r="A4326" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4326" t="s">
+        <v>6301</v>
+      </c>
+      <c r="C4326" t="s">
         <v>6302</v>
       </c>
-      <c r="C4326" t="s">
+      <c r="D4326" t="s">
+        <v>425</v>
+      </c>
+      <c r="E4326" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:5">
+      <c r="A4327" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4327" t="s">
         <v>6303</v>
       </c>
-      <c r="D4326" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4326" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4327" spans="1:8">
-      <c r="A4327" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4327" t="s">
+      <c r="C4327" t="s">
         <v>6304</v>
       </c>
-      <c r="C4327" t="s">
-        <v>6303</v>
-      </c>
       <c r="D4327" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
       <c r="E4327" t="s">
         <v>436</v>
-      </c>
-      <c r="H4327" t="s">
-        <v>6305</v>
       </c>
     </row>
     <row r="4328" spans="1:5">
       <c r="A4328" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4328" t="s">
-        <v>526</v>
+        <v>6305</v>
       </c>
       <c r="C4328" t="s">
-        <v>2774</v>
+        <v>6306</v>
       </c>
       <c r="D4328" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="E4328" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4329" spans="1:5">
       <c r="A4329" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4329" t="s">
-        <v>6306</v>
+        <v>6307</v>
       </c>
       <c r="C4329" t="s">
-        <v>6307</v>
+        <v>6308</v>
       </c>
       <c r="D4329" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4329" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:5">
+      <c r="A4330" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>6309</v>
+      </c>
+      <c r="C4330" t="s">
+        <v>6310</v>
+      </c>
+      <c r="D4330" t="s">
         <v>412</v>
       </c>
-      <c r="E4329" t="s">
+      <c r="E4330" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="4330" spans="1:8">
-      <c r="A4330" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4330" t="s">
-        <v>6308</v>
-      </c>
-      <c r="C4330" t="s">
-        <v>6307</v>
-      </c>
-      <c r="D4330" t="s">
+    <row r="4331" spans="1:8">
+      <c r="A4331" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>6311</v>
+      </c>
+      <c r="C4331" t="s">
+        <v>6310</v>
+      </c>
+      <c r="D4331" t="s">
         <v>417</v>
       </c>
-      <c r="E4330" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4330" t="s">
-        <v>6309</v>
-      </c>
-    </row>
-    <row r="4331" spans="1:5">
-      <c r="A4331" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4331" t="s">
-        <v>6310</v>
-      </c>
-      <c r="C4331" t="s">
-        <v>6311</v>
-      </c>
-      <c r="D4331" t="s">
-        <v>412</v>
-      </c>
       <c r="E4331" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4332" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="H4331" t="s">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:5">
       <c r="A4332" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4332" t="s">
-        <v>6312</v>
+        <v>6313</v>
       </c>
       <c r="C4332" t="s">
-        <v>6311</v>
+        <v>6314</v>
       </c>
       <c r="D4332" t="s">
-        <v>417</v>
+        <v>2287</v>
       </c>
       <c r="E4332" t="s">
         <v>436</v>
-      </c>
-      <c r="H4332" t="s">
-        <v>6313</v>
       </c>
     </row>
     <row r="4333" spans="1:5">
       <c r="A4333" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4333" t="s">
-        <v>2241</v>
+        <v>6315</v>
       </c>
       <c r="C4333" t="s">
-        <v>5893</v>
+        <v>6316</v>
       </c>
       <c r="D4333" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4333" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4334" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:5">
       <c r="A4334" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4334" t="s">
-        <v>2244</v>
+        <v>5756</v>
       </c>
       <c r="C4334" t="s">
-        <v>5893</v>
+        <v>2319</v>
       </c>
       <c r="D4334" t="s">
-        <v>417</v>
+        <v>1561</v>
       </c>
       <c r="E4334" t="s">
         <v>436</v>
-      </c>
-      <c r="H4334" t="s">
-        <v>5062</v>
       </c>
     </row>
     <row r="4335" spans="1:5">
       <c r="A4335" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4335" t="s">
-        <v>2248</v>
+        <v>5757</v>
       </c>
       <c r="C4335" t="s">
-        <v>2249</v>
+        <v>2322</v>
       </c>
       <c r="D4335" t="s">
         <v>412</v>
@@ -100821,13 +100909,13 @@
     </row>
     <row r="4336" spans="1:8">
       <c r="A4336" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B4336" t="s">
-        <v>2250</v>
+        <v>5758</v>
       </c>
       <c r="C4336" t="s">
-        <v>2249</v>
+        <v>2322</v>
       </c>
       <c r="D4336" t="s">
         <v>417</v>
@@ -100836,7 +100924,7 @@
         <v>436</v>
       </c>
       <c r="H4336" t="s">
-        <v>4172</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="4337" spans="1:5">
@@ -100844,16 +100932,16 @@
         <v>84</v>
       </c>
       <c r="B4337" t="s">
-        <v>2260</v>
+        <v>1987</v>
       </c>
       <c r="C4337" t="s">
-        <v>2261</v>
+        <v>455</v>
       </c>
       <c r="D4337" t="s">
-        <v>2222</v>
+        <v>412</v>
       </c>
       <c r="E4337" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4338" spans="1:5">
@@ -100861,16 +100949,16 @@
         <v>84</v>
       </c>
       <c r="B4338" t="s">
-        <v>2263</v>
+        <v>536</v>
       </c>
       <c r="C4338" t="s">
-        <v>6314</v>
+        <v>537</v>
       </c>
       <c r="D4338" t="s">
-        <v>2222</v>
+        <v>425</v>
       </c>
       <c r="E4338" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4339" spans="1:5">
@@ -100878,33 +100966,36 @@
         <v>84</v>
       </c>
       <c r="B4339" t="s">
-        <v>6315</v>
+        <v>6317</v>
       </c>
       <c r="C4339" t="s">
-        <v>2269</v>
+        <v>6318</v>
       </c>
       <c r="D4339" t="s">
-        <v>2222</v>
+        <v>412</v>
       </c>
       <c r="E4339" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4340" spans="1:5">
+    <row r="4340" spans="1:8">
       <c r="A4340" t="s">
         <v>84</v>
       </c>
       <c r="B4340" t="s">
-        <v>6316</v>
+        <v>6319</v>
       </c>
       <c r="C4340" t="s">
-        <v>2271</v>
+        <v>6318</v>
       </c>
       <c r="D4340" t="s">
-        <v>2222</v>
+        <v>417</v>
       </c>
       <c r="E4340" t="s">
         <v>436</v>
+      </c>
+      <c r="H4340" t="s">
+        <v>6320</v>
       </c>
     </row>
     <row r="4341" spans="1:5">
@@ -100912,16 +101003,16 @@
         <v>84</v>
       </c>
       <c r="B4341" t="s">
-        <v>6317</v>
+        <v>526</v>
       </c>
       <c r="C4341" t="s">
-        <v>6318</v>
+        <v>2774</v>
       </c>
       <c r="D4341" t="s">
-        <v>2222</v>
+        <v>425</v>
       </c>
       <c r="E4341" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4342" spans="1:5">
@@ -100929,33 +101020,36 @@
         <v>84</v>
       </c>
       <c r="B4342" t="s">
-        <v>6319</v>
+        <v>6321</v>
       </c>
       <c r="C4342" t="s">
-        <v>6320</v>
+        <v>6322</v>
       </c>
       <c r="D4342" t="s">
-        <v>2222</v>
+        <v>412</v>
       </c>
       <c r="E4342" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4343" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:8">
       <c r="A4343" t="s">
         <v>84</v>
       </c>
       <c r="B4343" t="s">
-        <v>6321</v>
+        <v>6323</v>
       </c>
       <c r="C4343" t="s">
         <v>6322</v>
       </c>
       <c r="D4343" t="s">
-        <v>2222</v>
+        <v>417</v>
       </c>
       <c r="E4343" t="s">
         <v>436</v>
+      </c>
+      <c r="H4343" t="s">
+        <v>6324</v>
       </c>
     </row>
     <row r="4344" spans="1:5">
@@ -100963,70 +101057,73 @@
         <v>84</v>
       </c>
       <c r="B4344" t="s">
-        <v>2285</v>
+        <v>6325</v>
       </c>
       <c r="C4344" t="s">
-        <v>2286</v>
+        <v>6326</v>
       </c>
       <c r="D4344" t="s">
-        <v>2219</v>
+        <v>412</v>
       </c>
       <c r="E4344" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4345" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:8">
       <c r="A4345" t="s">
         <v>84</v>
       </c>
       <c r="B4345" t="s">
-        <v>2290</v>
+        <v>6327</v>
       </c>
       <c r="C4345" t="s">
-        <v>2291</v>
+        <v>6326</v>
       </c>
       <c r="D4345" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E4345" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4346" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="H4345" t="s">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:5">
       <c r="A4346" t="s">
         <v>84</v>
       </c>
       <c r="B4346" t="s">
-        <v>2292</v>
+        <v>2241</v>
       </c>
       <c r="C4346" t="s">
-        <v>2291</v>
+        <v>5893</v>
       </c>
       <c r="D4346" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E4346" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4346" t="s">
-        <v>6323</v>
-      </c>
-    </row>
-    <row r="4347" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:8">
       <c r="A4347" t="s">
         <v>84</v>
       </c>
       <c r="B4347" t="s">
-        <v>6324</v>
+        <v>2244</v>
       </c>
       <c r="C4347" t="s">
-        <v>2289</v>
+        <v>5893</v>
       </c>
       <c r="D4347" t="s">
-        <v>2219</v>
+        <v>417</v>
       </c>
       <c r="E4347" t="s">
         <v>436</v>
+      </c>
+      <c r="H4347" t="s">
+        <v>5062</v>
       </c>
     </row>
     <row r="4348" spans="1:5">
@@ -101034,33 +101131,36 @@
         <v>84</v>
       </c>
       <c r="B4348" t="s">
-        <v>6325</v>
+        <v>2248</v>
       </c>
       <c r="C4348" t="s">
-        <v>6326</v>
+        <v>2249</v>
       </c>
       <c r="D4348" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4348" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4349" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:8">
       <c r="A4349" t="s">
         <v>84</v>
       </c>
       <c r="B4349" t="s">
-        <v>6327</v>
+        <v>2250</v>
       </c>
       <c r="C4349" t="s">
-        <v>2299</v>
+        <v>2249</v>
       </c>
       <c r="D4349" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="E4349" t="s">
         <v>436</v>
+      </c>
+      <c r="H4349" t="s">
+        <v>4172</v>
       </c>
     </row>
     <row r="4350" spans="1:5">
@@ -101068,36 +101168,33 @@
         <v>84</v>
       </c>
       <c r="B4350" t="s">
-        <v>2276</v>
+        <v>2260</v>
       </c>
       <c r="C4350" t="s">
-        <v>6328</v>
+        <v>2261</v>
       </c>
       <c r="D4350" t="s">
-        <v>425</v>
+        <v>2222</v>
       </c>
       <c r="E4350" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4351" spans="1:6">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:5">
       <c r="A4351" t="s">
         <v>84</v>
       </c>
       <c r="B4351" t="s">
-        <v>514</v>
+        <v>2263</v>
       </c>
       <c r="C4351" t="s">
-        <v>515</v>
+        <v>6329</v>
       </c>
       <c r="D4351" t="s">
-        <v>425</v>
+        <v>2222</v>
       </c>
       <c r="E4351" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4351" s="1" t="s">
-        <v>2278</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4352" spans="1:5">
@@ -101105,16 +101202,16 @@
         <v>84</v>
       </c>
       <c r="B4352" t="s">
-        <v>6329</v>
+        <v>6330</v>
       </c>
       <c r="C4352" t="s">
-        <v>6330</v>
+        <v>2269</v>
       </c>
       <c r="D4352" t="s">
-        <v>425</v>
+        <v>2222</v>
       </c>
       <c r="E4352" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4353" spans="1:5">
@@ -101122,16 +101219,16 @@
         <v>84</v>
       </c>
       <c r="B4353" t="s">
-        <v>2279</v>
+        <v>6331</v>
       </c>
       <c r="C4353" t="s">
-        <v>2280</v>
+        <v>2271</v>
       </c>
       <c r="D4353" t="s">
-        <v>425</v>
+        <v>2222</v>
       </c>
       <c r="E4353" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4354" spans="1:5">
@@ -101139,16 +101236,16 @@
         <v>84</v>
       </c>
       <c r="B4354" t="s">
-        <v>6331</v>
+        <v>6332</v>
       </c>
       <c r="C4354" t="s">
-        <v>2282</v>
+        <v>6333</v>
       </c>
       <c r="D4354" t="s">
-        <v>425</v>
+        <v>2222</v>
       </c>
       <c r="E4354" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4355" spans="1:5">
@@ -101156,13 +101253,13 @@
         <v>84</v>
       </c>
       <c r="B4355" t="s">
-        <v>2340</v>
+        <v>6334</v>
       </c>
       <c r="C4355" t="s">
-        <v>2341</v>
+        <v>6335</v>
       </c>
       <c r="D4355" t="s">
-        <v>2083</v>
+        <v>2222</v>
       </c>
       <c r="E4355" t="s">
         <v>436</v>
@@ -101173,13 +101270,13 @@
         <v>84</v>
       </c>
       <c r="B4356" t="s">
-        <v>2308</v>
+        <v>6336</v>
       </c>
       <c r="C4356" t="s">
-        <v>2309</v>
+        <v>6337</v>
       </c>
       <c r="D4356" t="s">
-        <v>2262</v>
+        <v>2222</v>
       </c>
       <c r="E4356" t="s">
         <v>436</v>
@@ -101190,13 +101287,13 @@
         <v>84</v>
       </c>
       <c r="B4357" t="s">
-        <v>2310</v>
+        <v>2285</v>
       </c>
       <c r="C4357" t="s">
-        <v>2311</v>
+        <v>2286</v>
       </c>
       <c r="D4357" t="s">
-        <v>2262</v>
+        <v>2219</v>
       </c>
       <c r="E4357" t="s">
         <v>436</v>
@@ -101207,33 +101304,36 @@
         <v>84</v>
       </c>
       <c r="B4358" t="s">
-        <v>2312</v>
+        <v>2290</v>
       </c>
       <c r="C4358" t="s">
-        <v>2313</v>
+        <v>2291</v>
       </c>
       <c r="D4358" t="s">
-        <v>2262</v>
+        <v>412</v>
       </c>
       <c r="E4358" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4359" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:8">
       <c r="A4359" t="s">
         <v>84</v>
       </c>
       <c r="B4359" t="s">
-        <v>2318</v>
+        <v>2292</v>
       </c>
       <c r="C4359" t="s">
-        <v>2319</v>
+        <v>2291</v>
       </c>
       <c r="D4359" t="s">
-        <v>2320</v>
+        <v>417</v>
       </c>
       <c r="E4359" t="s">
         <v>436</v>
+      </c>
+      <c r="H4359" t="s">
+        <v>6338</v>
       </c>
     </row>
     <row r="4360" spans="1:5">
@@ -101241,36 +101341,33 @@
         <v>84</v>
       </c>
       <c r="B4360" t="s">
-        <v>2321</v>
+        <v>6339</v>
       </c>
       <c r="C4360" t="s">
-        <v>2322</v>
+        <v>2289</v>
       </c>
       <c r="D4360" t="s">
-        <v>412</v>
+        <v>2219</v>
       </c>
       <c r="E4360" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="4361" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:5">
       <c r="A4361" t="s">
         <v>84</v>
       </c>
       <c r="B4361" t="s">
-        <v>2324</v>
+        <v>6340</v>
       </c>
       <c r="C4361" t="s">
-        <v>2322</v>
+        <v>6341</v>
       </c>
       <c r="D4361" t="s">
-        <v>5429</v>
+        <v>511</v>
       </c>
       <c r="E4361" t="s">
-        <v>2323</v>
-      </c>
-      <c r="H4361" t="s">
-        <v>2325</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4362" spans="1:5">
@@ -101278,13 +101375,13 @@
         <v>84</v>
       </c>
       <c r="B4362" t="s">
-        <v>2342</v>
+        <v>6342</v>
       </c>
       <c r="C4362" t="s">
-        <v>2343</v>
+        <v>2299</v>
       </c>
       <c r="D4362" t="s">
-        <v>2320</v>
+        <v>511</v>
       </c>
       <c r="E4362" t="s">
         <v>436</v>
@@ -101295,78 +101392,81 @@
         <v>84</v>
       </c>
       <c r="B4363" t="s">
-        <v>2081</v>
+        <v>2276</v>
       </c>
       <c r="C4363" t="s">
-        <v>1672</v>
+        <v>6343</v>
       </c>
       <c r="D4363" t="s">
-        <v>2320</v>
+        <v>425</v>
       </c>
       <c r="E4363" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4364" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:6">
       <c r="A4364" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4364" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="C4364" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="D4364" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4364" t="s">
-        <v>441</v>
+        <v>433</v>
+      </c>
+      <c r="F4364" s="1" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="4365" spans="1:5">
       <c r="A4365" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4365" t="s">
-        <v>526</v>
+        <v>6344</v>
       </c>
       <c r="C4365" t="s">
-        <v>527</v>
+        <v>6345</v>
       </c>
       <c r="D4365" t="s">
         <v>425</v>
       </c>
       <c r="E4365" t="s">
-        <v>2204</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4366" spans="1:5">
       <c r="A4366" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4366" t="s">
-        <v>529</v>
+        <v>2279</v>
       </c>
       <c r="C4366" t="s">
-        <v>530</v>
+        <v>2280</v>
       </c>
       <c r="D4366" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="E4366" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4367" spans="1:5">
       <c r="A4367" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4367" t="s">
-        <v>6332</v>
+        <v>6346</v>
       </c>
       <c r="C4367" t="s">
-        <v>537</v>
+        <v>2282</v>
       </c>
       <c r="D4367" t="s">
         <v>425</v>
@@ -101377,53 +101477,50 @@
     </row>
     <row r="4368" spans="1:5">
       <c r="A4368" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4368" t="s">
-        <v>3099</v>
+        <v>2340</v>
       </c>
       <c r="C4368" t="s">
-        <v>3100</v>
+        <v>2341</v>
       </c>
       <c r="D4368" t="s">
-        <v>412</v>
+        <v>2083</v>
       </c>
       <c r="E4368" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4369" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:5">
       <c r="A4369" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4369" t="s">
-        <v>3102</v>
+        <v>2308</v>
       </c>
       <c r="C4369" t="s">
-        <v>3100</v>
+        <v>2309</v>
       </c>
       <c r="D4369" t="s">
-        <v>417</v>
+        <v>2262</v>
       </c>
       <c r="E4369" t="s">
         <v>436</v>
-      </c>
-      <c r="H4369" t="s">
-        <v>5605</v>
       </c>
     </row>
     <row r="4370" spans="1:5">
       <c r="A4370" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4370" t="s">
-        <v>5608</v>
+        <v>2310</v>
       </c>
       <c r="C4370" t="s">
-        <v>6333</v>
+        <v>2311</v>
       </c>
       <c r="D4370" t="s">
-        <v>412</v>
+        <v>2262</v>
       </c>
       <c r="E4370" t="s">
         <v>436</v>
@@ -101431,16 +101528,16 @@
     </row>
     <row r="4371" spans="1:5">
       <c r="A4371" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4371" t="s">
-        <v>6334</v>
+        <v>2312</v>
       </c>
       <c r="C4371" t="s">
-        <v>6335</v>
+        <v>2313</v>
       </c>
       <c r="D4371" t="s">
-        <v>462</v>
+        <v>2262</v>
       </c>
       <c r="E4371" t="s">
         <v>436</v>
@@ -101448,70 +101545,70 @@
     </row>
     <row r="4372" spans="1:5">
       <c r="A4372" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4372" t="s">
-        <v>6336</v>
+        <v>2318</v>
       </c>
       <c r="C4372" t="s">
-        <v>6337</v>
+        <v>2319</v>
       </c>
       <c r="D4372" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E4372" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:5">
+      <c r="A4373" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C4373" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D4373" t="s">
         <v>412</v>
       </c>
-      <c r="E4372" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4373" spans="1:8">
-      <c r="A4373" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4373" t="s">
-        <v>6338</v>
-      </c>
-      <c r="C4373" t="s">
-        <v>6337</v>
-      </c>
-      <c r="D4373" t="s">
-        <v>417</v>
-      </c>
       <c r="E4373" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4373" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="4374" spans="1:5">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:8">
       <c r="A4374" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4374" t="s">
-        <v>5123</v>
+        <v>2324</v>
       </c>
       <c r="C4374" t="s">
-        <v>6339</v>
+        <v>2322</v>
       </c>
       <c r="D4374" t="s">
-        <v>2802</v>
+        <v>5429</v>
       </c>
       <c r="E4374" t="s">
-        <v>436</v>
+        <v>2323</v>
+      </c>
+      <c r="H4374" t="s">
+        <v>2325</v>
       </c>
     </row>
     <row r="4375" spans="1:5">
       <c r="A4375" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4375" t="s">
-        <v>6340</v>
+        <v>2342</v>
       </c>
       <c r="C4375" t="s">
-        <v>5210</v>
+        <v>2343</v>
       </c>
       <c r="D4375" t="s">
-        <v>2802</v>
+        <v>2320</v>
       </c>
       <c r="E4375" t="s">
         <v>436</v>
@@ -101519,16 +101616,16 @@
     </row>
     <row r="4376" spans="1:5">
       <c r="A4376" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B4376" t="s">
-        <v>5169</v>
+        <v>2081</v>
       </c>
       <c r="C4376" t="s">
-        <v>5170</v>
+        <v>1672</v>
       </c>
       <c r="D4376" t="s">
-        <v>2802</v>
+        <v>2320</v>
       </c>
       <c r="E4376" t="s">
         <v>436</v>
@@ -101539,16 +101636,16 @@
         <v>119</v>
       </c>
       <c r="B4377" t="s">
-        <v>5223</v>
+        <v>456</v>
       </c>
       <c r="C4377" t="s">
-        <v>5224</v>
+        <v>457</v>
       </c>
       <c r="D4377" t="s">
-        <v>2802</v>
+        <v>412</v>
       </c>
       <c r="E4377" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4378" spans="1:5">
@@ -101556,16 +101653,16 @@
         <v>119</v>
       </c>
       <c r="B4378" t="s">
-        <v>6341</v>
+        <v>526</v>
       </c>
       <c r="C4378" t="s">
-        <v>5226</v>
+        <v>527</v>
       </c>
       <c r="D4378" t="s">
-        <v>2802</v>
+        <v>425</v>
       </c>
       <c r="E4378" t="s">
-        <v>436</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="4379" spans="1:5">
@@ -101573,13 +101670,13 @@
         <v>119</v>
       </c>
       <c r="B4379" t="s">
-        <v>5135</v>
+        <v>529</v>
       </c>
       <c r="C4379" t="s">
-        <v>5228</v>
+        <v>530</v>
       </c>
       <c r="D4379" t="s">
-        <v>2802</v>
+        <v>465</v>
       </c>
       <c r="E4379" t="s">
         <v>436</v>
@@ -101590,16 +101687,16 @@
         <v>119</v>
       </c>
       <c r="B4380" t="s">
-        <v>5231</v>
+        <v>6347</v>
       </c>
       <c r="C4380" t="s">
-        <v>5232</v>
+        <v>537</v>
       </c>
       <c r="D4380" t="s">
-        <v>2802</v>
+        <v>425</v>
       </c>
       <c r="E4380" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4381" spans="1:5">
@@ -101607,33 +101704,36 @@
         <v>119</v>
       </c>
       <c r="B4381" t="s">
-        <v>5143</v>
+        <v>3099</v>
       </c>
       <c r="C4381" t="s">
-        <v>5144</v>
+        <v>3100</v>
       </c>
       <c r="D4381" t="s">
-        <v>2802</v>
+        <v>412</v>
       </c>
       <c r="E4381" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4382" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:8">
       <c r="A4382" t="s">
         <v>119</v>
       </c>
       <c r="B4382" t="s">
-        <v>5249</v>
+        <v>3102</v>
       </c>
       <c r="C4382" t="s">
-        <v>5146</v>
+        <v>3100</v>
       </c>
       <c r="D4382" t="s">
-        <v>2802</v>
+        <v>417</v>
       </c>
       <c r="E4382" t="s">
         <v>436</v>
+      </c>
+      <c r="H4382" t="s">
+        <v>5605</v>
       </c>
     </row>
     <row r="4383" spans="1:5">
@@ -101641,13 +101741,13 @@
         <v>119</v>
       </c>
       <c r="B4383" t="s">
-        <v>5147</v>
+        <v>5608</v>
       </c>
       <c r="C4383" t="s">
-        <v>5148</v>
+        <v>6348</v>
       </c>
       <c r="D4383" t="s">
-        <v>2802</v>
+        <v>412</v>
       </c>
       <c r="E4383" t="s">
         <v>436</v>
@@ -101658,13 +101758,13 @@
         <v>119</v>
       </c>
       <c r="B4384" t="s">
-        <v>5149</v>
+        <v>6349</v>
       </c>
       <c r="C4384" t="s">
-        <v>5150</v>
+        <v>6350</v>
       </c>
       <c r="D4384" t="s">
-        <v>2802</v>
+        <v>462</v>
       </c>
       <c r="E4384" t="s">
         <v>436</v>
@@ -101675,33 +101775,36 @@
         <v>119</v>
       </c>
       <c r="B4385" t="s">
-        <v>6342</v>
+        <v>6351</v>
       </c>
       <c r="C4385" t="s">
-        <v>5641</v>
+        <v>6352</v>
       </c>
       <c r="D4385" t="s">
-        <v>2802</v>
+        <v>412</v>
       </c>
       <c r="E4385" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4386" spans="1:5">
+    <row r="4386" spans="1:8">
       <c r="A4386" t="s">
         <v>119</v>
       </c>
       <c r="B4386" t="s">
-        <v>6343</v>
+        <v>6353</v>
       </c>
       <c r="C4386" t="s">
-        <v>6344</v>
+        <v>6352</v>
       </c>
       <c r="D4386" t="s">
-        <v>2802</v>
+        <v>417</v>
       </c>
       <c r="E4386" t="s">
         <v>436</v>
+      </c>
+      <c r="H4386" t="s">
+        <v>2971</v>
       </c>
     </row>
     <row r="4387" spans="1:5">
@@ -101709,10 +101812,10 @@
         <v>119</v>
       </c>
       <c r="B4387" t="s">
-        <v>6345</v>
+        <v>5123</v>
       </c>
       <c r="C4387" t="s">
-        <v>6346</v>
+        <v>6354</v>
       </c>
       <c r="D4387" t="s">
         <v>2802</v>
@@ -101726,36 +101829,33 @@
         <v>119</v>
       </c>
       <c r="B4388" t="s">
-        <v>5235</v>
+        <v>6355</v>
       </c>
       <c r="C4388" t="s">
-        <v>2322</v>
+        <v>5210</v>
       </c>
       <c r="D4388" t="s">
-        <v>412</v>
+        <v>2802</v>
       </c>
       <c r="E4388" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4389" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:5">
       <c r="A4389" t="s">
         <v>119</v>
       </c>
       <c r="B4389" t="s">
-        <v>5236</v>
+        <v>5169</v>
       </c>
       <c r="C4389" t="s">
-        <v>2322</v>
+        <v>5170</v>
       </c>
       <c r="D4389" t="s">
-        <v>417</v>
+        <v>2802</v>
       </c>
       <c r="E4389" t="s">
         <v>436</v>
-      </c>
-      <c r="H4389" t="s">
-        <v>5237</v>
       </c>
     </row>
     <row r="4390" spans="1:5">
@@ -101763,13 +101863,13 @@
         <v>119</v>
       </c>
       <c r="B4390" t="s">
-        <v>5242</v>
+        <v>5223</v>
       </c>
       <c r="C4390" t="s">
-        <v>2388</v>
+        <v>5224</v>
       </c>
       <c r="D4390" t="s">
-        <v>462</v>
+        <v>2802</v>
       </c>
       <c r="E4390" t="s">
         <v>436</v>
@@ -101780,13 +101880,13 @@
         <v>119</v>
       </c>
       <c r="B4391" t="s">
-        <v>6347</v>
+        <v>6356</v>
       </c>
       <c r="C4391" t="s">
-        <v>6348</v>
+        <v>5226</v>
       </c>
       <c r="D4391" t="s">
-        <v>2137</v>
+        <v>2802</v>
       </c>
       <c r="E4391" t="s">
         <v>436</v>
@@ -101794,16 +101894,16 @@
     </row>
     <row r="4392" spans="1:5">
       <c r="A4392" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4392" t="s">
-        <v>454</v>
+        <v>5135</v>
       </c>
       <c r="C4392" t="s">
-        <v>455</v>
+        <v>5228</v>
       </c>
       <c r="D4392" t="s">
-        <v>412</v>
+        <v>2802</v>
       </c>
       <c r="E4392" t="s">
         <v>436</v>
@@ -101811,70 +101911,67 @@
     </row>
     <row r="4393" spans="1:5">
       <c r="A4393" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4393" t="s">
-        <v>456</v>
+        <v>5231</v>
       </c>
       <c r="C4393" t="s">
-        <v>457</v>
+        <v>5232</v>
       </c>
       <c r="D4393" t="s">
-        <v>412</v>
+        <v>2802</v>
       </c>
       <c r="E4393" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4394" spans="1:6">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:5">
       <c r="A4394" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4394" t="s">
-        <v>3383</v>
+        <v>5143</v>
       </c>
       <c r="C4394" t="s">
-        <v>3384</v>
+        <v>5144</v>
       </c>
       <c r="D4394" t="s">
-        <v>425</v>
+        <v>2802</v>
       </c>
       <c r="E4394" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4394" s="1" t="s">
-        <v>2278</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4395" spans="1:5">
       <c r="A4395" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4395" t="s">
-        <v>526</v>
+        <v>5249</v>
       </c>
       <c r="C4395" t="s">
-        <v>527</v>
+        <v>5146</v>
       </c>
       <c r="D4395" t="s">
-        <v>425</v>
+        <v>2802</v>
       </c>
       <c r="E4395" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4396" spans="1:5">
       <c r="A4396" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4396" t="s">
-        <v>529</v>
+        <v>5147</v>
       </c>
       <c r="C4396" t="s">
-        <v>530</v>
+        <v>5148</v>
       </c>
       <c r="D4396" t="s">
-        <v>465</v>
+        <v>2802</v>
       </c>
       <c r="E4396" t="s">
         <v>436</v>
@@ -101882,101 +101979,98 @@
     </row>
     <row r="4397" spans="1:5">
       <c r="A4397" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4397" t="s">
-        <v>6349</v>
+        <v>5149</v>
       </c>
       <c r="C4397" t="s">
-        <v>6350</v>
+        <v>5150</v>
       </c>
       <c r="D4397" t="s">
-        <v>425</v>
+        <v>2802</v>
       </c>
       <c r="E4397" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4398" spans="1:5">
       <c r="A4398" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4398" t="s">
-        <v>6351</v>
+        <v>6357</v>
       </c>
       <c r="C4398" t="s">
-        <v>6352</v>
+        <v>5641</v>
       </c>
       <c r="D4398" t="s">
-        <v>425</v>
+        <v>2802</v>
       </c>
       <c r="E4398" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4399" spans="1:5">
       <c r="A4399" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4399" t="s">
-        <v>6353</v>
+        <v>6358</v>
       </c>
       <c r="C4399" t="s">
-        <v>6354</v>
+        <v>6359</v>
       </c>
       <c r="D4399" t="s">
-        <v>425</v>
+        <v>2802</v>
       </c>
       <c r="E4399" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4400" spans="1:5">
       <c r="A4400" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4400" t="s">
-        <v>6355</v>
+        <v>6360</v>
       </c>
       <c r="C4400" t="s">
-        <v>6356</v>
+        <v>6361</v>
       </c>
       <c r="D4400" t="s">
-        <v>465</v>
+        <v>2802</v>
       </c>
       <c r="E4400" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4401" spans="1:6">
+    <row r="4401" spans="1:5">
       <c r="A4401" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4401" t="s">
-        <v>6357</v>
+        <v>5235</v>
       </c>
       <c r="C4401" t="s">
-        <v>6358</v>
+        <v>2322</v>
       </c>
       <c r="D4401" t="s">
         <v>412</v>
       </c>
       <c r="E4401" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4401" s="1" t="s">
-        <v>2323</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="4402" spans="1:8">
       <c r="A4402" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4402" t="s">
-        <v>6359</v>
+        <v>5236</v>
       </c>
       <c r="C4402" t="s">
-        <v>6358</v>
+        <v>2322</v>
       </c>
       <c r="D4402" t="s">
         <v>417</v>
@@ -101984,48 +102078,42 @@
       <c r="E4402" t="s">
         <v>436</v>
       </c>
-      <c r="F4402" s="1" t="s">
-        <v>2323</v>
-      </c>
       <c r="H4402" t="s">
-        <v>6360</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="4403" spans="1:5">
       <c r="A4403" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B4403" t="s">
-        <v>6361</v>
+        <v>5242</v>
       </c>
       <c r="C4403" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D4403" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4403" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:5">
+      <c r="A4404" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4404" t="s">
         <v>6362</v>
       </c>
-      <c r="D4403" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4403" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4404" spans="1:8">
-      <c r="A4404" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4404" t="s">
+      <c r="C4404" t="s">
         <v>6363</v>
       </c>
-      <c r="C4404" t="s">
-        <v>6362</v>
-      </c>
       <c r="D4404" t="s">
-        <v>417</v>
+        <v>2137</v>
       </c>
       <c r="E4404" t="s">
         <v>436</v>
-      </c>
-      <c r="H4404" t="s">
-        <v>5934</v>
       </c>
     </row>
     <row r="4405" spans="1:5">
@@ -102033,13 +102121,13 @@
         <v>93</v>
       </c>
       <c r="B4405" t="s">
-        <v>6364</v>
+        <v>454</v>
       </c>
       <c r="C4405" t="s">
-        <v>6365</v>
+        <v>455</v>
       </c>
       <c r="D4405" t="s">
-        <v>2287</v>
+        <v>412</v>
       </c>
       <c r="E4405" t="s">
         <v>436</v>
@@ -102050,33 +102138,36 @@
         <v>93</v>
       </c>
       <c r="B4406" t="s">
-        <v>6366</v>
+        <v>456</v>
       </c>
       <c r="C4406" t="s">
-        <v>6367</v>
+        <v>457</v>
       </c>
       <c r="D4406" t="s">
-        <v>2222</v>
+        <v>412</v>
       </c>
       <c r="E4406" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4407" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:6">
       <c r="A4407" t="s">
         <v>93</v>
       </c>
       <c r="B4407" t="s">
-        <v>6368</v>
+        <v>3383</v>
       </c>
       <c r="C4407" t="s">
-        <v>6369</v>
+        <v>3384</v>
       </c>
       <c r="D4407" t="s">
-        <v>2210</v>
+        <v>425</v>
       </c>
       <c r="E4407" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="F4407" s="1" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="4408" spans="1:5">
@@ -102084,16 +102175,16 @@
         <v>93</v>
       </c>
       <c r="B4408" t="s">
-        <v>6370</v>
+        <v>526</v>
       </c>
       <c r="C4408" t="s">
-        <v>6371</v>
+        <v>527</v>
       </c>
       <c r="D4408" t="s">
-        <v>2287</v>
+        <v>425</v>
       </c>
       <c r="E4408" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4409" spans="1:5">
@@ -102101,13 +102192,13 @@
         <v>93</v>
       </c>
       <c r="B4409" t="s">
-        <v>6372</v>
+        <v>529</v>
       </c>
       <c r="C4409" t="s">
-        <v>6373</v>
+        <v>530</v>
       </c>
       <c r="D4409" t="s">
-        <v>2287</v>
+        <v>465</v>
       </c>
       <c r="E4409" t="s">
         <v>436</v>
@@ -102118,16 +102209,16 @@
         <v>93</v>
       </c>
       <c r="B4410" t="s">
-        <v>6374</v>
+        <v>6364</v>
       </c>
       <c r="C4410" t="s">
-        <v>6375</v>
+        <v>6365</v>
       </c>
       <c r="D4410" t="s">
-        <v>2287</v>
+        <v>425</v>
       </c>
       <c r="E4410" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4411" spans="1:5">
@@ -102135,16 +102226,16 @@
         <v>93</v>
       </c>
       <c r="B4411" t="s">
-        <v>6376</v>
+        <v>6366</v>
       </c>
       <c r="C4411" t="s">
-        <v>6377</v>
+        <v>6367</v>
       </c>
       <c r="D4411" t="s">
-        <v>2222</v>
+        <v>425</v>
       </c>
       <c r="E4411" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4412" spans="1:5">
@@ -102152,16 +102243,16 @@
         <v>93</v>
       </c>
       <c r="B4412" t="s">
-        <v>6378</v>
+        <v>6368</v>
       </c>
       <c r="C4412" t="s">
-        <v>6379</v>
+        <v>6369</v>
       </c>
       <c r="D4412" t="s">
-        <v>2210</v>
+        <v>425</v>
       </c>
       <c r="E4412" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4413" spans="1:5">
@@ -102169,10 +102260,10 @@
         <v>93</v>
       </c>
       <c r="B4413" t="s">
-        <v>6380</v>
+        <v>6370</v>
       </c>
       <c r="C4413" t="s">
-        <v>6381</v>
+        <v>6371</v>
       </c>
       <c r="D4413" t="s">
         <v>465</v>
@@ -102186,10 +102277,10 @@
         <v>93</v>
       </c>
       <c r="B4414" t="s">
-        <v>6382</v>
+        <v>6372</v>
       </c>
       <c r="C4414" t="s">
-        <v>6383</v>
+        <v>6373</v>
       </c>
       <c r="D4414" t="s">
         <v>412</v>
@@ -102206,10 +102297,10 @@
         <v>93</v>
       </c>
       <c r="B4415" t="s">
-        <v>6384</v>
+        <v>6374</v>
       </c>
       <c r="C4415" t="s">
-        <v>6383</v>
+        <v>6373</v>
       </c>
       <c r="D4415" t="s">
         <v>417</v>
@@ -102221,7 +102312,7 @@
         <v>2323</v>
       </c>
       <c r="H4415" t="s">
-        <v>6360</v>
+        <v>6375</v>
       </c>
     </row>
     <row r="4416" spans="1:5">
@@ -102229,33 +102320,36 @@
         <v>93</v>
       </c>
       <c r="B4416" t="s">
-        <v>6385</v>
+        <v>6376</v>
       </c>
       <c r="C4416" t="s">
-        <v>6386</v>
+        <v>6377</v>
       </c>
       <c r="D4416" t="s">
-        <v>2287</v>
+        <v>412</v>
       </c>
       <c r="E4416" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4417" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:8">
       <c r="A4417" t="s">
         <v>93</v>
       </c>
       <c r="B4417" t="s">
-        <v>6387</v>
+        <v>6378</v>
       </c>
       <c r="C4417" t="s">
-        <v>6388</v>
+        <v>6377</v>
       </c>
       <c r="D4417" t="s">
-        <v>2287</v>
+        <v>417</v>
       </c>
       <c r="E4417" t="s">
         <v>436</v>
+      </c>
+      <c r="H4417" t="s">
+        <v>5934</v>
       </c>
     </row>
     <row r="4418" spans="1:5">
@@ -102263,10 +102357,10 @@
         <v>93</v>
       </c>
       <c r="B4418" t="s">
-        <v>6389</v>
+        <v>6379</v>
       </c>
       <c r="C4418" t="s">
-        <v>6390</v>
+        <v>6380</v>
       </c>
       <c r="D4418" t="s">
         <v>2287</v>
@@ -102280,10 +102374,10 @@
         <v>93</v>
       </c>
       <c r="B4419" t="s">
-        <v>6391</v>
+        <v>6381</v>
       </c>
       <c r="C4419" t="s">
-        <v>6392</v>
+        <v>6382</v>
       </c>
       <c r="D4419" t="s">
         <v>2222</v>
@@ -102297,10 +102391,10 @@
         <v>93</v>
       </c>
       <c r="B4420" t="s">
-        <v>6393</v>
+        <v>6383</v>
       </c>
       <c r="C4420" t="s">
-        <v>6394</v>
+        <v>6384</v>
       </c>
       <c r="D4420" t="s">
         <v>2210</v>
@@ -102314,36 +102408,33 @@
         <v>93</v>
       </c>
       <c r="B4421" t="s">
-        <v>6395</v>
+        <v>6385</v>
       </c>
       <c r="C4421" t="s">
-        <v>6396</v>
+        <v>6386</v>
       </c>
       <c r="D4421" t="s">
-        <v>412</v>
+        <v>2287</v>
       </c>
       <c r="E4421" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4422" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:5">
       <c r="A4422" t="s">
         <v>93</v>
       </c>
       <c r="B4422" t="s">
-        <v>6397</v>
+        <v>6387</v>
       </c>
       <c r="C4422" t="s">
-        <v>6396</v>
+        <v>6388</v>
       </c>
       <c r="D4422" t="s">
-        <v>417</v>
+        <v>2287</v>
       </c>
       <c r="E4422" t="s">
         <v>436</v>
-      </c>
-      <c r="H4422" t="s">
-        <v>6398</v>
       </c>
     </row>
     <row r="4423" spans="1:5">
@@ -102351,10 +102442,10 @@
         <v>93</v>
       </c>
       <c r="B4423" t="s">
-        <v>6399</v>
+        <v>6389</v>
       </c>
       <c r="C4423" t="s">
-        <v>6400</v>
+        <v>6390</v>
       </c>
       <c r="D4423" t="s">
         <v>2287</v>
@@ -102368,10 +102459,10 @@
         <v>93</v>
       </c>
       <c r="B4424" t="s">
-        <v>6401</v>
+        <v>6391</v>
       </c>
       <c r="C4424" t="s">
-        <v>6402</v>
+        <v>6392</v>
       </c>
       <c r="D4424" t="s">
         <v>2222</v>
@@ -102385,13 +102476,13 @@
         <v>93</v>
       </c>
       <c r="B4425" t="s">
-        <v>5949</v>
+        <v>6393</v>
       </c>
       <c r="C4425" t="s">
-        <v>5681</v>
+        <v>6394</v>
       </c>
       <c r="D4425" t="s">
-        <v>2222</v>
+        <v>2210</v>
       </c>
       <c r="E4425" t="s">
         <v>436</v>
@@ -102402,50 +102493,59 @@
         <v>93</v>
       </c>
       <c r="B4426" t="s">
-        <v>6403</v>
+        <v>6395</v>
       </c>
       <c r="C4426" t="s">
-        <v>6404</v>
+        <v>6396</v>
       </c>
       <c r="D4426" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="E4426" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4427" spans="1:5">
+    <row r="4427" spans="1:6">
       <c r="A4427" t="s">
         <v>93</v>
       </c>
       <c r="B4427" t="s">
-        <v>6405</v>
+        <v>6397</v>
       </c>
       <c r="C4427" t="s">
-        <v>6406</v>
+        <v>6398</v>
       </c>
       <c r="D4427" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4427" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4428" spans="1:5">
+      <c r="F4427" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:8">
       <c r="A4428" t="s">
         <v>93</v>
       </c>
       <c r="B4428" t="s">
-        <v>6407</v>
+        <v>6399</v>
       </c>
       <c r="C4428" t="s">
-        <v>6408</v>
+        <v>6398</v>
       </c>
       <c r="D4428" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="E4428" t="s">
         <v>436</v>
+      </c>
+      <c r="F4428" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="H4428" t="s">
+        <v>6375</v>
       </c>
     </row>
     <row r="4429" spans="1:5">
@@ -102453,13 +102553,13 @@
         <v>93</v>
       </c>
       <c r="B4429" t="s">
-        <v>6409</v>
+        <v>6400</v>
       </c>
       <c r="C4429" t="s">
-        <v>6410</v>
+        <v>6401</v>
       </c>
       <c r="D4429" t="s">
-        <v>2137</v>
+        <v>2287</v>
       </c>
       <c r="E4429" t="s">
         <v>436</v>
@@ -102470,36 +102570,33 @@
         <v>93</v>
       </c>
       <c r="B4430" t="s">
-        <v>6411</v>
+        <v>6402</v>
       </c>
       <c r="C4430" t="s">
-        <v>6412</v>
+        <v>6403</v>
       </c>
       <c r="D4430" t="s">
-        <v>412</v>
+        <v>2287</v>
       </c>
       <c r="E4430" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4431" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:5">
       <c r="A4431" t="s">
         <v>93</v>
       </c>
       <c r="B4431" t="s">
-        <v>6413</v>
+        <v>6404</v>
       </c>
       <c r="C4431" t="s">
-        <v>6412</v>
+        <v>6405</v>
       </c>
       <c r="D4431" t="s">
-        <v>417</v>
+        <v>2287</v>
       </c>
       <c r="E4431" t="s">
         <v>436</v>
-      </c>
-      <c r="H4431" t="s">
-        <v>3223</v>
       </c>
     </row>
     <row r="4432" spans="1:5">
@@ -102507,13 +102604,13 @@
         <v>93</v>
       </c>
       <c r="B4432" t="s">
-        <v>6414</v>
+        <v>6406</v>
       </c>
       <c r="C4432" t="s">
-        <v>6415</v>
+        <v>6407</v>
       </c>
       <c r="D4432" t="s">
-        <v>425</v>
+        <v>2222</v>
       </c>
       <c r="E4432" t="s">
         <v>436</v>
@@ -102524,121 +102621,118 @@
         <v>93</v>
       </c>
       <c r="B4433" t="s">
-        <v>6416</v>
+        <v>6408</v>
       </c>
       <c r="C4433" t="s">
-        <v>6417</v>
+        <v>6409</v>
       </c>
       <c r="D4433" t="s">
-        <v>412</v>
+        <v>2210</v>
       </c>
       <c r="E4433" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4434" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:5">
       <c r="A4434" t="s">
         <v>93</v>
       </c>
       <c r="B4434" t="s">
-        <v>6418</v>
+        <v>6410</v>
       </c>
       <c r="C4434" t="s">
-        <v>6417</v>
+        <v>6411</v>
       </c>
       <c r="D4434" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E4434" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4434" t="s">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="4435" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:8">
       <c r="A4435" t="s">
         <v>93</v>
       </c>
       <c r="B4435" t="s">
-        <v>6419</v>
+        <v>6412</v>
       </c>
       <c r="C4435" t="s">
-        <v>6420</v>
+        <v>6411</v>
       </c>
       <c r="D4435" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="E4435" t="s">
         <v>436</v>
+      </c>
+      <c r="H4435" t="s">
+        <v>6413</v>
       </c>
     </row>
     <row r="4436" spans="1:5">
       <c r="A4436" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4436" t="s">
-        <v>456</v>
+        <v>6414</v>
       </c>
       <c r="C4436" t="s">
-        <v>457</v>
+        <v>6415</v>
       </c>
       <c r="D4436" t="s">
-        <v>412</v>
+        <v>2287</v>
       </c>
       <c r="E4436" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4437" spans="1:6">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:5">
       <c r="A4437" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4437" t="s">
-        <v>3383</v>
+        <v>6416</v>
       </c>
       <c r="C4437" t="s">
-        <v>3384</v>
+        <v>6417</v>
       </c>
       <c r="D4437" t="s">
-        <v>425</v>
+        <v>2222</v>
       </c>
       <c r="E4437" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4437" s="1" t="s">
-        <v>2278</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4438" spans="1:5">
       <c r="A4438" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4438" t="s">
-        <v>526</v>
+        <v>5949</v>
       </c>
       <c r="C4438" t="s">
-        <v>527</v>
+        <v>5681</v>
       </c>
       <c r="D4438" t="s">
-        <v>425</v>
+        <v>2222</v>
       </c>
       <c r="E4438" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4439" spans="1:5">
       <c r="A4439" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4439" t="s">
-        <v>529</v>
+        <v>6418</v>
       </c>
       <c r="C4439" t="s">
-        <v>530</v>
+        <v>6419</v>
       </c>
       <c r="D4439" t="s">
-        <v>415</v>
+        <v>511</v>
       </c>
       <c r="E4439" t="s">
         <v>436</v>
@@ -102646,107 +102740,104 @@
     </row>
     <row r="4440" spans="1:5">
       <c r="A4440" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4440" t="s">
-        <v>5810</v>
+        <v>6420</v>
       </c>
       <c r="C4440" t="s">
         <v>6421</v>
       </c>
       <c r="D4440" t="s">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="E4440" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4441" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:5">
       <c r="A4441" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4441" t="s">
-        <v>5811</v>
+        <v>6422</v>
       </c>
       <c r="C4441" t="s">
-        <v>6421</v>
+        <v>6423</v>
       </c>
       <c r="D4441" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="E4441" t="s">
         <v>436</v>
-      </c>
-      <c r="H4441" t="s">
-        <v>5812</v>
       </c>
     </row>
     <row r="4442" spans="1:5">
       <c r="A4442" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4442" t="s">
-        <v>6422</v>
+        <v>6424</v>
       </c>
       <c r="C4442" t="s">
-        <v>6423</v>
+        <v>6425</v>
       </c>
       <c r="D4442" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E4442" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:5">
+      <c r="A4443" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4443" t="s">
+        <v>6426</v>
+      </c>
+      <c r="C4443" t="s">
+        <v>6427</v>
+      </c>
+      <c r="D4443" t="s">
         <v>412</v>
       </c>
-      <c r="E4442" t="s">
+      <c r="E4443" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="4443" spans="1:8">
-      <c r="A4443" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4443" t="s">
-        <v>6424</v>
-      </c>
-      <c r="C4443" t="s">
-        <v>6423</v>
-      </c>
-      <c r="D4443" t="s">
+    <row r="4444" spans="1:8">
+      <c r="A4444" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4444" t="s">
+        <v>6428</v>
+      </c>
+      <c r="C4444" t="s">
+        <v>6427</v>
+      </c>
+      <c r="D4444" t="s">
         <v>417</v>
       </c>
-      <c r="E4443" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4443" t="s">
-        <v>6425</v>
-      </c>
-    </row>
-    <row r="4444" spans="1:5">
-      <c r="A4444" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4444" t="s">
-        <v>5813</v>
-      </c>
-      <c r="C4444" t="s">
-        <v>5770</v>
-      </c>
-      <c r="D4444" t="s">
-        <v>2137</v>
-      </c>
       <c r="E4444" t="s">
         <v>436</v>
+      </c>
+      <c r="H4444" t="s">
+        <v>3223</v>
       </c>
     </row>
     <row r="4445" spans="1:5">
       <c r="A4445" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4445" t="s">
-        <v>5814</v>
+        <v>6429</v>
       </c>
       <c r="C4445" t="s">
-        <v>5815</v>
+        <v>6430</v>
       </c>
       <c r="D4445" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="E4445" t="s">
         <v>436</v>
@@ -102754,56 +102845,56 @@
     </row>
     <row r="4446" spans="1:5">
       <c r="A4446" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4446" t="s">
-        <v>6426</v>
+        <v>6431</v>
       </c>
       <c r="C4446" t="s">
-        <v>5817</v>
+        <v>6432</v>
       </c>
       <c r="D4446" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="E4446" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4447" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:8">
       <c r="A4447" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4447" t="s">
-        <v>5818</v>
+        <v>6433</v>
       </c>
       <c r="C4447" t="s">
-        <v>5819</v>
+        <v>6432</v>
       </c>
       <c r="D4447" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E4447" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4448" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="H4447" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:5">
       <c r="A4448" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4448" t="s">
-        <v>5820</v>
+        <v>6434</v>
       </c>
       <c r="C4448" t="s">
-        <v>5819</v>
+        <v>6435</v>
       </c>
       <c r="D4448" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="E4448" t="s">
         <v>436</v>
-      </c>
-      <c r="H4448" t="s">
-        <v>5821</v>
       </c>
     </row>
     <row r="4449" spans="1:5">
@@ -102811,36 +102902,36 @@
         <v>101</v>
       </c>
       <c r="B4449" t="s">
-        <v>2241</v>
+        <v>456</v>
       </c>
       <c r="C4449" t="s">
-        <v>2242</v>
+        <v>457</v>
       </c>
       <c r="D4449" t="s">
         <v>412</v>
       </c>
       <c r="E4449" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4450" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:6">
       <c r="A4450" t="s">
         <v>101</v>
       </c>
       <c r="B4450" t="s">
-        <v>2244</v>
+        <v>3383</v>
       </c>
       <c r="C4450" t="s">
-        <v>2242</v>
+        <v>3384</v>
       </c>
       <c r="D4450" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E4450" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4450" t="s">
-        <v>5062</v>
+        <v>433</v>
+      </c>
+      <c r="F4450" s="1" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="4451" spans="1:5">
@@ -102848,36 +102939,33 @@
         <v>101</v>
       </c>
       <c r="B4451" t="s">
-        <v>5822</v>
+        <v>526</v>
       </c>
       <c r="C4451" t="s">
-        <v>5823</v>
+        <v>527</v>
       </c>
       <c r="D4451" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="E4451" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4452" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:5">
       <c r="A4452" t="s">
         <v>101</v>
       </c>
       <c r="B4452" t="s">
-        <v>5824</v>
+        <v>529</v>
       </c>
       <c r="C4452" t="s">
-        <v>5823</v>
+        <v>530</v>
       </c>
       <c r="D4452" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E4452" t="s">
         <v>436</v>
-      </c>
-      <c r="H4452" t="s">
-        <v>5825</v>
       </c>
     </row>
     <row r="4453" spans="1:5">
@@ -102885,10 +102973,10 @@
         <v>101</v>
       </c>
       <c r="B4453" t="s">
-        <v>1514</v>
+        <v>5810</v>
       </c>
       <c r="C4453" t="s">
-        <v>1515</v>
+        <v>6436</v>
       </c>
       <c r="D4453" t="s">
         <v>412</v>
@@ -102902,10 +102990,10 @@
         <v>101</v>
       </c>
       <c r="B4454" t="s">
-        <v>1516</v>
+        <v>5811</v>
       </c>
       <c r="C4454" t="s">
-        <v>1515</v>
+        <v>6436</v>
       </c>
       <c r="D4454" t="s">
         <v>417</v>
@@ -102914,7 +103002,7 @@
         <v>436</v>
       </c>
       <c r="H4454" t="s">
-        <v>1517</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="4455" spans="1:5">
@@ -102922,53 +103010,53 @@
         <v>101</v>
       </c>
       <c r="B4455" t="s">
-        <v>5826</v>
+        <v>6437</v>
       </c>
       <c r="C4455" t="s">
-        <v>5827</v>
+        <v>6438</v>
       </c>
       <c r="D4455" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="E4455" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4456" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:8">
       <c r="A4456" t="s">
         <v>101</v>
       </c>
       <c r="B4456" t="s">
-        <v>5828</v>
+        <v>6439</v>
       </c>
       <c r="C4456" t="s">
-        <v>5829</v>
+        <v>6438</v>
       </c>
       <c r="D4456" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E4456" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4457" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="H4456" t="s">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:5">
       <c r="A4457" t="s">
         <v>101</v>
       </c>
       <c r="B4457" t="s">
-        <v>5830</v>
+        <v>5813</v>
       </c>
       <c r="C4457" t="s">
-        <v>5829</v>
+        <v>5770</v>
       </c>
       <c r="D4457" t="s">
-        <v>417</v>
+        <v>2137</v>
       </c>
       <c r="E4457" t="s">
         <v>436</v>
-      </c>
-      <c r="H4457" t="s">
-        <v>2971</v>
       </c>
     </row>
     <row r="4458" spans="1:5">
@@ -102976,36 +103064,33 @@
         <v>101</v>
       </c>
       <c r="B4458" t="s">
-        <v>5831</v>
+        <v>5814</v>
       </c>
       <c r="C4458" t="s">
-        <v>5832</v>
+        <v>5815</v>
       </c>
       <c r="D4458" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="E4458" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4459" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:5">
       <c r="A4459" t="s">
         <v>101</v>
       </c>
       <c r="B4459" t="s">
-        <v>5833</v>
+        <v>6441</v>
       </c>
       <c r="C4459" t="s">
-        <v>5832</v>
+        <v>5817</v>
       </c>
       <c r="D4459" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="E4459" t="s">
         <v>436</v>
-      </c>
-      <c r="H4459" t="s">
-        <v>5798</v>
       </c>
     </row>
     <row r="4460" spans="1:5">
@@ -103013,107 +103098,110 @@
         <v>101</v>
       </c>
       <c r="B4460" t="s">
-        <v>5834</v>
+        <v>5818</v>
       </c>
       <c r="C4460" t="s">
-        <v>5835</v>
+        <v>5819</v>
       </c>
       <c r="D4460" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="E4460" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4461" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:8">
       <c r="A4461" t="s">
         <v>101</v>
       </c>
       <c r="B4461" t="s">
-        <v>5836</v>
+        <v>5820</v>
       </c>
       <c r="C4461" t="s">
-        <v>1642</v>
+        <v>5819</v>
       </c>
       <c r="D4461" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E4461" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4462" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="H4461" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:5">
       <c r="A4462" t="s">
         <v>101</v>
       </c>
       <c r="B4462" t="s">
-        <v>5837</v>
+        <v>2241</v>
       </c>
       <c r="C4462" t="s">
-        <v>1642</v>
+        <v>2242</v>
       </c>
       <c r="D4462" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E4462" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4462" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="4463" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:8">
       <c r="A4463" t="s">
         <v>101</v>
       </c>
       <c r="B4463" t="s">
-        <v>5838</v>
+        <v>2244</v>
       </c>
       <c r="C4463" t="s">
-        <v>5839</v>
+        <v>2242</v>
       </c>
       <c r="D4463" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E4463" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="4464" spans="1:8">
+        <v>436</v>
+      </c>
+      <c r="H4463" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:5">
       <c r="A4464" t="s">
         <v>101</v>
       </c>
       <c r="B4464" t="s">
-        <v>5840</v>
+        <v>5822</v>
       </c>
       <c r="C4464" t="s">
-        <v>5839</v>
+        <v>5823</v>
       </c>
       <c r="D4464" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E4464" t="s">
-        <v>436</v>
-      </c>
-      <c r="H4464" t="s">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="4465" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:8">
       <c r="A4465" t="s">
         <v>101</v>
       </c>
       <c r="B4465" t="s">
-        <v>5841</v>
+        <v>5824</v>
       </c>
       <c r="C4465" t="s">
-        <v>5717</v>
+        <v>5823</v>
       </c>
       <c r="D4465" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E4465" t="s">
         <v>436</v>
+      </c>
+      <c r="H4465" t="s">
+        <v>5825</v>
       </c>
     </row>
     <row r="4466" spans="1:5">
@@ -103121,10 +103209,10 @@
         <v>101</v>
       </c>
       <c r="B4466" t="s">
-        <v>6427</v>
+        <v>1514</v>
       </c>
       <c r="C4466" t="s">
-        <v>6428</v>
+        <v>1515</v>
       </c>
       <c r="D4466" t="s">
         <v>412</v>
@@ -103138,10 +103226,10 @@
         <v>101</v>
       </c>
       <c r="B4467" t="s">
-        <v>6429</v>
+        <v>1516</v>
       </c>
       <c r="C4467" t="s">
-        <v>6428</v>
+        <v>1515</v>
       </c>
       <c r="D4467" t="s">
         <v>417</v>
@@ -103150,7 +103238,7 @@
         <v>436</v>
       </c>
       <c r="H4467" t="s">
-        <v>3223</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="4468" spans="1:5">
@@ -103158,13 +103246,13 @@
         <v>101</v>
       </c>
       <c r="B4468" t="s">
-        <v>2081</v>
+        <v>5826</v>
       </c>
       <c r="C4468" t="s">
-        <v>6430</v>
+        <v>5827</v>
       </c>
       <c r="D4468" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="E4468" t="s">
         <v>436</v>
@@ -103175,10 +103263,10 @@
         <v>101</v>
       </c>
       <c r="B4469" t="s">
-        <v>4173</v>
+        <v>5828</v>
       </c>
       <c r="C4469" t="s">
-        <v>4174</v>
+        <v>5829</v>
       </c>
       <c r="D4469" t="s">
         <v>412</v>
@@ -103192,10 +103280,10 @@
         <v>101</v>
       </c>
       <c r="B4470" t="s">
-        <v>4175</v>
+        <v>5830</v>
       </c>
       <c r="C4470" t="s">
-        <v>4174</v>
+        <v>5829</v>
       </c>
       <c r="D4470" t="s">
         <v>417</v>
@@ -103204,7 +103292,7 @@
         <v>436</v>
       </c>
       <c r="H4470" t="s">
-        <v>6431</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="4471" spans="1:5">
@@ -103212,33 +103300,36 @@
         <v>101</v>
       </c>
       <c r="B4471" t="s">
-        <v>6432</v>
+        <v>5831</v>
       </c>
       <c r="C4471" t="s">
-        <v>6433</v>
+        <v>5832</v>
       </c>
       <c r="D4471" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4471" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4472" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:8">
       <c r="A4472" t="s">
         <v>101</v>
       </c>
       <c r="B4472" t="s">
-        <v>6434</v>
+        <v>5833</v>
       </c>
       <c r="C4472" t="s">
-        <v>6435</v>
+        <v>5832</v>
       </c>
       <c r="D4472" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="E4472" t="s">
         <v>436</v>
+      </c>
+      <c r="H4472" t="s">
+        <v>5798</v>
       </c>
     </row>
     <row r="4473" spans="1:5">
@@ -103246,13 +103337,13 @@
         <v>101</v>
       </c>
       <c r="B4473" t="s">
-        <v>6436</v>
+        <v>5834</v>
       </c>
       <c r="C4473" t="s">
-        <v>6437</v>
+        <v>5835</v>
       </c>
       <c r="D4473" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="E4473" t="s">
         <v>436</v>
@@ -103263,33 +103354,36 @@
         <v>101</v>
       </c>
       <c r="B4474" t="s">
-        <v>6438</v>
+        <v>5836</v>
       </c>
       <c r="C4474" t="s">
-        <v>6439</v>
+        <v>1642</v>
       </c>
       <c r="D4474" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4474" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4475" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:8">
       <c r="A4475" t="s">
         <v>101</v>
       </c>
       <c r="B4475" t="s">
-        <v>6440</v>
+        <v>5837</v>
       </c>
       <c r="C4475" t="s">
-        <v>6441</v>
+        <v>1642</v>
       </c>
       <c r="D4475" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="E4475" t="s">
         <v>436</v>
+      </c>
+      <c r="H4475" t="s">
+        <v>2971</v>
       </c>
     </row>
     <row r="4476" spans="1:5">
@@ -103297,33 +103391,36 @@
         <v>101</v>
       </c>
       <c r="B4476" t="s">
-        <v>6442</v>
+        <v>5838</v>
       </c>
       <c r="C4476" t="s">
-        <v>6443</v>
+        <v>5839</v>
       </c>
       <c r="D4476" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4476" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4477" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:8">
       <c r="A4477" t="s">
         <v>101</v>
       </c>
       <c r="B4477" t="s">
-        <v>6444</v>
+        <v>5840</v>
       </c>
       <c r="C4477" t="s">
-        <v>6445</v>
+        <v>5839</v>
       </c>
       <c r="D4477" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="E4477" t="s">
         <v>436</v>
+      </c>
+      <c r="H4477" t="s">
+        <v>5798</v>
       </c>
     </row>
     <row r="4478" spans="1:5">
@@ -103331,13 +103428,13 @@
         <v>101</v>
       </c>
       <c r="B4478" t="s">
-        <v>6446</v>
+        <v>5841</v>
       </c>
       <c r="C4478" t="s">
-        <v>6447</v>
+        <v>5717</v>
       </c>
       <c r="D4478" t="s">
-        <v>511</v>
+        <v>425</v>
       </c>
       <c r="E4478" t="s">
         <v>436</v>
@@ -103348,33 +103445,36 @@
         <v>101</v>
       </c>
       <c r="B4479" t="s">
-        <v>6448</v>
+        <v>6442</v>
       </c>
       <c r="C4479" t="s">
-        <v>6449</v>
+        <v>6443</v>
       </c>
       <c r="D4479" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="E4479" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4480" spans="1:5">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:8">
       <c r="A4480" t="s">
         <v>101</v>
       </c>
       <c r="B4480" t="s">
-        <v>6450</v>
+        <v>6444</v>
       </c>
       <c r="C4480" t="s">
-        <v>6451</v>
+        <v>6443</v>
       </c>
       <c r="D4480" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
       <c r="E4480" t="s">
         <v>436</v>
+      </c>
+      <c r="H4480" t="s">
+        <v>3223</v>
       </c>
     </row>
     <row r="4481" spans="1:5">
@@ -103382,20 +103482,244 @@
         <v>101</v>
       </c>
       <c r="B4481" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C4481" t="s">
+        <v>6445</v>
+      </c>
+      <c r="D4481" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4481" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:5">
+      <c r="A4482" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4482" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C4482" t="s">
+        <v>4174</v>
+      </c>
+      <c r="D4482" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4482" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:8">
+      <c r="A4483" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4483" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C4483" t="s">
+        <v>4174</v>
+      </c>
+      <c r="D4483" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4483" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4483" t="s">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:5">
+      <c r="A4484" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4484" t="s">
+        <v>6447</v>
+      </c>
+      <c r="C4484" t="s">
+        <v>6448</v>
+      </c>
+      <c r="D4484" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4484" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:5">
+      <c r="A4485" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4485" t="s">
+        <v>6449</v>
+      </c>
+      <c r="C4485" t="s">
+        <v>6450</v>
+      </c>
+      <c r="D4485" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4485" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:5">
+      <c r="A4486" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4486" t="s">
+        <v>6451</v>
+      </c>
+      <c r="C4486" t="s">
         <v>6452</v>
       </c>
-      <c r="C4481" t="s">
+      <c r="D4486" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4486" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:5">
+      <c r="A4487" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4487" t="s">
         <v>6453</v>
       </c>
-      <c r="D4481" t="s">
+      <c r="C4487" t="s">
+        <v>6454</v>
+      </c>
+      <c r="D4487" t="s">
         <v>511</v>
       </c>
-      <c r="E4481" t="s">
+      <c r="E4487" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:5">
+      <c r="A4488" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4488" t="s">
+        <v>6455</v>
+      </c>
+      <c r="C4488" t="s">
+        <v>6456</v>
+      </c>
+      <c r="D4488" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4488" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:5">
+      <c r="A4489" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4489" t="s">
+        <v>6457</v>
+      </c>
+      <c r="C4489" t="s">
+        <v>6458</v>
+      </c>
+      <c r="D4489" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4489" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:5">
+      <c r="A4490" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4490" t="s">
+        <v>6459</v>
+      </c>
+      <c r="C4490" t="s">
+        <v>6460</v>
+      </c>
+      <c r="D4490" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4490" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:5">
+      <c r="A4491" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4491" t="s">
+        <v>6461</v>
+      </c>
+      <c r="C4491" t="s">
+        <v>6462</v>
+      </c>
+      <c r="D4491" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4491" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:5">
+      <c r="A4492" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4492" t="s">
+        <v>6463</v>
+      </c>
+      <c r="C4492" t="s">
+        <v>6464</v>
+      </c>
+      <c r="D4492" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4492" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:5">
+      <c r="A4493" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4493" t="s">
+        <v>6465</v>
+      </c>
+      <c r="C4493" t="s">
+        <v>6466</v>
+      </c>
+      <c r="D4493" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4493" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:5">
+      <c r="A4494" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4494" t="s">
+        <v>6467</v>
+      </c>
+      <c r="C4494" t="s">
+        <v>6468</v>
+      </c>
+      <c r="D4494" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4494" t="s">
         <v>436</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H4481">
+  <autoFilter ref="A1:H4494">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -103427,27 +103751,27 @@
         <v>3896</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6454</v>
+        <v>6469</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6455</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>6456</v>
+        <v>6471</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6457</v>
+        <v>6472</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6458</v>
+        <v>6473</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6459</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -103455,13 +103779,13 @@
         <v>3117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6460</v>
+        <v>6475</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6461</v>
+        <v>6476</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6462</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -103469,125 +103793,125 @@
         <v>3089</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6463</v>
+        <v>6478</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6464</v>
+        <v>6479</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6465</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>6466</v>
+        <v>6481</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6467</v>
+        <v>6482</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6468</v>
+        <v>6483</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6469</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>6470</v>
+        <v>6485</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6471</v>
+        <v>6486</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6472</v>
+        <v>6487</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6473</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>6474</v>
+        <v>6489</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6475</v>
+        <v>6490</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6476</v>
+        <v>6491</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6477</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>6478</v>
+        <v>6493</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6479</v>
+        <v>6494</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6480</v>
+        <v>6495</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6481</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>6482</v>
+        <v>6497</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6483</v>
+        <v>6498</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6484</v>
+        <v>6499</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6485</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>6486</v>
+        <v>6501</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6479</v>
+        <v>6494</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6480</v>
+        <v>6495</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6481</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6487</v>
+        <v>6502</v>
       </c>
       <c r="B11" t="s">
-        <v>6488</v>
+        <v>6503</v>
       </c>
       <c r="C11" t="s">
-        <v>6489</v>
+        <v>6504</v>
       </c>
       <c r="D11" t="s">
-        <v>6490</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>6491</v>
+        <v>6506</v>
       </c>
       <c r="B12" t="s">
-        <v>6492</v>
+        <v>6507</v>
       </c>
       <c r="C12" t="s">
-        <v>6493</v>
+        <v>6508</v>
       </c>
       <c r="D12" t="s">
-        <v>6494</v>
+        <v>6509</v>
       </c>
     </row>
   </sheetData>
@@ -103595,4 +103919,208 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5990</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6510</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5948</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5950</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5995</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5997</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6513</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6514</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>